--- a/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
   <si>
     <t>VIOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>153500</v>
+        <v>107100</v>
       </c>
       <c r="E8" s="3">
-        <v>166500</v>
+        <v>243800</v>
       </c>
       <c r="F8" s="3">
-        <v>97000</v>
+        <v>149700</v>
       </c>
       <c r="G8" s="3">
-        <v>137100</v>
+        <v>162400</v>
       </c>
       <c r="H8" s="3">
-        <v>81100</v>
+        <v>94600</v>
       </c>
       <c r="I8" s="3">
+        <v>133800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>79100</v>
+      </c>
+      <c r="K8" s="3">
         <v>101800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>47500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>58500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>31000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>40200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>19500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>17300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>119300</v>
+        <v>87000</v>
       </c>
       <c r="E9" s="3">
-        <v>122200</v>
+        <v>195300</v>
       </c>
       <c r="F9" s="3">
-        <v>69800</v>
+        <v>116400</v>
       </c>
       <c r="G9" s="3">
-        <v>100100</v>
+        <v>119200</v>
       </c>
       <c r="H9" s="3">
-        <v>56700</v>
+        <v>68100</v>
       </c>
       <c r="I9" s="3">
+        <v>97600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>55300</v>
+      </c>
+      <c r="K9" s="3">
         <v>74300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>33400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>39500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>21000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>28300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>13900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>12600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>34200</v>
+        <v>20100</v>
       </c>
       <c r="E10" s="3">
-        <v>44200</v>
+        <v>48500</v>
       </c>
       <c r="F10" s="3">
-        <v>27200</v>
+        <v>33300</v>
       </c>
       <c r="G10" s="3">
-        <v>37100</v>
+        <v>43200</v>
       </c>
       <c r="H10" s="3">
-        <v>24400</v>
+        <v>26500</v>
       </c>
       <c r="I10" s="3">
+        <v>36200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K10" s="3">
         <v>27500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>14000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>19000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>10000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>11900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>5600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>4800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6200</v>
+        <v>8300</v>
       </c>
       <c r="E12" s="3">
-        <v>8500</v>
+        <v>9200</v>
       </c>
       <c r="F12" s="3">
-        <v>5200</v>
+        <v>6000</v>
       </c>
       <c r="G12" s="3">
-        <v>6000</v>
+        <v>8300</v>
       </c>
       <c r="H12" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="I12" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K12" s="3">
         <v>4000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>3000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>3800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>141600</v>
+        <v>105400</v>
       </c>
       <c r="E17" s="3">
-        <v>152300</v>
+        <v>230800</v>
       </c>
       <c r="F17" s="3">
-        <v>91700</v>
+        <v>138100</v>
       </c>
       <c r="G17" s="3">
-        <v>128500</v>
+        <v>148500</v>
       </c>
       <c r="H17" s="3">
-        <v>89600</v>
+        <v>89500</v>
       </c>
       <c r="I17" s="3">
+        <v>125300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>87400</v>
+      </c>
+      <c r="K17" s="3">
         <v>95100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>42800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>50600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>26400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>37000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>17900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>16100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>11800</v>
+        <v>1800</v>
       </c>
       <c r="E18" s="3">
-        <v>14200</v>
+        <v>13000</v>
       </c>
       <c r="F18" s="3">
-        <v>5300</v>
+        <v>11500</v>
       </c>
       <c r="G18" s="3">
-        <v>8600</v>
+        <v>13800</v>
       </c>
       <c r="H18" s="3">
-        <v>-8500</v>
+        <v>5200</v>
       </c>
       <c r="I18" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K18" s="3">
         <v>6700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>7900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>4600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,52 +1243,60 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1233,41 +1306,47 @@
       <c r="E21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="3">
-        <v>7100</v>
+      <c r="F21" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="H21" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3">
         <v>7000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
         <v>8200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3">
         <v>3500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,75 +1389,87 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12300</v>
+        <v>2500</v>
       </c>
       <c r="E23" s="3">
-        <v>14800</v>
+        <v>14400</v>
       </c>
       <c r="F23" s="3">
-        <v>6800</v>
+        <v>12000</v>
       </c>
       <c r="G23" s="3">
-        <v>9200</v>
+        <v>14500</v>
       </c>
       <c r="H23" s="3">
-        <v>-8100</v>
+        <v>6600</v>
       </c>
       <c r="I23" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="K23" s="3">
         <v>6900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>8000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="F24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>700</v>
       </c>
       <c r="K24" s="3">
         <v>1000</v>
@@ -1387,19 +1478,25 @@
         <v>700</v>
       </c>
       <c r="M24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N24" s="3">
+        <v>700</v>
+      </c>
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10500</v>
+        <v>2500</v>
       </c>
       <c r="E26" s="3">
-        <v>12800</v>
+        <v>12600</v>
       </c>
       <c r="F26" s="3">
+        <v>10300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>12400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="K26" s="3">
         <v>5900</v>
       </c>
-      <c r="G26" s="3">
-        <v>7900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>5900</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>7000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10500</v>
+        <v>2500</v>
       </c>
       <c r="E27" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="F27" s="3">
-        <v>5900</v>
+        <v>10200</v>
       </c>
       <c r="G27" s="3">
-        <v>7900</v>
+        <v>12400</v>
       </c>
       <c r="H27" s="3">
-        <v>-9300</v>
+        <v>5800</v>
       </c>
       <c r="I27" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10500</v>
+        <v>2500</v>
       </c>
       <c r="E33" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="F33" s="3">
-        <v>5900</v>
+        <v>10200</v>
       </c>
       <c r="G33" s="3">
-        <v>7900</v>
+        <v>12400</v>
       </c>
       <c r="H33" s="3">
-        <v>-9300</v>
+        <v>5800</v>
       </c>
       <c r="I33" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10500</v>
+        <v>2500</v>
       </c>
       <c r="E35" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="F35" s="3">
-        <v>5900</v>
+        <v>10200</v>
       </c>
       <c r="G35" s="3">
-        <v>7900</v>
+        <v>12400</v>
       </c>
       <c r="H35" s="3">
-        <v>-9300</v>
+        <v>5800</v>
       </c>
       <c r="I35" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,35 +2138,37 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>104300</v>
+        <v>62400</v>
       </c>
       <c r="E41" s="3">
-        <v>95800</v>
+        <v>136100</v>
       </c>
       <c r="F41" s="3">
-        <v>109600</v>
+        <v>101800</v>
       </c>
       <c r="G41" s="3">
-        <v>134900</v>
+        <v>93500</v>
       </c>
       <c r="H41" s="3">
-        <v>133900</v>
+        <v>106900</v>
       </c>
       <c r="I41" s="3">
+        <v>131600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>130600</v>
+      </c>
+      <c r="K41" s="3">
         <v>36900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2011,28 +2184,34 @@
       <c r="P41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>54800</v>
+        <v>104400</v>
       </c>
       <c r="E42" s="3">
-        <v>43400</v>
+        <v>52700</v>
       </c>
       <c r="F42" s="3">
-        <v>49500</v>
+        <v>53400</v>
       </c>
       <c r="G42" s="3">
-        <v>24200</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>16</v>
+        <v>42300</v>
+      </c>
+      <c r="H42" s="3">
+        <v>48300</v>
+      </c>
+      <c r="I42" s="3">
+        <v>23700</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>16</v>
@@ -2046,44 +2225,50 @@
       <c r="M42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>118300</v>
+        <v>88900</v>
       </c>
       <c r="E43" s="3">
-        <v>110300</v>
+        <v>146700</v>
       </c>
       <c r="F43" s="3">
-        <v>52300</v>
+        <v>115400</v>
       </c>
       <c r="G43" s="3">
-        <v>69600</v>
+        <v>107600</v>
       </c>
       <c r="H43" s="3">
-        <v>55700</v>
+        <v>51000</v>
       </c>
       <c r="I43" s="3">
+        <v>67900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K43" s="3">
         <v>68000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2099,35 +2284,41 @@
       <c r="P43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>65000</v>
+        <v>51900</v>
       </c>
       <c r="E44" s="3">
-        <v>60400</v>
+        <v>58500</v>
       </c>
       <c r="F44" s="3">
-        <v>42900</v>
+        <v>63400</v>
       </c>
       <c r="G44" s="3">
-        <v>33300</v>
+        <v>58900</v>
       </c>
       <c r="H44" s="3">
-        <v>28900</v>
+        <v>41800</v>
       </c>
       <c r="I44" s="3">
+        <v>32500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K44" s="3">
         <v>23900</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2143,35 +2334,41 @@
       <c r="P44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7300</v>
+        <v>13200</v>
       </c>
       <c r="E45" s="3">
-        <v>8700</v>
+        <v>13000</v>
       </c>
       <c r="F45" s="3">
-        <v>12400</v>
+        <v>7100</v>
       </c>
       <c r="G45" s="3">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="H45" s="3">
-        <v>12800</v>
+        <v>12100</v>
       </c>
       <c r="I45" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K45" s="3">
         <v>15100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2187,35 +2384,41 @@
       <c r="P45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>349700</v>
+        <v>320900</v>
       </c>
       <c r="E46" s="3">
-        <v>318600</v>
+        <v>406900</v>
       </c>
       <c r="F46" s="3">
-        <v>266700</v>
+        <v>341100</v>
       </c>
       <c r="G46" s="3">
-        <v>273000</v>
+        <v>310800</v>
       </c>
       <c r="H46" s="3">
-        <v>231300</v>
+        <v>260200</v>
       </c>
       <c r="I46" s="3">
+        <v>266300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>225600</v>
+      </c>
+      <c r="K46" s="3">
         <v>143900</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2231,31 +2434,37 @@
       <c r="P46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>8400</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2275,35 +2484,41 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8300</v>
+        <v>11300</v>
       </c>
       <c r="E48" s="3">
-        <v>6800</v>
+        <v>12200</v>
       </c>
       <c r="F48" s="3">
-        <v>4800</v>
+        <v>8100</v>
       </c>
       <c r="G48" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I48" s="3">
         <v>1600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
+        <v>400</v>
+      </c>
+      <c r="K48" s="3">
         <v>500</v>
       </c>
-      <c r="I48" s="3">
-        <v>500</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2319,31 +2534,37 @@
       <c r="P48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>600</v>
+      </c>
+      <c r="F49" s="3">
         <v>400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>300</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>16</v>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>16</v>
@@ -2354,17 +2575,23 @@
       <c r="M49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,35 +2684,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4700</v>
+        <v>3500</v>
       </c>
       <c r="E52" s="3">
-        <v>5100</v>
+        <v>3300</v>
       </c>
       <c r="F52" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H52" s="3">
         <v>1400</v>
       </c>
-      <c r="G52" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J52" s="3">
         <v>1500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2784,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>363100</v>
+        <v>344900</v>
       </c>
       <c r="E54" s="3">
-        <v>330900</v>
+        <v>423000</v>
       </c>
       <c r="F54" s="3">
-        <v>273200</v>
+        <v>354100</v>
       </c>
       <c r="G54" s="3">
-        <v>275900</v>
+        <v>322800</v>
       </c>
       <c r="H54" s="3">
-        <v>233200</v>
+        <v>266500</v>
       </c>
       <c r="I54" s="3">
+        <v>269200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>227500</v>
+      </c>
+      <c r="K54" s="3">
         <v>145900</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2583,8 +2834,14 @@
       <c r="P54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,35 +2878,37 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>109200</v>
+        <v>104000</v>
       </c>
       <c r="E57" s="3">
-        <v>99300</v>
+        <v>146000</v>
       </c>
       <c r="F57" s="3">
-        <v>74800</v>
+        <v>106500</v>
       </c>
       <c r="G57" s="3">
-        <v>78700</v>
+        <v>96900</v>
       </c>
       <c r="H57" s="3">
-        <v>59600</v>
+        <v>73000</v>
       </c>
       <c r="I57" s="3">
+        <v>76800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>58100</v>
+      </c>
+      <c r="K57" s="3">
         <v>71500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2663,35 +2924,41 @@
       <c r="P57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14900</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
-        <v>14000</v>
+        <v>16900</v>
       </c>
       <c r="F58" s="3">
-        <v>400</v>
+        <v>14500</v>
       </c>
       <c r="G58" s="3">
-        <v>800</v>
+        <v>13600</v>
       </c>
       <c r="H58" s="3">
         <v>300</v>
       </c>
       <c r="I58" s="3">
+        <v>800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>300</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>16</v>
       </c>
@@ -2707,35 +2974,41 @@
       <c r="P58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>53100</v>
+        <v>40100</v>
       </c>
       <c r="E59" s="3">
-        <v>46300</v>
+        <v>65600</v>
       </c>
       <c r="F59" s="3">
-        <v>43900</v>
+        <v>51800</v>
       </c>
       <c r="G59" s="3">
-        <v>42700</v>
+        <v>45100</v>
       </c>
       <c r="H59" s="3">
-        <v>28900</v>
+        <v>42800</v>
       </c>
       <c r="I59" s="3">
+        <v>41600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K59" s="3">
         <v>28100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2751,35 +3024,41 @@
       <c r="P59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>177100</v>
+        <v>144700</v>
       </c>
       <c r="E60" s="3">
-        <v>159600</v>
+        <v>228500</v>
       </c>
       <c r="F60" s="3">
-        <v>119000</v>
+        <v>172800</v>
       </c>
       <c r="G60" s="3">
-        <v>122200</v>
+        <v>155700</v>
       </c>
       <c r="H60" s="3">
-        <v>88800</v>
+        <v>116100</v>
       </c>
       <c r="I60" s="3">
+        <v>119200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>86600</v>
+      </c>
+      <c r="K60" s="3">
         <v>100000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2795,8 +3074,14 @@
       <c r="P60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,34 +3124,40 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>16</v>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>16</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,35 +3324,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>179700</v>
+        <v>147500</v>
       </c>
       <c r="E66" s="3">
-        <v>162600</v>
+        <v>231400</v>
       </c>
       <c r="F66" s="3">
-        <v>121100</v>
+        <v>175300</v>
       </c>
       <c r="G66" s="3">
-        <v>122700</v>
+        <v>158600</v>
       </c>
       <c r="H66" s="3">
-        <v>89200</v>
+        <v>118100</v>
       </c>
       <c r="I66" s="3">
+        <v>119700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>87000</v>
+      </c>
+      <c r="K66" s="3">
         <v>100100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3059,8 +3374,14 @@
       <c r="P66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3186,14 +3521,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>22600</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,35 +3594,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15300</v>
+        <v>29500</v>
       </c>
       <c r="E72" s="3">
-        <v>4900</v>
+        <v>27400</v>
       </c>
       <c r="F72" s="3">
-        <v>-7800</v>
+        <v>15000</v>
       </c>
       <c r="G72" s="3">
-        <v>-13700</v>
+        <v>4800</v>
       </c>
       <c r="H72" s="3">
-        <v>-21600</v>
+        <v>-7600</v>
       </c>
       <c r="I72" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-13000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3297,8 +3644,14 @@
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,35 +3794,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>183300</v>
+        <v>197400</v>
       </c>
       <c r="E76" s="3">
-        <v>168300</v>
+        <v>191600</v>
       </c>
       <c r="F76" s="3">
-        <v>152100</v>
+        <v>178800</v>
       </c>
       <c r="G76" s="3">
-        <v>153200</v>
+        <v>164200</v>
       </c>
       <c r="H76" s="3">
-        <v>144000</v>
+        <v>148400</v>
       </c>
       <c r="I76" s="3">
+        <v>149500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>140500</v>
+      </c>
+      <c r="K76" s="3">
         <v>23200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3473,8 +3844,14 @@
       <c r="P76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10500</v>
+        <v>2500</v>
       </c>
       <c r="E81" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="F81" s="3">
-        <v>5900</v>
+        <v>10200</v>
       </c>
       <c r="G81" s="3">
-        <v>7900</v>
+        <v>12400</v>
       </c>
       <c r="H81" s="3">
-        <v>-9300</v>
+        <v>5800</v>
       </c>
       <c r="I81" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3639,15 +4036,15 @@
       <c r="E83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>16</v>
       </c>
@@ -3663,17 +4060,23 @@
       <c r="M83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3903,14 +4336,14 @@
       <c r="E89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="3">
-        <v>4200</v>
+      <c r="F89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>16</v>
+      <c r="H89" s="3">
+        <v>4100</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>16</v>
@@ -3927,17 +4360,23 @@
       <c r="M89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3965,15 +4406,15 @@
       <c r="E91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>16</v>
       </c>
@@ -3989,17 +4430,23 @@
       <c r="M91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4097,14 +4556,14 @@
       <c r="E94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F94" s="3">
-        <v>-26900</v>
+      <c r="F94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>16</v>
+      <c r="H94" s="3">
+        <v>-26200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>16</v>
@@ -4121,17 +4580,23 @@
       <c r="M94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4335,15 +4826,15 @@
       <c r="E100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>16</v>
       </c>
@@ -4359,17 +4850,23 @@
       <c r="M100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4379,15 +4876,15 @@
       <c r="E101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>16</v>
       </c>
@@ -4403,17 +4900,23 @@
       <c r="M101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4423,14 +4926,14 @@
       <c r="E102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F102" s="3">
-        <v>-25100</v>
+      <c r="F102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
+      <c r="H102" s="3">
+        <v>-24500</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>16</v>
@@ -4447,13 +4950,19 @@
       <c r="M102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
   <si>
     <t>VIOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>107100</v>
+        <v>244600</v>
       </c>
       <c r="E8" s="3">
-        <v>243800</v>
+        <v>111200</v>
       </c>
       <c r="F8" s="3">
-        <v>149700</v>
+        <v>252900</v>
       </c>
       <c r="G8" s="3">
-        <v>162400</v>
+        <v>155300</v>
       </c>
       <c r="H8" s="3">
-        <v>94600</v>
+        <v>168500</v>
       </c>
       <c r="I8" s="3">
-        <v>133800</v>
+        <v>98200</v>
       </c>
       <c r="J8" s="3">
+        <v>138800</v>
+      </c>
+      <c r="K8" s="3">
         <v>79100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>101800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>47500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>58500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>31000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>40200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>19500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>17300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>87000</v>
+        <v>209600</v>
       </c>
       <c r="E9" s="3">
-        <v>195300</v>
+        <v>90300</v>
       </c>
       <c r="F9" s="3">
-        <v>116400</v>
+        <v>202600</v>
       </c>
       <c r="G9" s="3">
-        <v>119200</v>
+        <v>120700</v>
       </c>
       <c r="H9" s="3">
-        <v>68100</v>
+        <v>123700</v>
       </c>
       <c r="I9" s="3">
-        <v>97600</v>
+        <v>70700</v>
       </c>
       <c r="J9" s="3">
+        <v>101300</v>
+      </c>
+      <c r="K9" s="3">
         <v>55300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>74300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>33400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>39500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>21000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>28300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>20100</v>
+        <v>35000</v>
       </c>
       <c r="E10" s="3">
-        <v>48500</v>
+        <v>20900</v>
       </c>
       <c r="F10" s="3">
-        <v>33300</v>
+        <v>50300</v>
       </c>
       <c r="G10" s="3">
-        <v>43200</v>
+        <v>34600</v>
       </c>
       <c r="H10" s="3">
-        <v>26500</v>
+        <v>44800</v>
       </c>
       <c r="I10" s="3">
-        <v>36200</v>
+        <v>27500</v>
       </c>
       <c r="J10" s="3">
+        <v>37500</v>
+      </c>
+      <c r="K10" s="3">
         <v>23800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>27500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>11900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>8300</v>
+        <v>8800</v>
       </c>
       <c r="E12" s="3">
-        <v>9200</v>
+        <v>8600</v>
       </c>
       <c r="F12" s="3">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="G12" s="3">
-        <v>8300</v>
+        <v>6300</v>
       </c>
       <c r="H12" s="3">
-        <v>5100</v>
+        <v>8700</v>
       </c>
       <c r="I12" s="3">
-        <v>5900</v>
+        <v>5300</v>
       </c>
       <c r="J12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K12" s="3">
         <v>4700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>105400</v>
+        <v>243400</v>
       </c>
       <c r="E17" s="3">
-        <v>230800</v>
+        <v>109400</v>
       </c>
       <c r="F17" s="3">
-        <v>138100</v>
+        <v>239500</v>
       </c>
       <c r="G17" s="3">
-        <v>148500</v>
+        <v>143300</v>
       </c>
       <c r="H17" s="3">
-        <v>89500</v>
+        <v>154100</v>
       </c>
       <c r="I17" s="3">
-        <v>125300</v>
+        <v>92800</v>
       </c>
       <c r="J17" s="3">
+        <v>130100</v>
+      </c>
+      <c r="K17" s="3">
         <v>87400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>95100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>42800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>50600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>37000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>1800</v>
       </c>
-      <c r="E18" s="3">
-        <v>13000</v>
-      </c>
       <c r="F18" s="3">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="G18" s="3">
-        <v>13800</v>
+        <v>12000</v>
       </c>
       <c r="H18" s="3">
-        <v>5200</v>
+        <v>14400</v>
       </c>
       <c r="I18" s="3">
-        <v>8400</v>
+        <v>5400</v>
       </c>
       <c r="J18" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-8300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,40 +1278,41 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
-        <v>1400</v>
-      </c>
       <c r="F20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
-        <v>1400</v>
-      </c>
       <c r="I20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>200</v>
       </c>
       <c r="L20" s="3">
         <v>200</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
@@ -1287,7 +1321,7 @@
         <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1312,41 +1349,44 @@
       <c r="G21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="3">
-        <v>6900</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3">
         <v>7000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
         <v>8200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3">
         <v>3500</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E23" s="3">
-        <v>14400</v>
+        <v>2600</v>
       </c>
       <c r="F23" s="3">
-        <v>12000</v>
+        <v>14900</v>
       </c>
       <c r="G23" s="3">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="H23" s="3">
-        <v>6600</v>
+        <v>15000</v>
       </c>
       <c r="I23" s="3">
-        <v>8900</v>
+        <v>6900</v>
       </c>
       <c r="J23" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-7900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E24" s="3">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G24" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="H24" s="3">
-        <v>800</v>
+        <v>2100</v>
       </c>
       <c r="I24" s="3">
+        <v>900</v>
+      </c>
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="E26" s="3">
-        <v>12600</v>
+        <v>2600</v>
       </c>
       <c r="F26" s="3">
-        <v>10300</v>
+        <v>13100</v>
       </c>
       <c r="G26" s="3">
-        <v>12400</v>
+        <v>10600</v>
       </c>
       <c r="H26" s="3">
-        <v>5800</v>
+        <v>12900</v>
       </c>
       <c r="I26" s="3">
-        <v>7700</v>
+        <v>6000</v>
       </c>
       <c r="J26" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-8400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>600</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="E27" s="3">
-        <v>12600</v>
+        <v>2600</v>
       </c>
       <c r="F27" s="3">
-        <v>10200</v>
+        <v>13000</v>
       </c>
       <c r="G27" s="3">
-        <v>12400</v>
+        <v>10600</v>
       </c>
       <c r="H27" s="3">
-        <v>5800</v>
+        <v>12800</v>
       </c>
       <c r="I27" s="3">
-        <v>7700</v>
+        <v>6000</v>
       </c>
       <c r="J27" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-9100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2300</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,40 +1912,43 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
-        <v>-1400</v>
-      </c>
       <c r="F32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
-        <v>-1400</v>
-      </c>
       <c r="I32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-200</v>
       </c>
       <c r="L32" s="3">
         <v>-200</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
@@ -1887,7 +1957,7 @@
         <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="E33" s="3">
-        <v>12600</v>
+        <v>2600</v>
       </c>
       <c r="F33" s="3">
-        <v>10200</v>
+        <v>13000</v>
       </c>
       <c r="G33" s="3">
-        <v>12400</v>
+        <v>10600</v>
       </c>
       <c r="H33" s="3">
-        <v>5800</v>
+        <v>12800</v>
       </c>
       <c r="I33" s="3">
-        <v>7700</v>
+        <v>6000</v>
       </c>
       <c r="J33" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-9100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2300</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="E35" s="3">
-        <v>12600</v>
+        <v>2600</v>
       </c>
       <c r="F35" s="3">
-        <v>10200</v>
+        <v>13000</v>
       </c>
       <c r="G35" s="3">
-        <v>12400</v>
+        <v>10600</v>
       </c>
       <c r="H35" s="3">
-        <v>5800</v>
+        <v>12800</v>
       </c>
       <c r="I35" s="3">
-        <v>7700</v>
+        <v>6000</v>
       </c>
       <c r="J35" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-9100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2300</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,38 +2226,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>62400</v>
+        <v>92100</v>
       </c>
       <c r="E41" s="3">
-        <v>136100</v>
+        <v>64800</v>
       </c>
       <c r="F41" s="3">
-        <v>101800</v>
+        <v>141200</v>
       </c>
       <c r="G41" s="3">
-        <v>93500</v>
+        <v>105600</v>
       </c>
       <c r="H41" s="3">
-        <v>106900</v>
+        <v>97000</v>
       </c>
       <c r="I41" s="3">
-        <v>131600</v>
+        <v>111000</v>
       </c>
       <c r="J41" s="3">
+        <v>136600</v>
+      </c>
+      <c r="K41" s="3">
         <v>130600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>36900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2190,31 +2277,34 @@
       <c r="R41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>104400</v>
+        <v>53300</v>
       </c>
       <c r="E42" s="3">
-        <v>52700</v>
+        <v>108400</v>
       </c>
       <c r="F42" s="3">
-        <v>53400</v>
+        <v>54600</v>
       </c>
       <c r="G42" s="3">
-        <v>42300</v>
+        <v>55500</v>
       </c>
       <c r="H42" s="3">
-        <v>48300</v>
+        <v>43900</v>
       </c>
       <c r="I42" s="3">
-        <v>23700</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>16</v>
+        <v>50100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>24500</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>16</v>
@@ -2231,8 +2321,8 @@
       <c r="O42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2240,38 +2330,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>88900</v>
+        <v>182300</v>
       </c>
       <c r="E43" s="3">
-        <v>146700</v>
+        <v>92200</v>
       </c>
       <c r="F43" s="3">
-        <v>115400</v>
+        <v>152200</v>
       </c>
       <c r="G43" s="3">
-        <v>107600</v>
+        <v>119800</v>
       </c>
       <c r="H43" s="3">
-        <v>51000</v>
+        <v>111700</v>
       </c>
       <c r="I43" s="3">
-        <v>67900</v>
+        <v>53000</v>
       </c>
       <c r="J43" s="3">
+        <v>70400</v>
+      </c>
+      <c r="K43" s="3">
         <v>54300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>68000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2290,38 +2383,41 @@
       <c r="R43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>51900</v>
+        <v>59900</v>
       </c>
       <c r="E44" s="3">
-        <v>58500</v>
+        <v>53900</v>
       </c>
       <c r="F44" s="3">
-        <v>63400</v>
+        <v>60700</v>
       </c>
       <c r="G44" s="3">
-        <v>58900</v>
+        <v>65800</v>
       </c>
       <c r="H44" s="3">
-        <v>41800</v>
+        <v>61100</v>
       </c>
       <c r="I44" s="3">
-        <v>32500</v>
+        <v>43400</v>
       </c>
       <c r="J44" s="3">
+        <v>33700</v>
+      </c>
+      <c r="K44" s="3">
         <v>28100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>23900</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2340,38 +2436,41 @@
       <c r="R44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13200</v>
+        <v>18500</v>
       </c>
       <c r="E45" s="3">
-        <v>13000</v>
+        <v>13700</v>
       </c>
       <c r="F45" s="3">
-        <v>7100</v>
+        <v>13500</v>
       </c>
       <c r="G45" s="3">
-        <v>8500</v>
+        <v>7300</v>
       </c>
       <c r="H45" s="3">
-        <v>12100</v>
+        <v>8800</v>
       </c>
       <c r="I45" s="3">
-        <v>10700</v>
+        <v>12600</v>
       </c>
       <c r="J45" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K45" s="3">
         <v>12500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2390,38 +2489,41 @@
       <c r="R45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>320900</v>
+        <v>406100</v>
       </c>
       <c r="E46" s="3">
-        <v>406900</v>
+        <v>333000</v>
       </c>
       <c r="F46" s="3">
-        <v>341100</v>
+        <v>422300</v>
       </c>
       <c r="G46" s="3">
-        <v>310800</v>
+        <v>353900</v>
       </c>
       <c r="H46" s="3">
-        <v>260200</v>
+        <v>322500</v>
       </c>
       <c r="I46" s="3">
-        <v>266300</v>
+        <v>270000</v>
       </c>
       <c r="J46" s="3">
+        <v>276300</v>
+      </c>
+      <c r="K46" s="3">
         <v>225600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>143900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2440,16 +2542,19 @@
       <c r="R46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8400</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>16</v>
+        <v>8700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>8700</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>16</v>
@@ -2466,8 +2571,8 @@
       <c r="J47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2490,38 +2595,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11300</v>
+        <v>12400</v>
       </c>
       <c r="E48" s="3">
-        <v>12200</v>
+        <v>11700</v>
       </c>
       <c r="F48" s="3">
-        <v>8100</v>
+        <v>12600</v>
       </c>
       <c r="G48" s="3">
-        <v>6700</v>
+        <v>8400</v>
       </c>
       <c r="H48" s="3">
-        <v>4600</v>
+        <v>6900</v>
       </c>
       <c r="I48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J48" s="3">
         <v>1600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2549,25 +2660,25 @@
         <v>800</v>
       </c>
       <c r="E49" s="3">
+        <v>800</v>
+      </c>
+      <c r="F49" s="3">
         <v>600</v>
-      </c>
-      <c r="F49" s="3">
-        <v>400</v>
       </c>
       <c r="G49" s="3">
         <v>400</v>
       </c>
       <c r="H49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>16</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>16</v>
@@ -2581,8 +2692,8 @@
       <c r="O49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,37 +2807,40 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3500</v>
+        <v>7100</v>
       </c>
       <c r="E52" s="3">
-        <v>3300</v>
+        <v>3700</v>
       </c>
       <c r="F52" s="3">
-        <v>4600</v>
+        <v>3400</v>
       </c>
       <c r="G52" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="H52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I52" s="3">
         <v>1400</v>
       </c>
-      <c r="I52" s="3">
-        <v>1200</v>
-      </c>
       <c r="J52" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="K52" s="3">
         <v>1500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>16</v>
+      <c r="L52" s="3">
+        <v>1500</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>16</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,38 +2913,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>344900</v>
+        <v>435000</v>
       </c>
       <c r="E54" s="3">
-        <v>423000</v>
+        <v>357900</v>
       </c>
       <c r="F54" s="3">
-        <v>354100</v>
+        <v>439000</v>
       </c>
       <c r="G54" s="3">
-        <v>322800</v>
+        <v>367500</v>
       </c>
       <c r="H54" s="3">
-        <v>266500</v>
+        <v>335000</v>
       </c>
       <c r="I54" s="3">
-        <v>269200</v>
+        <v>276600</v>
       </c>
       <c r="J54" s="3">
+        <v>279300</v>
+      </c>
+      <c r="K54" s="3">
         <v>227500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>145900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,38 +3010,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>104000</v>
+        <v>161800</v>
       </c>
       <c r="E57" s="3">
-        <v>146000</v>
+        <v>107900</v>
       </c>
       <c r="F57" s="3">
-        <v>106500</v>
+        <v>151500</v>
       </c>
       <c r="G57" s="3">
-        <v>96900</v>
+        <v>110500</v>
       </c>
       <c r="H57" s="3">
-        <v>73000</v>
+        <v>100500</v>
       </c>
       <c r="I57" s="3">
-        <v>76800</v>
+        <v>75700</v>
       </c>
       <c r="J57" s="3">
+        <v>79700</v>
+      </c>
+      <c r="K57" s="3">
         <v>58100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>71500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>16</v>
       </c>
@@ -2930,38 +3061,41 @@
       <c r="R57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
-        <v>16900</v>
-      </c>
       <c r="F58" s="3">
-        <v>14500</v>
+        <v>17600</v>
       </c>
       <c r="G58" s="3">
-        <v>13600</v>
+        <v>15000</v>
       </c>
       <c r="H58" s="3">
+        <v>14200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>800</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
-        <v>800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>300</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>16</v>
       </c>
@@ -2980,38 +3114,41 @@
       <c r="R58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>40100</v>
+        <v>56800</v>
       </c>
       <c r="E59" s="3">
-        <v>65600</v>
+        <v>41600</v>
       </c>
       <c r="F59" s="3">
-        <v>51800</v>
+        <v>68100</v>
       </c>
       <c r="G59" s="3">
-        <v>45100</v>
+        <v>53700</v>
       </c>
       <c r="H59" s="3">
-        <v>42800</v>
+        <v>46800</v>
       </c>
       <c r="I59" s="3">
-        <v>41600</v>
+        <v>44400</v>
       </c>
       <c r="J59" s="3">
+        <v>43200</v>
+      </c>
+      <c r="K59" s="3">
         <v>28200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3030,38 +3167,41 @@
       <c r="R59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>144700</v>
+        <v>222600</v>
       </c>
       <c r="E60" s="3">
-        <v>228500</v>
+        <v>150200</v>
       </c>
       <c r="F60" s="3">
-        <v>172800</v>
+        <v>237100</v>
       </c>
       <c r="G60" s="3">
-        <v>155700</v>
+        <v>179300</v>
       </c>
       <c r="H60" s="3">
-        <v>116100</v>
+        <v>161500</v>
       </c>
       <c r="I60" s="3">
-        <v>119200</v>
+        <v>120500</v>
       </c>
       <c r="J60" s="3">
+        <v>123700</v>
+      </c>
+      <c r="K60" s="3">
         <v>86600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>100000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,37 +3273,40 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="E62" s="3">
         <v>2100</v>
       </c>
       <c r="F62" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="G62" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I62" s="3">
         <v>1600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>16</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>16</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,38 +3485,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>147500</v>
+        <v>226100</v>
       </c>
       <c r="E66" s="3">
-        <v>231400</v>
+        <v>153100</v>
       </c>
       <c r="F66" s="3">
-        <v>175300</v>
+        <v>240200</v>
       </c>
       <c r="G66" s="3">
-        <v>158600</v>
+        <v>181900</v>
       </c>
       <c r="H66" s="3">
-        <v>118100</v>
+        <v>164600</v>
       </c>
       <c r="I66" s="3">
-        <v>119700</v>
+        <v>122600</v>
       </c>
       <c r="J66" s="3">
+        <v>124200</v>
+      </c>
+      <c r="K66" s="3">
         <v>87000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>100100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3527,11 +3695,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>22600</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,38 +3771,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>29500</v>
+        <v>32000</v>
       </c>
       <c r="E72" s="3">
-        <v>27400</v>
+        <v>30600</v>
       </c>
       <c r="F72" s="3">
-        <v>15000</v>
+        <v>28400</v>
       </c>
       <c r="G72" s="3">
-        <v>4800</v>
+        <v>15500</v>
       </c>
       <c r="H72" s="3">
-        <v>-7600</v>
+        <v>4900</v>
       </c>
       <c r="I72" s="3">
-        <v>-13400</v>
+        <v>-7900</v>
       </c>
       <c r="J72" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-21100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,38 +3983,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>197400</v>
+        <v>208900</v>
       </c>
       <c r="E76" s="3">
-        <v>191600</v>
+        <v>204800</v>
       </c>
       <c r="F76" s="3">
-        <v>178800</v>
+        <v>198800</v>
       </c>
       <c r="G76" s="3">
-        <v>164200</v>
+        <v>185600</v>
       </c>
       <c r="H76" s="3">
-        <v>148400</v>
+        <v>170400</v>
       </c>
       <c r="I76" s="3">
-        <v>149500</v>
+        <v>154000</v>
       </c>
       <c r="J76" s="3">
+        <v>155100</v>
+      </c>
+      <c r="K76" s="3">
         <v>140500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="E81" s="3">
-        <v>12600</v>
+        <v>2600</v>
       </c>
       <c r="F81" s="3">
-        <v>10200</v>
+        <v>13000</v>
       </c>
       <c r="G81" s="3">
-        <v>12400</v>
+        <v>10600</v>
       </c>
       <c r="H81" s="3">
-        <v>5800</v>
+        <v>12800</v>
       </c>
       <c r="I81" s="3">
-        <v>7700</v>
+        <v>6000</v>
       </c>
       <c r="J81" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-9100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2300</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4042,12 +4241,12 @@
       <c r="G83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>16</v>
       </c>
@@ -4066,8 +4265,8 @@
       <c r="O83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4342,11 +4559,11 @@
       <c r="G89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H89" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>16</v>
+      <c r="H89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="3">
+        <v>4200</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>16</v>
@@ -4366,8 +4583,8 @@
       <c r="O89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4412,12 +4633,12 @@
       <c r="G91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>16</v>
       </c>
@@ -4436,8 +4657,8 @@
       <c r="O91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4562,11 +4792,11 @@
       <c r="G94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H94" s="3">
-        <v>-26200</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>16</v>
+      <c r="H94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-27200</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>16</v>
@@ -4586,8 +4816,8 @@
       <c r="O94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4832,12 +5078,12 @@
       <c r="G100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>16</v>
       </c>
@@ -4856,8 +5102,8 @@
       <c r="O100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4882,12 +5131,12 @@
       <c r="G101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>16</v>
       </c>
@@ -4906,8 +5155,8 @@
       <c r="O101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4932,11 +5184,11 @@
       <c r="G102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H102" s="3">
-        <v>-24500</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>16</v>
+      <c r="H102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-25400</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>16</v>
@@ -4956,13 +5208,16 @@
       <c r="O102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
   <si>
     <t>VIOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>244600</v>
+        <v>226200</v>
       </c>
       <c r="E8" s="3">
-        <v>111200</v>
+        <v>256200</v>
       </c>
       <c r="F8" s="3">
-        <v>252900</v>
+        <v>116400</v>
       </c>
       <c r="G8" s="3">
-        <v>155300</v>
+        <v>264900</v>
       </c>
       <c r="H8" s="3">
-        <v>168500</v>
+        <v>162700</v>
       </c>
       <c r="I8" s="3">
-        <v>98200</v>
+        <v>176500</v>
       </c>
       <c r="J8" s="3">
+        <v>102900</v>
+      </c>
+      <c r="K8" s="3">
         <v>138800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>79100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>101800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>47500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>58500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>31000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>40200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>19500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>17300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>209600</v>
+        <v>187500</v>
       </c>
       <c r="E9" s="3">
-        <v>90300</v>
+        <v>219600</v>
       </c>
       <c r="F9" s="3">
-        <v>202600</v>
+        <v>94500</v>
       </c>
       <c r="G9" s="3">
-        <v>120700</v>
+        <v>212200</v>
       </c>
       <c r="H9" s="3">
-        <v>123700</v>
+        <v>126500</v>
       </c>
       <c r="I9" s="3">
-        <v>70700</v>
+        <v>129600</v>
       </c>
       <c r="J9" s="3">
+        <v>74100</v>
+      </c>
+      <c r="K9" s="3">
         <v>101300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>55300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>74300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>33400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>39500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>21000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>28300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>13900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>35000</v>
+        <v>38700</v>
       </c>
       <c r="E10" s="3">
-        <v>20900</v>
+        <v>36700</v>
       </c>
       <c r="F10" s="3">
-        <v>50300</v>
+        <v>21900</v>
       </c>
       <c r="G10" s="3">
-        <v>34600</v>
+        <v>52700</v>
       </c>
       <c r="H10" s="3">
-        <v>44800</v>
+        <v>36200</v>
       </c>
       <c r="I10" s="3">
+        <v>46900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K10" s="3">
+        <v>37500</v>
+      </c>
+      <c r="L10" s="3">
+        <v>23800</v>
+      </c>
+      <c r="M10" s="3">
         <v>27500</v>
       </c>
-      <c r="J10" s="3">
-        <v>37500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>23800</v>
-      </c>
-      <c r="L10" s="3">
-        <v>27500</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>19000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>8800</v>
+        <v>8000</v>
       </c>
       <c r="E12" s="3">
-        <v>8600</v>
+        <v>9200</v>
       </c>
       <c r="F12" s="3">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="G12" s="3">
-        <v>6300</v>
+        <v>10000</v>
       </c>
       <c r="H12" s="3">
-        <v>8700</v>
+        <v>6600</v>
       </c>
       <c r="I12" s="3">
-        <v>5300</v>
+        <v>9100</v>
       </c>
       <c r="J12" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K12" s="3">
         <v>6100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>243400</v>
+        <v>220600</v>
       </c>
       <c r="E17" s="3">
-        <v>109400</v>
+        <v>254900</v>
       </c>
       <c r="F17" s="3">
-        <v>239500</v>
+        <v>114500</v>
       </c>
       <c r="G17" s="3">
-        <v>143300</v>
+        <v>250900</v>
       </c>
       <c r="H17" s="3">
-        <v>154100</v>
+        <v>150100</v>
       </c>
       <c r="I17" s="3">
-        <v>92800</v>
+        <v>161400</v>
       </c>
       <c r="J17" s="3">
+        <v>97200</v>
+      </c>
+      <c r="K17" s="3">
         <v>130100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>87400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>95100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>42800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>50600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>37000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E18" s="3">
         <v>1300</v>
       </c>
-      <c r="E18" s="3">
-        <v>1800</v>
-      </c>
       <c r="F18" s="3">
-        <v>13500</v>
+        <v>1900</v>
       </c>
       <c r="G18" s="3">
-        <v>12000</v>
+        <v>14100</v>
       </c>
       <c r="H18" s="3">
-        <v>14400</v>
+        <v>12600</v>
       </c>
       <c r="I18" s="3">
-        <v>5400</v>
+        <v>15000</v>
       </c>
       <c r="J18" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K18" s="3">
         <v>8700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,43 +1312,44 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
-        <v>600</v>
-      </c>
       <c r="I20" s="3">
+        <v>700</v>
+      </c>
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
@@ -1324,7 +1358,7 @@
         <v>100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1352,41 +1389,44 @@
       <c r="H21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="3">
-        <v>7200</v>
+      <c r="I21" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J21" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K21" s="3">
         <v>9600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3">
         <v>7000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3">
         <v>8200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>3500</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2400</v>
+        <v>7100</v>
       </c>
       <c r="E23" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="F23" s="3">
-        <v>14900</v>
+        <v>2700</v>
       </c>
       <c r="G23" s="3">
-        <v>12500</v>
+        <v>15600</v>
       </c>
       <c r="H23" s="3">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="I23" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K23" s="3">
+        <v>9300</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="M23" s="3">
         <v>6900</v>
       </c>
-      <c r="J23" s="3">
-        <v>9300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>6900</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H24" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="I24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1500</v>
+        <v>5300</v>
       </c>
       <c r="E26" s="3">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="F26" s="3">
-        <v>13100</v>
+        <v>2700</v>
       </c>
       <c r="G26" s="3">
-        <v>10600</v>
+        <v>13700</v>
       </c>
       <c r="H26" s="3">
-        <v>12900</v>
+        <v>11200</v>
       </c>
       <c r="I26" s="3">
-        <v>6000</v>
+        <v>13500</v>
       </c>
       <c r="J26" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K26" s="3">
         <v>8000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>600</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1400</v>
+        <v>5300</v>
       </c>
       <c r="E27" s="3">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="F27" s="3">
-        <v>13000</v>
+        <v>2700</v>
       </c>
       <c r="G27" s="3">
-        <v>10600</v>
+        <v>13600</v>
       </c>
       <c r="H27" s="3">
-        <v>12800</v>
+        <v>11100</v>
       </c>
       <c r="I27" s="3">
-        <v>6000</v>
+        <v>13400</v>
       </c>
       <c r="J27" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K27" s="3">
         <v>8000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2300</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,43 +1982,46 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1100</v>
+        <v>-1600</v>
       </c>
       <c r="E32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
-        <v>-600</v>
-      </c>
       <c r="I32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>-200</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
@@ -1960,7 +2030,7 @@
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1400</v>
+        <v>5300</v>
       </c>
       <c r="E33" s="3">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="F33" s="3">
-        <v>13000</v>
+        <v>2700</v>
       </c>
       <c r="G33" s="3">
-        <v>10600</v>
+        <v>13600</v>
       </c>
       <c r="H33" s="3">
-        <v>12800</v>
+        <v>11100</v>
       </c>
       <c r="I33" s="3">
-        <v>6000</v>
+        <v>13400</v>
       </c>
       <c r="J33" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K33" s="3">
         <v>8000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2300</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1400</v>
+        <v>5300</v>
       </c>
       <c r="E35" s="3">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="F35" s="3">
-        <v>13000</v>
+        <v>2700</v>
       </c>
       <c r="G35" s="3">
-        <v>10600</v>
+        <v>13600</v>
       </c>
       <c r="H35" s="3">
-        <v>12800</v>
+        <v>11100</v>
       </c>
       <c r="I35" s="3">
-        <v>6000</v>
+        <v>13400</v>
       </c>
       <c r="J35" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K35" s="3">
         <v>8000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2300</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,41 +2313,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>92100</v>
+        <v>108900</v>
       </c>
       <c r="E41" s="3">
-        <v>64800</v>
+        <v>96500</v>
       </c>
       <c r="F41" s="3">
-        <v>141200</v>
+        <v>67800</v>
       </c>
       <c r="G41" s="3">
-        <v>105600</v>
+        <v>147900</v>
       </c>
       <c r="H41" s="3">
-        <v>97000</v>
+        <v>110600</v>
       </c>
       <c r="I41" s="3">
-        <v>111000</v>
+        <v>101600</v>
       </c>
       <c r="J41" s="3">
+        <v>116200</v>
+      </c>
+      <c r="K41" s="3">
         <v>136600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>130600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>36900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2280,35 +2367,38 @@
       <c r="S41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>53300</v>
+        <v>27300</v>
       </c>
       <c r="E42" s="3">
-        <v>108400</v>
+        <v>55800</v>
       </c>
       <c r="F42" s="3">
-        <v>54600</v>
+        <v>113500</v>
       </c>
       <c r="G42" s="3">
-        <v>55500</v>
+        <v>57200</v>
       </c>
       <c r="H42" s="3">
-        <v>43900</v>
+        <v>58100</v>
       </c>
       <c r="I42" s="3">
-        <v>50100</v>
+        <v>46000</v>
       </c>
       <c r="J42" s="3">
+        <v>52500</v>
+      </c>
+      <c r="K42" s="3">
         <v>24500</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2324,8 +2414,8 @@
       <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2333,41 +2423,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>182300</v>
+        <v>171000</v>
       </c>
       <c r="E43" s="3">
-        <v>92200</v>
+        <v>191000</v>
       </c>
       <c r="F43" s="3">
-        <v>152200</v>
+        <v>96600</v>
       </c>
       <c r="G43" s="3">
-        <v>119800</v>
+        <v>159400</v>
       </c>
       <c r="H43" s="3">
-        <v>111700</v>
+        <v>125500</v>
       </c>
       <c r="I43" s="3">
-        <v>53000</v>
+        <v>117000</v>
       </c>
       <c r="J43" s="3">
+        <v>55500</v>
+      </c>
+      <c r="K43" s="3">
         <v>70400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>68000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2386,41 +2479,44 @@
       <c r="S43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>59900</v>
+        <v>74900</v>
       </c>
       <c r="E44" s="3">
-        <v>53900</v>
+        <v>62700</v>
       </c>
       <c r="F44" s="3">
-        <v>60700</v>
+        <v>56500</v>
       </c>
       <c r="G44" s="3">
-        <v>65800</v>
+        <v>63600</v>
       </c>
       <c r="H44" s="3">
-        <v>61100</v>
+        <v>68900</v>
       </c>
       <c r="I44" s="3">
-        <v>43400</v>
+        <v>64000</v>
       </c>
       <c r="J44" s="3">
+        <v>45400</v>
+      </c>
+      <c r="K44" s="3">
         <v>33700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>28100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>23900</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2439,41 +2535,44 @@
       <c r="S44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18500</v>
+        <v>27700</v>
       </c>
       <c r="E45" s="3">
-        <v>13700</v>
+        <v>19400</v>
       </c>
       <c r="F45" s="3">
-        <v>13500</v>
+        <v>14300</v>
       </c>
       <c r="G45" s="3">
-        <v>7300</v>
+        <v>14100</v>
       </c>
       <c r="H45" s="3">
-        <v>8800</v>
+        <v>7700</v>
       </c>
       <c r="I45" s="3">
-        <v>12600</v>
+        <v>9200</v>
       </c>
       <c r="J45" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K45" s="3">
         <v>11100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2492,41 +2591,44 @@
       <c r="S45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>406100</v>
+        <v>409900</v>
       </c>
       <c r="E46" s="3">
-        <v>333000</v>
+        <v>425300</v>
       </c>
       <c r="F46" s="3">
-        <v>422300</v>
+        <v>348800</v>
       </c>
       <c r="G46" s="3">
-        <v>353900</v>
+        <v>442300</v>
       </c>
       <c r="H46" s="3">
-        <v>322500</v>
+        <v>370700</v>
       </c>
       <c r="I46" s="3">
-        <v>270000</v>
+        <v>337800</v>
       </c>
       <c r="J46" s="3">
+        <v>282800</v>
+      </c>
+      <c r="K46" s="3">
         <v>276300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>225600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>143900</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2545,19 +2647,22 @@
       <c r="S46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="E47" s="3">
-        <v>8700</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>16</v>
+        <v>9100</v>
+      </c>
+      <c r="F47" s="3">
+        <v>9100</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>16</v>
@@ -2574,8 +2679,8 @@
       <c r="K47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2598,41 +2703,44 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12400</v>
+        <v>22200</v>
       </c>
       <c r="E48" s="3">
-        <v>11700</v>
+        <v>12900</v>
       </c>
       <c r="F48" s="3">
-        <v>12600</v>
+        <v>12300</v>
       </c>
       <c r="G48" s="3">
-        <v>8400</v>
+        <v>13200</v>
       </c>
       <c r="H48" s="3">
-        <v>6900</v>
+        <v>8800</v>
       </c>
       <c r="I48" s="3">
-        <v>4800</v>
+        <v>7200</v>
       </c>
       <c r="J48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>500</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2651,22 +2759,25 @@
       <c r="S48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>900</v>
+      </c>
+      <c r="F49" s="3">
         <v>800</v>
       </c>
-      <c r="E49" s="3">
-        <v>800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>600</v>
-      </c>
       <c r="G49" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="H49" s="3">
         <v>400</v>
@@ -2675,13 +2786,13 @@
         <v>400</v>
       </c>
       <c r="J49" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>16</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>16</v>
@@ -2695,8 +2806,8 @@
       <c r="P49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,40 +2927,43 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7100</v>
+        <v>5400</v>
       </c>
       <c r="E52" s="3">
-        <v>3700</v>
+        <v>7400</v>
       </c>
       <c r="F52" s="3">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="G52" s="3">
-        <v>4800</v>
+        <v>3600</v>
       </c>
       <c r="H52" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="I52" s="3">
-        <v>1400</v>
+        <v>5400</v>
       </c>
       <c r="J52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1500</v>
       </c>
       <c r="L52" s="3">
         <v>1500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>16</v>
+      <c r="M52" s="3">
+        <v>1500</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>16</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,41 +3039,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>435000</v>
+        <v>447700</v>
       </c>
       <c r="E54" s="3">
-        <v>357900</v>
+        <v>455700</v>
       </c>
       <c r="F54" s="3">
-        <v>439000</v>
+        <v>374800</v>
       </c>
       <c r="G54" s="3">
-        <v>367500</v>
+        <v>459800</v>
       </c>
       <c r="H54" s="3">
-        <v>335000</v>
+        <v>384900</v>
       </c>
       <c r="I54" s="3">
-        <v>276600</v>
+        <v>350900</v>
       </c>
       <c r="J54" s="3">
+        <v>289700</v>
+      </c>
+      <c r="K54" s="3">
         <v>279300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>227500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>145900</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,41 +3141,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>161800</v>
+        <v>153800</v>
       </c>
       <c r="E57" s="3">
-        <v>107900</v>
+        <v>169500</v>
       </c>
       <c r="F57" s="3">
-        <v>151500</v>
+        <v>113000</v>
       </c>
       <c r="G57" s="3">
-        <v>110500</v>
+        <v>158700</v>
       </c>
       <c r="H57" s="3">
-        <v>100500</v>
+        <v>115700</v>
       </c>
       <c r="I57" s="3">
-        <v>75700</v>
+        <v>105300</v>
       </c>
       <c r="J57" s="3">
+        <v>79300</v>
+      </c>
+      <c r="K57" s="3">
         <v>79700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>58100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>71500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3064,41 +3195,44 @@
       <c r="S57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4000</v>
+        <v>10500</v>
       </c>
       <c r="E58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
-        <v>17600</v>
-      </c>
       <c r="G58" s="3">
-        <v>15000</v>
+        <v>18400</v>
       </c>
       <c r="H58" s="3">
-        <v>14200</v>
+        <v>15700</v>
       </c>
       <c r="I58" s="3">
+        <v>14800</v>
+      </c>
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3117,41 +3251,44 @@
       <c r="S58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>56800</v>
+        <v>58200</v>
       </c>
       <c r="E59" s="3">
-        <v>41600</v>
+        <v>59500</v>
       </c>
       <c r="F59" s="3">
-        <v>68100</v>
+        <v>43600</v>
       </c>
       <c r="G59" s="3">
-        <v>53700</v>
+        <v>71300</v>
       </c>
       <c r="H59" s="3">
-        <v>46800</v>
+        <v>56300</v>
       </c>
       <c r="I59" s="3">
-        <v>44400</v>
+        <v>49100</v>
       </c>
       <c r="J59" s="3">
+        <v>46500</v>
+      </c>
+      <c r="K59" s="3">
         <v>43200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>28100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3170,41 +3307,44 @@
       <c r="S59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>222600</v>
+        <v>222500</v>
       </c>
       <c r="E60" s="3">
-        <v>150200</v>
+        <v>233100</v>
       </c>
       <c r="F60" s="3">
-        <v>237100</v>
+        <v>157300</v>
       </c>
       <c r="G60" s="3">
-        <v>179300</v>
+        <v>248400</v>
       </c>
       <c r="H60" s="3">
-        <v>161500</v>
+        <v>187800</v>
       </c>
       <c r="I60" s="3">
-        <v>120500</v>
+        <v>169200</v>
       </c>
       <c r="J60" s="3">
+        <v>126200</v>
+      </c>
+      <c r="K60" s="3">
         <v>123700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>86600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>100000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3285,31 +3431,31 @@
         <v>2700</v>
       </c>
       <c r="E62" s="3">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="F62" s="3">
         <v>2200</v>
       </c>
       <c r="G62" s="3">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="H62" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I62" s="3">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="J62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>16</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>16</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,41 +3643,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>226100</v>
+        <v>225500</v>
       </c>
       <c r="E66" s="3">
-        <v>153100</v>
+        <v>236800</v>
       </c>
       <c r="F66" s="3">
-        <v>240200</v>
+        <v>160300</v>
       </c>
       <c r="G66" s="3">
-        <v>181900</v>
+        <v>251600</v>
       </c>
       <c r="H66" s="3">
-        <v>164600</v>
+        <v>190500</v>
       </c>
       <c r="I66" s="3">
-        <v>122600</v>
+        <v>172400</v>
       </c>
       <c r="J66" s="3">
+        <v>128400</v>
+      </c>
+      <c r="K66" s="3">
         <v>124200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>87000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>100100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3698,11 +3866,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>22600</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,41 +3945,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32000</v>
+        <v>38800</v>
       </c>
       <c r="E72" s="3">
-        <v>30600</v>
+        <v>33600</v>
       </c>
       <c r="F72" s="3">
-        <v>28400</v>
+        <v>32100</v>
       </c>
       <c r="G72" s="3">
-        <v>15500</v>
+        <v>29800</v>
       </c>
       <c r="H72" s="3">
-        <v>4900</v>
+        <v>16300</v>
       </c>
       <c r="I72" s="3">
-        <v>-7900</v>
+        <v>5200</v>
       </c>
       <c r="J72" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-13900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-21100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,41 +4169,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>208900</v>
+        <v>222100</v>
       </c>
       <c r="E76" s="3">
-        <v>204800</v>
+        <v>218900</v>
       </c>
       <c r="F76" s="3">
-        <v>198800</v>
+        <v>214500</v>
       </c>
       <c r="G76" s="3">
-        <v>185600</v>
+        <v>208200</v>
       </c>
       <c r="H76" s="3">
-        <v>170400</v>
+        <v>194400</v>
       </c>
       <c r="I76" s="3">
-        <v>154000</v>
+        <v>178500</v>
       </c>
       <c r="J76" s="3">
+        <v>161300</v>
+      </c>
+      <c r="K76" s="3">
         <v>155100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>140500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1400</v>
+        <v>5300</v>
       </c>
       <c r="E81" s="3">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="F81" s="3">
-        <v>13000</v>
+        <v>2700</v>
       </c>
       <c r="G81" s="3">
-        <v>10600</v>
+        <v>13600</v>
       </c>
       <c r="H81" s="3">
-        <v>12800</v>
+        <v>11100</v>
       </c>
       <c r="I81" s="3">
-        <v>6000</v>
+        <v>13400</v>
       </c>
       <c r="J81" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K81" s="3">
         <v>8000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2300</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,31 +4422,32 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>16</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>300</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>16</v>
@@ -4268,8 +4467,8 @@
       <c r="P83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,31 +4756,34 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>16</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>16</v>
@@ -4586,8 +4803,8 @@
       <c r="P89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="Q89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,31 +4836,32 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>16</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>16</v>
@@ -4660,8 +4881,8 @@
       <c r="P91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,31 +5002,34 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>16</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-27200</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>16</v>
@@ -4819,8 +5049,8 @@
       <c r="P94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,31 +5304,34 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>16</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>16</v>
@@ -5105,8 +5351,8 @@
       <c r="P100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5114,31 +5360,34 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>16</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>16</v>
@@ -5158,8 +5407,8 @@
       <c r="P101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5167,31 +5416,34 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-25400</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>16</v>
@@ -5211,13 +5463,16 @@
       <c r="P102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>VIOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>226200</v>
+        <v>288600</v>
       </c>
       <c r="E8" s="3">
-        <v>256200</v>
+        <v>227100</v>
       </c>
       <c r="F8" s="3">
-        <v>116400</v>
+        <v>257300</v>
       </c>
       <c r="G8" s="3">
-        <v>264900</v>
+        <v>117000</v>
       </c>
       <c r="H8" s="3">
-        <v>162700</v>
+        <v>266100</v>
       </c>
       <c r="I8" s="3">
-        <v>176500</v>
+        <v>163400</v>
       </c>
       <c r="J8" s="3">
+        <v>177300</v>
+      </c>
+      <c r="K8" s="3">
         <v>102900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>138800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>79100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>101800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>47500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>58500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>31000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>40200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>19500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>17300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>187500</v>
+        <v>220800</v>
       </c>
       <c r="E9" s="3">
-        <v>219600</v>
+        <v>188300</v>
       </c>
       <c r="F9" s="3">
-        <v>94500</v>
+        <v>220500</v>
       </c>
       <c r="G9" s="3">
-        <v>212200</v>
+        <v>95000</v>
       </c>
       <c r="H9" s="3">
-        <v>126500</v>
+        <v>213100</v>
       </c>
       <c r="I9" s="3">
-        <v>129600</v>
+        <v>127000</v>
       </c>
       <c r="J9" s="3">
+        <v>130100</v>
+      </c>
+      <c r="K9" s="3">
         <v>74100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>101300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>55300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>74300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>33400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>39500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>21000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>28300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>13900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>38700</v>
+        <v>67800</v>
       </c>
       <c r="E10" s="3">
-        <v>36700</v>
+        <v>38800</v>
       </c>
       <c r="F10" s="3">
-        <v>21900</v>
+        <v>36800</v>
       </c>
       <c r="G10" s="3">
-        <v>52700</v>
+        <v>22000</v>
       </c>
       <c r="H10" s="3">
-        <v>36200</v>
+        <v>53000</v>
       </c>
       <c r="I10" s="3">
-        <v>46900</v>
+        <v>36400</v>
       </c>
       <c r="J10" s="3">
+        <v>47100</v>
+      </c>
+      <c r="K10" s="3">
         <v>28800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>27500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>19000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>10000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E12" s="3">
         <v>8000</v>
       </c>
-      <c r="E12" s="3">
-        <v>9200</v>
-      </c>
       <c r="F12" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="G12" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H12" s="3">
         <v>10000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>220600</v>
+        <v>269300</v>
       </c>
       <c r="E17" s="3">
-        <v>254900</v>
+        <v>221600</v>
       </c>
       <c r="F17" s="3">
-        <v>114500</v>
+        <v>256000</v>
       </c>
       <c r="G17" s="3">
-        <v>250900</v>
+        <v>115000</v>
       </c>
       <c r="H17" s="3">
-        <v>150100</v>
+        <v>251900</v>
       </c>
       <c r="I17" s="3">
-        <v>161400</v>
+        <v>150800</v>
       </c>
       <c r="J17" s="3">
+        <v>162100</v>
+      </c>
+      <c r="K17" s="3">
         <v>97200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>130100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>87400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>95100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>42800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>50600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>37000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>5500</v>
+        <v>19300</v>
       </c>
       <c r="E18" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F18" s="3">
         <v>1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1900</v>
       </c>
-      <c r="G18" s="3">
-        <v>14100</v>
-      </c>
       <c r="H18" s="3">
+        <v>14200</v>
+      </c>
+      <c r="I18" s="3">
         <v>12600</v>
       </c>
-      <c r="I18" s="3">
-        <v>15000</v>
-      </c>
       <c r="J18" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K18" s="3">
         <v>5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,46 +1345,47 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
@@ -1361,7 +1394,7 @@
         <v>100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1369,8 +1402,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1392,41 +1428,44 @@
       <c r="I21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="3">
         <v>7500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
         <v>7000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3">
         <v>8200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
         <v>3500</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7100</v>
+        <v>20800</v>
       </c>
       <c r="E23" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F23" s="3">
         <v>2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2700</v>
       </c>
-      <c r="G23" s="3">
-        <v>15600</v>
-      </c>
       <c r="H23" s="3">
-        <v>13000</v>
+        <v>15700</v>
       </c>
       <c r="I23" s="3">
-        <v>15700</v>
+        <v>13100</v>
       </c>
       <c r="J23" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K23" s="3">
         <v>7200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E24" s="3">
         <v>1800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>1900</v>
       </c>
       <c r="I24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J24" s="3">
         <v>2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5300</v>
+        <v>17000</v>
       </c>
       <c r="E26" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2700</v>
       </c>
-      <c r="G26" s="3">
-        <v>13700</v>
-      </c>
       <c r="H26" s="3">
+        <v>13800</v>
+      </c>
+      <c r="I26" s="3">
         <v>11200</v>
       </c>
-      <c r="I26" s="3">
-        <v>13500</v>
-      </c>
       <c r="J26" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K26" s="3">
         <v>6300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>600</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E27" s="3">
         <v>5300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2700</v>
       </c>
-      <c r="G27" s="3">
-        <v>13600</v>
-      </c>
       <c r="H27" s="3">
+        <v>13700</v>
+      </c>
+      <c r="I27" s="3">
         <v>11100</v>
       </c>
-      <c r="I27" s="3">
-        <v>13400</v>
-      </c>
       <c r="J27" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K27" s="3">
         <v>6300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2300</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,46 +2051,49 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
       </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
@@ -2033,7 +2102,7 @@
         <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2041,64 +2110,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E33" s="3">
         <v>5300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2700</v>
       </c>
-      <c r="G33" s="3">
-        <v>13600</v>
-      </c>
       <c r="H33" s="3">
+        <v>13700</v>
+      </c>
+      <c r="I33" s="3">
         <v>11100</v>
       </c>
-      <c r="I33" s="3">
-        <v>13400</v>
-      </c>
       <c r="J33" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K33" s="3">
         <v>6300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2300</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E35" s="3">
         <v>5300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2700</v>
       </c>
-      <c r="G35" s="3">
-        <v>13600</v>
-      </c>
       <c r="H35" s="3">
+        <v>13700</v>
+      </c>
+      <c r="I35" s="3">
         <v>11100</v>
       </c>
-      <c r="I35" s="3">
-        <v>13400</v>
-      </c>
       <c r="J35" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K35" s="3">
         <v>6300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2300</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,44 +2399,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>108900</v>
+        <v>77000</v>
       </c>
       <c r="E41" s="3">
-        <v>96500</v>
+        <v>109300</v>
       </c>
       <c r="F41" s="3">
-        <v>67800</v>
+        <v>96900</v>
       </c>
       <c r="G41" s="3">
-        <v>147900</v>
+        <v>68100</v>
       </c>
       <c r="H41" s="3">
-        <v>110600</v>
+        <v>148600</v>
       </c>
       <c r="I41" s="3">
-        <v>101600</v>
+        <v>111100</v>
       </c>
       <c r="J41" s="3">
+        <v>102100</v>
+      </c>
+      <c r="K41" s="3">
         <v>116200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>136600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>130600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>36900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2370,38 +2456,41 @@
       <c r="T41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>27300</v>
+        <v>107900</v>
       </c>
       <c r="E42" s="3">
-        <v>55800</v>
+        <v>27400</v>
       </c>
       <c r="F42" s="3">
-        <v>113500</v>
+        <v>56100</v>
       </c>
       <c r="G42" s="3">
-        <v>57200</v>
+        <v>114000</v>
       </c>
       <c r="H42" s="3">
-        <v>58100</v>
+        <v>57500</v>
       </c>
       <c r="I42" s="3">
-        <v>46000</v>
+        <v>58300</v>
       </c>
       <c r="J42" s="3">
+        <v>46200</v>
+      </c>
+      <c r="K42" s="3">
         <v>52500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>24500</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2417,8 +2506,8 @@
       <c r="Q42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2426,44 +2515,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>171000</v>
+        <v>171800</v>
       </c>
       <c r="E43" s="3">
-        <v>191000</v>
+        <v>171800</v>
       </c>
       <c r="F43" s="3">
-        <v>96600</v>
+        <v>191800</v>
       </c>
       <c r="G43" s="3">
-        <v>159400</v>
+        <v>97000</v>
       </c>
       <c r="H43" s="3">
-        <v>125500</v>
+        <v>160100</v>
       </c>
       <c r="I43" s="3">
-        <v>117000</v>
+        <v>126000</v>
       </c>
       <c r="J43" s="3">
+        <v>117500</v>
+      </c>
+      <c r="K43" s="3">
         <v>55500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>70400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>54300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>68000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2482,44 +2574,47 @@
       <c r="T43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>74900</v>
+        <v>67100</v>
       </c>
       <c r="E44" s="3">
-        <v>62700</v>
+        <v>75300</v>
       </c>
       <c r="F44" s="3">
-        <v>56500</v>
+        <v>63000</v>
       </c>
       <c r="G44" s="3">
-        <v>63600</v>
+        <v>56700</v>
       </c>
       <c r="H44" s="3">
-        <v>68900</v>
+        <v>63900</v>
       </c>
       <c r="I44" s="3">
-        <v>64000</v>
+        <v>69200</v>
       </c>
       <c r="J44" s="3">
+        <v>64300</v>
+      </c>
+      <c r="K44" s="3">
         <v>45400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>33700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>28100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>23900</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2538,44 +2633,47 @@
       <c r="T44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>27700</v>
+        <v>24100</v>
       </c>
       <c r="E45" s="3">
-        <v>19400</v>
+        <v>27800</v>
       </c>
       <c r="F45" s="3">
-        <v>14300</v>
+        <v>19500</v>
       </c>
       <c r="G45" s="3">
-        <v>14100</v>
+        <v>14400</v>
       </c>
       <c r="H45" s="3">
+        <v>14200</v>
+      </c>
+      <c r="I45" s="3">
         <v>7700</v>
       </c>
-      <c r="I45" s="3">
-        <v>9200</v>
-      </c>
       <c r="J45" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K45" s="3">
         <v>13200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2594,44 +2692,47 @@
       <c r="T45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>409900</v>
+        <v>447900</v>
       </c>
       <c r="E46" s="3">
-        <v>425300</v>
+        <v>411600</v>
       </c>
       <c r="F46" s="3">
-        <v>348800</v>
+        <v>427200</v>
       </c>
       <c r="G46" s="3">
-        <v>442300</v>
+        <v>350300</v>
       </c>
       <c r="H46" s="3">
-        <v>370700</v>
+        <v>444200</v>
       </c>
       <c r="I46" s="3">
-        <v>337800</v>
+        <v>372300</v>
       </c>
       <c r="J46" s="3">
+        <v>339300</v>
+      </c>
+      <c r="K46" s="3">
         <v>282800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>276300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>225600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>143900</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2650,22 +2751,25 @@
       <c r="T46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9100</v>
+        <v>7600</v>
       </c>
       <c r="E47" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="F47" s="3">
-        <v>9100</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>16</v>
+        <v>9200</v>
+      </c>
+      <c r="G47" s="3">
+        <v>9200</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>16</v>
@@ -2682,8 +2786,8 @@
       <c r="L47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2706,44 +2810,47 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22200</v>
+        <v>23800</v>
       </c>
       <c r="E48" s="3">
-        <v>12900</v>
+        <v>22300</v>
       </c>
       <c r="F48" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G48" s="3">
         <v>12300</v>
       </c>
-      <c r="G48" s="3">
-        <v>13200</v>
-      </c>
       <c r="H48" s="3">
+        <v>13300</v>
+      </c>
+      <c r="I48" s="3">
         <v>8800</v>
       </c>
-      <c r="I48" s="3">
-        <v>7200</v>
-      </c>
       <c r="J48" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K48" s="3">
         <v>5000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>500</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2762,25 +2869,28 @@
       <c r="T48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E49" s="3">
         <v>1100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>900</v>
       </c>
-      <c r="F49" s="3">
-        <v>800</v>
-      </c>
       <c r="G49" s="3">
+        <v>900</v>
+      </c>
+      <c r="H49" s="3">
         <v>700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>400</v>
       </c>
       <c r="I49" s="3">
         <v>400</v>
@@ -2789,13 +2899,13 @@
         <v>400</v>
       </c>
       <c r="K49" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>16</v>
+      <c r="M49" s="3">
+        <v>0</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>16</v>
@@ -2809,8 +2919,8 @@
       <c r="Q49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,43 +3046,46 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E52" s="3">
         <v>5400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7400</v>
       </c>
-      <c r="F52" s="3">
-        <v>3800</v>
-      </c>
       <c r="G52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H52" s="3">
         <v>3600</v>
       </c>
-      <c r="H52" s="3">
-        <v>5000</v>
-      </c>
       <c r="I52" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J52" s="3">
         <v>5400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1500</v>
       </c>
       <c r="M52" s="3">
         <v>1500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>16</v>
+      <c r="N52" s="3">
+        <v>1500</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>16</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,44 +3164,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>447700</v>
+        <v>485800</v>
       </c>
       <c r="E54" s="3">
-        <v>455700</v>
+        <v>449600</v>
       </c>
       <c r="F54" s="3">
-        <v>374800</v>
+        <v>457700</v>
       </c>
       <c r="G54" s="3">
-        <v>459800</v>
+        <v>376500</v>
       </c>
       <c r="H54" s="3">
-        <v>384900</v>
+        <v>461800</v>
       </c>
       <c r="I54" s="3">
-        <v>350900</v>
+        <v>386600</v>
       </c>
       <c r="J54" s="3">
+        <v>352400</v>
+      </c>
+      <c r="K54" s="3">
         <v>289700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>279300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>227500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>145900</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,44 +3271,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>153800</v>
+        <v>153000</v>
       </c>
       <c r="E57" s="3">
-        <v>169500</v>
+        <v>154400</v>
       </c>
       <c r="F57" s="3">
-        <v>113000</v>
+        <v>170200</v>
       </c>
       <c r="G57" s="3">
-        <v>158700</v>
+        <v>113500</v>
       </c>
       <c r="H57" s="3">
-        <v>115700</v>
+        <v>159400</v>
       </c>
       <c r="I57" s="3">
-        <v>105300</v>
+        <v>116200</v>
       </c>
       <c r="J57" s="3">
+        <v>105800</v>
+      </c>
+      <c r="K57" s="3">
         <v>79300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>79700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>58100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>71500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3198,44 +3328,47 @@
       <c r="T57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10500</v>
+        <v>19000</v>
       </c>
       <c r="E58" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F58" s="3">
         <v>4200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
-        <v>18400</v>
-      </c>
       <c r="H58" s="3">
-        <v>15700</v>
+        <v>18500</v>
       </c>
       <c r="I58" s="3">
-        <v>14800</v>
+        <v>15800</v>
       </c>
       <c r="J58" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3254,44 +3387,47 @@
       <c r="T58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>58200</v>
+        <v>77700</v>
       </c>
       <c r="E59" s="3">
-        <v>59500</v>
+        <v>58500</v>
       </c>
       <c r="F59" s="3">
-        <v>43600</v>
+        <v>59800</v>
       </c>
       <c r="G59" s="3">
-        <v>71300</v>
+        <v>43800</v>
       </c>
       <c r="H59" s="3">
-        <v>56300</v>
+        <v>71600</v>
       </c>
       <c r="I59" s="3">
-        <v>49100</v>
+        <v>56500</v>
       </c>
       <c r="J59" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K59" s="3">
         <v>46500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>43200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>28200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>28100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3310,44 +3446,47 @@
       <c r="T59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>222500</v>
+        <v>249700</v>
       </c>
       <c r="E60" s="3">
-        <v>233100</v>
+        <v>223400</v>
       </c>
       <c r="F60" s="3">
-        <v>157300</v>
+        <v>234200</v>
       </c>
       <c r="G60" s="3">
-        <v>248400</v>
+        <v>158000</v>
       </c>
       <c r="H60" s="3">
-        <v>187800</v>
+        <v>249500</v>
       </c>
       <c r="I60" s="3">
-        <v>169200</v>
+        <v>188600</v>
       </c>
       <c r="J60" s="3">
+        <v>169900</v>
+      </c>
+      <c r="K60" s="3">
         <v>126200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>123700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>86600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>100000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3366,8 +3505,11 @@
       <c r="T60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,43 +3564,46 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E62" s="3">
         <v>2700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>16</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>16</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,44 +3800,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>225500</v>
+        <v>252500</v>
       </c>
       <c r="E66" s="3">
-        <v>236800</v>
+        <v>226500</v>
       </c>
       <c r="F66" s="3">
-        <v>160300</v>
+        <v>237900</v>
       </c>
       <c r="G66" s="3">
-        <v>251600</v>
+        <v>161000</v>
       </c>
       <c r="H66" s="3">
-        <v>190500</v>
+        <v>252600</v>
       </c>
       <c r="I66" s="3">
-        <v>172400</v>
+        <v>191400</v>
       </c>
       <c r="J66" s="3">
+        <v>173100</v>
+      </c>
+      <c r="K66" s="3">
         <v>128400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>124200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>87000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>100100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3869,11 +4036,11 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>22600</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,44 +4118,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>38800</v>
+        <v>55500</v>
       </c>
       <c r="E72" s="3">
-        <v>33600</v>
+        <v>39000</v>
       </c>
       <c r="F72" s="3">
-        <v>32100</v>
+        <v>33700</v>
       </c>
       <c r="G72" s="3">
-        <v>29800</v>
+        <v>32200</v>
       </c>
       <c r="H72" s="3">
+        <v>29900</v>
+      </c>
+      <c r="I72" s="3">
         <v>16300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-21100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,44 +4354,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>222100</v>
+        <v>233300</v>
       </c>
       <c r="E76" s="3">
-        <v>218900</v>
+        <v>223100</v>
       </c>
       <c r="F76" s="3">
-        <v>214500</v>
+        <v>219800</v>
       </c>
       <c r="G76" s="3">
-        <v>208200</v>
+        <v>215400</v>
       </c>
       <c r="H76" s="3">
-        <v>194400</v>
+        <v>209100</v>
       </c>
       <c r="I76" s="3">
-        <v>178500</v>
+        <v>195200</v>
       </c>
       <c r="J76" s="3">
+        <v>179300</v>
+      </c>
+      <c r="K76" s="3">
         <v>161300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>155100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>140500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E81" s="3">
         <v>5300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2700</v>
       </c>
-      <c r="G81" s="3">
-        <v>13600</v>
-      </c>
       <c r="H81" s="3">
+        <v>13700</v>
+      </c>
+      <c r="I81" s="3">
         <v>11100</v>
       </c>
-      <c r="I81" s="3">
-        <v>13400</v>
-      </c>
       <c r="J81" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K81" s="3">
         <v>6300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2300</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4449,8 +4647,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>16</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>16</v>
@@ -4470,8 +4668,8 @@
       <c r="Q83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4785,8 +5001,8 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>16</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>16</v>
@@ -4806,8 +5022,8 @@
       <c r="Q89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
+      <c r="R89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4863,8 +5083,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>16</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>16</v>
@@ -4884,8 +5104,8 @@
       <c r="Q91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5031,8 +5260,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>16</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>16</v>
@@ -5052,8 +5281,8 @@
       <c r="Q94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5333,8 +5578,8 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>16</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>16</v>
@@ -5354,8 +5599,8 @@
       <c r="Q100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5389,8 +5637,8 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>16</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>16</v>
@@ -5410,8 +5658,8 @@
       <c r="Q101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5445,8 +5696,8 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>16</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>16</v>
@@ -5466,13 +5717,16 @@
       <c r="Q102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
+      <c r="R102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
@@ -755,25 +755,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>288600</v>
+        <v>294700</v>
       </c>
       <c r="E8" s="3">
-        <v>227100</v>
+        <v>231900</v>
       </c>
       <c r="F8" s="3">
-        <v>257300</v>
+        <v>262800</v>
       </c>
       <c r="G8" s="3">
-        <v>117000</v>
+        <v>119400</v>
       </c>
       <c r="H8" s="3">
-        <v>266100</v>
+        <v>271700</v>
       </c>
       <c r="I8" s="3">
-        <v>163400</v>
+        <v>166900</v>
       </c>
       <c r="J8" s="3">
-        <v>177300</v>
+        <v>181000</v>
       </c>
       <c r="K8" s="3">
         <v>102900</v>
@@ -814,25 +814,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>220800</v>
+        <v>225500</v>
       </c>
       <c r="E9" s="3">
-        <v>188300</v>
+        <v>192300</v>
       </c>
       <c r="F9" s="3">
-        <v>220500</v>
+        <v>225200</v>
       </c>
       <c r="G9" s="3">
-        <v>95000</v>
+        <v>97000</v>
       </c>
       <c r="H9" s="3">
-        <v>213100</v>
+        <v>217600</v>
       </c>
       <c r="I9" s="3">
-        <v>127000</v>
+        <v>129700</v>
       </c>
       <c r="J9" s="3">
-        <v>130100</v>
+        <v>132900</v>
       </c>
       <c r="K9" s="3">
         <v>74100</v>
@@ -873,25 +873,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>67800</v>
+        <v>69200</v>
       </c>
       <c r="E10" s="3">
-        <v>38800</v>
+        <v>39700</v>
       </c>
       <c r="F10" s="3">
-        <v>36800</v>
+        <v>37600</v>
       </c>
       <c r="G10" s="3">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="H10" s="3">
-        <v>53000</v>
+        <v>54100</v>
       </c>
       <c r="I10" s="3">
-        <v>36400</v>
+        <v>37200</v>
       </c>
       <c r="J10" s="3">
-        <v>47100</v>
+        <v>48100</v>
       </c>
       <c r="K10" s="3">
         <v>28800</v>
@@ -955,25 +955,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="E12" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="F12" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G12" s="3">
+        <v>9200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J12" s="3">
         <v>9300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>9100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>10000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>6600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>9100</v>
       </c>
       <c r="K12" s="3">
         <v>5600</v>
@@ -1211,25 +1211,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>269300</v>
+        <v>275000</v>
       </c>
       <c r="E17" s="3">
-        <v>221600</v>
+        <v>226300</v>
       </c>
       <c r="F17" s="3">
-        <v>256000</v>
+        <v>261400</v>
       </c>
       <c r="G17" s="3">
-        <v>115000</v>
+        <v>117500</v>
       </c>
       <c r="H17" s="3">
-        <v>251900</v>
+        <v>257300</v>
       </c>
       <c r="I17" s="3">
-        <v>150800</v>
+        <v>154000</v>
       </c>
       <c r="J17" s="3">
-        <v>162100</v>
+        <v>165600</v>
       </c>
       <c r="K17" s="3">
         <v>97200</v>
@@ -1270,25 +1270,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>19300</v>
+        <v>19700</v>
       </c>
       <c r="E18" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="F18" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G18" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H18" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="I18" s="3">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="J18" s="3">
-        <v>15100</v>
+        <v>15400</v>
       </c>
       <c r="K18" s="3">
         <v>5600</v>
@@ -1352,10 +1352,10 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E20" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F20" s="3">
         <v>1200</v>
@@ -1364,7 +1364,7 @@
         <v>800</v>
       </c>
       <c r="H20" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I20" s="3">
         <v>500</v>
@@ -1529,25 +1529,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>20800</v>
+        <v>21300</v>
       </c>
       <c r="E23" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="F23" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G23" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H23" s="3">
-        <v>15700</v>
+        <v>16000</v>
       </c>
       <c r="I23" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="J23" s="3">
-        <v>15800</v>
+        <v>16100</v>
       </c>
       <c r="K23" s="3">
         <v>7200</v>
@@ -1588,13 +1588,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E24" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F24" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1706,25 +1706,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17000</v>
+        <v>17300</v>
       </c>
       <c r="E26" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="F26" s="3">
         <v>1600</v>
       </c>
       <c r="G26" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H26" s="3">
-        <v>13800</v>
+        <v>14100</v>
       </c>
       <c r="I26" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="J26" s="3">
-        <v>13600</v>
+        <v>13900</v>
       </c>
       <c r="K26" s="3">
         <v>6300</v>
@@ -1765,25 +1765,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>16900</v>
+        <v>17300</v>
       </c>
       <c r="E27" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="F27" s="3">
         <v>1500</v>
       </c>
       <c r="G27" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H27" s="3">
-        <v>13700</v>
+        <v>14000</v>
       </c>
       <c r="I27" s="3">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="J27" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="K27" s="3">
         <v>6300</v>
@@ -2060,10 +2060,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E32" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F32" s="3">
         <v>-1200</v>
@@ -2072,7 +2072,7 @@
         <v>-800</v>
       </c>
       <c r="H32" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="I32" s="3">
         <v>-500</v>
@@ -2119,25 +2119,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>16900</v>
+        <v>17300</v>
       </c>
       <c r="E33" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="F33" s="3">
         <v>1500</v>
       </c>
       <c r="G33" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H33" s="3">
-        <v>13700</v>
+        <v>14000</v>
       </c>
       <c r="I33" s="3">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="J33" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="K33" s="3">
         <v>6300</v>
@@ -2237,25 +2237,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>16900</v>
+        <v>17300</v>
       </c>
       <c r="E35" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="F35" s="3">
         <v>1500</v>
       </c>
       <c r="G35" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H35" s="3">
-        <v>13700</v>
+        <v>14000</v>
       </c>
       <c r="I35" s="3">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="J35" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="K35" s="3">
         <v>6300</v>
@@ -2406,25 +2406,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>77000</v>
+        <v>78600</v>
       </c>
       <c r="E41" s="3">
-        <v>109300</v>
+        <v>111600</v>
       </c>
       <c r="F41" s="3">
-        <v>96900</v>
+        <v>98900</v>
       </c>
       <c r="G41" s="3">
-        <v>68100</v>
+        <v>69600</v>
       </c>
       <c r="H41" s="3">
-        <v>148600</v>
+        <v>151700</v>
       </c>
       <c r="I41" s="3">
-        <v>111100</v>
+        <v>113400</v>
       </c>
       <c r="J41" s="3">
-        <v>102100</v>
+        <v>104200</v>
       </c>
       <c r="K41" s="3">
         <v>116200</v>
@@ -2465,25 +2465,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>107900</v>
+        <v>110200</v>
       </c>
       <c r="E42" s="3">
-        <v>27400</v>
+        <v>28000</v>
       </c>
       <c r="F42" s="3">
-        <v>56100</v>
+        <v>57200</v>
       </c>
       <c r="G42" s="3">
-        <v>114000</v>
+        <v>116400</v>
       </c>
       <c r="H42" s="3">
-        <v>57500</v>
+        <v>58700</v>
       </c>
       <c r="I42" s="3">
-        <v>58300</v>
+        <v>59600</v>
       </c>
       <c r="J42" s="3">
-        <v>46200</v>
+        <v>47200</v>
       </c>
       <c r="K42" s="3">
         <v>52500</v>
@@ -2524,25 +2524,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>171800</v>
+        <v>175400</v>
       </c>
       <c r="E43" s="3">
-        <v>171800</v>
+        <v>175400</v>
       </c>
       <c r="F43" s="3">
-        <v>191800</v>
+        <v>195800</v>
       </c>
       <c r="G43" s="3">
-        <v>97000</v>
+        <v>99100</v>
       </c>
       <c r="H43" s="3">
-        <v>160100</v>
+        <v>163500</v>
       </c>
       <c r="I43" s="3">
-        <v>126000</v>
+        <v>128700</v>
       </c>
       <c r="J43" s="3">
-        <v>117500</v>
+        <v>120000</v>
       </c>
       <c r="K43" s="3">
         <v>55500</v>
@@ -2583,25 +2583,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>67100</v>
+        <v>68500</v>
       </c>
       <c r="E44" s="3">
-        <v>75300</v>
+        <v>76900</v>
       </c>
       <c r="F44" s="3">
-        <v>63000</v>
+        <v>64300</v>
       </c>
       <c r="G44" s="3">
-        <v>56700</v>
+        <v>57900</v>
       </c>
       <c r="H44" s="3">
-        <v>63900</v>
+        <v>65200</v>
       </c>
       <c r="I44" s="3">
-        <v>69200</v>
+        <v>70600</v>
       </c>
       <c r="J44" s="3">
-        <v>64300</v>
+        <v>65600</v>
       </c>
       <c r="K44" s="3">
         <v>45400</v>
@@ -2642,25 +2642,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24100</v>
+        <v>24600</v>
       </c>
       <c r="E45" s="3">
-        <v>27800</v>
+        <v>28400</v>
       </c>
       <c r="F45" s="3">
-        <v>19500</v>
+        <v>19900</v>
       </c>
       <c r="G45" s="3">
-        <v>14400</v>
+        <v>14700</v>
       </c>
       <c r="H45" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="I45" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="J45" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="K45" s="3">
         <v>13200</v>
@@ -2701,25 +2701,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>447900</v>
+        <v>457400</v>
       </c>
       <c r="E46" s="3">
-        <v>411600</v>
+        <v>420300</v>
       </c>
       <c r="F46" s="3">
-        <v>427200</v>
+        <v>436200</v>
       </c>
       <c r="G46" s="3">
-        <v>350300</v>
+        <v>357700</v>
       </c>
       <c r="H46" s="3">
-        <v>444200</v>
+        <v>453600</v>
       </c>
       <c r="I46" s="3">
-        <v>372300</v>
+        <v>380200</v>
       </c>
       <c r="J46" s="3">
-        <v>339300</v>
+        <v>346400</v>
       </c>
       <c r="K46" s="3">
         <v>282800</v>
@@ -2760,16 +2760,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="E47" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="F47" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="G47" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>16</v>
@@ -2819,25 +2819,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23800</v>
+        <v>24300</v>
       </c>
       <c r="E48" s="3">
-        <v>22300</v>
+        <v>22700</v>
       </c>
       <c r="F48" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="G48" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="H48" s="3">
-        <v>13300</v>
+        <v>13600</v>
       </c>
       <c r="I48" s="3">
-        <v>8800</v>
+        <v>9000</v>
       </c>
       <c r="J48" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="K48" s="3">
         <v>5000</v>
@@ -2881,7 +2881,7 @@
         <v>1200</v>
       </c>
       <c r="E49" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F49" s="3">
         <v>900</v>
@@ -3055,25 +3055,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E52" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="F52" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="G52" s="3">
         <v>3900</v>
       </c>
       <c r="H52" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I52" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="J52" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="K52" s="3">
         <v>1500</v>
@@ -3173,25 +3173,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>485800</v>
+        <v>496000</v>
       </c>
       <c r="E54" s="3">
-        <v>449600</v>
+        <v>459100</v>
       </c>
       <c r="F54" s="3">
-        <v>457700</v>
+        <v>467300</v>
       </c>
       <c r="G54" s="3">
-        <v>376500</v>
+        <v>384400</v>
       </c>
       <c r="H54" s="3">
-        <v>461800</v>
+        <v>471500</v>
       </c>
       <c r="I54" s="3">
-        <v>386600</v>
+        <v>394800</v>
       </c>
       <c r="J54" s="3">
-        <v>352400</v>
+        <v>359800</v>
       </c>
       <c r="K54" s="3">
         <v>289700</v>
@@ -3278,25 +3278,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>153000</v>
+        <v>156200</v>
       </c>
       <c r="E57" s="3">
-        <v>154400</v>
+        <v>157700</v>
       </c>
       <c r="F57" s="3">
-        <v>170200</v>
+        <v>173800</v>
       </c>
       <c r="G57" s="3">
-        <v>113500</v>
+        <v>115900</v>
       </c>
       <c r="H57" s="3">
-        <v>159400</v>
+        <v>162700</v>
       </c>
       <c r="I57" s="3">
-        <v>116200</v>
+        <v>118700</v>
       </c>
       <c r="J57" s="3">
-        <v>105800</v>
+        <v>108000</v>
       </c>
       <c r="K57" s="3">
         <v>79300</v>
@@ -3337,25 +3337,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="E58" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="F58" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="G58" s="3">
         <v>700</v>
       </c>
       <c r="H58" s="3">
-        <v>18500</v>
+        <v>18900</v>
       </c>
       <c r="I58" s="3">
-        <v>15800</v>
+        <v>16200</v>
       </c>
       <c r="J58" s="3">
-        <v>14900</v>
+        <v>15200</v>
       </c>
       <c r="K58" s="3">
         <v>400</v>
@@ -3396,25 +3396,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>77700</v>
+        <v>79300</v>
       </c>
       <c r="E59" s="3">
-        <v>58500</v>
+        <v>59700</v>
       </c>
       <c r="F59" s="3">
-        <v>59800</v>
+        <v>61000</v>
       </c>
       <c r="G59" s="3">
-        <v>43800</v>
+        <v>44700</v>
       </c>
       <c r="H59" s="3">
-        <v>71600</v>
+        <v>73100</v>
       </c>
       <c r="I59" s="3">
-        <v>56500</v>
+        <v>57700</v>
       </c>
       <c r="J59" s="3">
-        <v>49300</v>
+        <v>50300</v>
       </c>
       <c r="K59" s="3">
         <v>46500</v>
@@ -3455,25 +3455,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>249700</v>
+        <v>254900</v>
       </c>
       <c r="E60" s="3">
-        <v>223400</v>
+        <v>228200</v>
       </c>
       <c r="F60" s="3">
-        <v>234200</v>
+        <v>239100</v>
       </c>
       <c r="G60" s="3">
-        <v>158000</v>
+        <v>161300</v>
       </c>
       <c r="H60" s="3">
-        <v>249500</v>
+        <v>254700</v>
       </c>
       <c r="I60" s="3">
-        <v>188600</v>
+        <v>192600</v>
       </c>
       <c r="J60" s="3">
-        <v>169900</v>
+        <v>173500</v>
       </c>
       <c r="K60" s="3">
         <v>126200</v>
@@ -3573,7 +3573,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E62" s="3">
         <v>2700</v>
@@ -3582,10 +3582,10 @@
         <v>2800</v>
       </c>
       <c r="G62" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H62" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I62" s="3">
         <v>2000</v>
@@ -3809,25 +3809,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>252500</v>
+        <v>257800</v>
       </c>
       <c r="E66" s="3">
-        <v>226500</v>
+        <v>231300</v>
       </c>
       <c r="F66" s="3">
-        <v>237900</v>
+        <v>242900</v>
       </c>
       <c r="G66" s="3">
-        <v>161000</v>
+        <v>164400</v>
       </c>
       <c r="H66" s="3">
-        <v>252600</v>
+        <v>258000</v>
       </c>
       <c r="I66" s="3">
-        <v>191400</v>
+        <v>195400</v>
       </c>
       <c r="J66" s="3">
-        <v>173100</v>
+        <v>176800</v>
       </c>
       <c r="K66" s="3">
         <v>128400</v>
@@ -4127,25 +4127,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>55500</v>
+        <v>56600</v>
       </c>
       <c r="E72" s="3">
-        <v>39000</v>
+        <v>39800</v>
       </c>
       <c r="F72" s="3">
-        <v>33700</v>
+        <v>34400</v>
       </c>
       <c r="G72" s="3">
-        <v>32200</v>
+        <v>32900</v>
       </c>
       <c r="H72" s="3">
-        <v>29900</v>
+        <v>30500</v>
       </c>
       <c r="I72" s="3">
-        <v>16300</v>
+        <v>16700</v>
       </c>
       <c r="J72" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="K72" s="3">
         <v>-8300</v>
@@ -4363,25 +4363,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>233300</v>
+        <v>238200</v>
       </c>
       <c r="E76" s="3">
-        <v>223100</v>
+        <v>227800</v>
       </c>
       <c r="F76" s="3">
-        <v>219800</v>
+        <v>224500</v>
       </c>
       <c r="G76" s="3">
-        <v>215400</v>
+        <v>220000</v>
       </c>
       <c r="H76" s="3">
-        <v>209100</v>
+        <v>213500</v>
       </c>
       <c r="I76" s="3">
-        <v>195200</v>
+        <v>199400</v>
       </c>
       <c r="J76" s="3">
-        <v>179300</v>
+        <v>183000</v>
       </c>
       <c r="K76" s="3">
         <v>161300</v>
@@ -4545,25 +4545,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>16900</v>
+        <v>17300</v>
       </c>
       <c r="E81" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="F81" s="3">
         <v>1500</v>
       </c>
       <c r="G81" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H81" s="3">
-        <v>13700</v>
+        <v>14000</v>
       </c>
       <c r="I81" s="3">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="J81" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="K81" s="3">
         <v>6300</v>

--- a/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
   <si>
     <t>VIOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>294700</v>
+        <v>193300</v>
       </c>
       <c r="E8" s="3">
-        <v>231900</v>
+        <v>290900</v>
       </c>
       <c r="F8" s="3">
-        <v>262800</v>
+        <v>228900</v>
       </c>
       <c r="G8" s="3">
-        <v>119400</v>
+        <v>259400</v>
       </c>
       <c r="H8" s="3">
-        <v>271700</v>
+        <v>117900</v>
       </c>
       <c r="I8" s="3">
-        <v>166900</v>
+        <v>268200</v>
       </c>
       <c r="J8" s="3">
+        <v>164700</v>
+      </c>
+      <c r="K8" s="3">
         <v>181000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>102900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>138800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>79100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>101800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>47500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>58500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>31000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>40200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>19500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>17300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>225500</v>
+        <v>152500</v>
       </c>
       <c r="E9" s="3">
-        <v>192300</v>
+        <v>222500</v>
       </c>
       <c r="F9" s="3">
-        <v>225200</v>
+        <v>189800</v>
       </c>
       <c r="G9" s="3">
-        <v>97000</v>
+        <v>222300</v>
       </c>
       <c r="H9" s="3">
-        <v>217600</v>
+        <v>95700</v>
       </c>
       <c r="I9" s="3">
-        <v>129700</v>
+        <v>214800</v>
       </c>
       <c r="J9" s="3">
+        <v>128000</v>
+      </c>
+      <c r="K9" s="3">
         <v>132900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>74100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>101300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>55300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>74300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>33400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>39500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>21000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>28300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>13900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>69200</v>
+        <v>40800</v>
       </c>
       <c r="E10" s="3">
-        <v>39700</v>
+        <v>68300</v>
       </c>
       <c r="F10" s="3">
-        <v>37600</v>
+        <v>39100</v>
       </c>
       <c r="G10" s="3">
-        <v>22500</v>
+        <v>37100</v>
       </c>
       <c r="H10" s="3">
-        <v>54100</v>
+        <v>22200</v>
       </c>
       <c r="I10" s="3">
-        <v>37200</v>
+        <v>53400</v>
       </c>
       <c r="J10" s="3">
+        <v>36700</v>
+      </c>
+      <c r="K10" s="3">
         <v>48100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>28800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>37500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>23800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>27500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>14000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>19000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>10000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>11900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14500</v>
+        <v>10100</v>
       </c>
       <c r="E12" s="3">
-        <v>8200</v>
+        <v>14300</v>
       </c>
       <c r="F12" s="3">
-        <v>9500</v>
+        <v>8100</v>
       </c>
       <c r="G12" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="H12" s="3">
-        <v>10200</v>
+        <v>9100</v>
       </c>
       <c r="I12" s="3">
-        <v>6700</v>
+        <v>10100</v>
       </c>
       <c r="J12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K12" s="3">
         <v>9300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>275000</v>
+        <v>186100</v>
       </c>
       <c r="E17" s="3">
-        <v>226300</v>
+        <v>271400</v>
       </c>
       <c r="F17" s="3">
-        <v>261400</v>
+        <v>223300</v>
       </c>
       <c r="G17" s="3">
-        <v>117500</v>
+        <v>258000</v>
       </c>
       <c r="H17" s="3">
-        <v>257300</v>
+        <v>115900</v>
       </c>
       <c r="I17" s="3">
-        <v>154000</v>
+        <v>253900</v>
       </c>
       <c r="J17" s="3">
+        <v>152000</v>
+      </c>
+      <c r="K17" s="3">
         <v>165600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>97200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>130100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>87400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>95100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>42800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>50600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>26400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>37000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>17900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>16100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>19700</v>
+        <v>7300</v>
       </c>
       <c r="E18" s="3">
-        <v>5700</v>
+        <v>19400</v>
       </c>
       <c r="F18" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G18" s="3">
         <v>1400</v>
       </c>
-      <c r="G18" s="3">
-        <v>2000</v>
-      </c>
       <c r="H18" s="3">
-        <v>14500</v>
+        <v>1900</v>
       </c>
       <c r="I18" s="3">
-        <v>12900</v>
+        <v>14300</v>
       </c>
       <c r="J18" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K18" s="3">
         <v>15400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,49 +1379,50 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
-        <v>1700</v>
-      </c>
       <c r="F20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
-        <v>1600</v>
-      </c>
       <c r="I20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>200</v>
       </c>
       <c r="O20" s="3">
         <v>200</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
@@ -1397,7 +1431,7 @@
         <v>100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1431,41 +1468,44 @@
       <c r="J21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="3">
         <v>7500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3">
         <v>7000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>8200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3">
         <v>3500</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>21300</v>
+        <v>8400</v>
       </c>
       <c r="E23" s="3">
-        <v>7300</v>
+        <v>21000</v>
       </c>
       <c r="F23" s="3">
-        <v>2600</v>
+        <v>7200</v>
       </c>
       <c r="G23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H23" s="3">
         <v>2800</v>
       </c>
-      <c r="H23" s="3">
-        <v>16000</v>
-      </c>
       <c r="I23" s="3">
-        <v>13400</v>
+        <v>15800</v>
       </c>
       <c r="J23" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K23" s="3">
         <v>16100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>3900</v>
       </c>
-      <c r="E24" s="3">
-        <v>1900</v>
-      </c>
       <c r="F24" s="3">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="H24" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>1900</v>
       </c>
       <c r="J24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K24" s="3">
         <v>2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17300</v>
+        <v>7600</v>
       </c>
       <c r="E26" s="3">
-        <v>5500</v>
+        <v>17100</v>
       </c>
       <c r="F26" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G26" s="3">
         <v>1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K26" s="3">
+        <v>13900</v>
+      </c>
+      <c r="L26" s="3">
+        <v>6300</v>
+      </c>
+      <c r="M26" s="3">
+        <v>8000</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="O26" s="3">
+        <v>5900</v>
+      </c>
+      <c r="P26" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="R26" s="3">
+        <v>4100</v>
+      </c>
+      <c r="S26" s="3">
         <v>2800</v>
       </c>
-      <c r="H26" s="3">
-        <v>14100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>11400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>13900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>6300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>8000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>5900</v>
-      </c>
-      <c r="O26" s="3">
-        <v>4200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>7000</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>4100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>2800</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>600</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>17300</v>
+        <v>7600</v>
       </c>
       <c r="E27" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F27" s="3">
         <v>5400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2800</v>
       </c>
-      <c r="H27" s="3">
-        <v>14000</v>
-      </c>
       <c r="I27" s="3">
-        <v>11400</v>
+        <v>13800</v>
       </c>
       <c r="J27" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K27" s="3">
         <v>13800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2300</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,49 +2121,52 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
-        <v>-1700</v>
-      </c>
       <c r="F32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
-        <v>-1600</v>
-      </c>
       <c r="I32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-200</v>
       </c>
       <c r="O32" s="3">
         <v>-200</v>
       </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
@@ -2105,7 +2175,7 @@
         <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2113,67 +2183,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>17300</v>
+        <v>7600</v>
       </c>
       <c r="E33" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F33" s="3">
         <v>5400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2800</v>
       </c>
-      <c r="H33" s="3">
-        <v>14000</v>
-      </c>
       <c r="I33" s="3">
-        <v>11400</v>
+        <v>13800</v>
       </c>
       <c r="J33" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K33" s="3">
         <v>13800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2300</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>17300</v>
+        <v>7600</v>
       </c>
       <c r="E35" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F35" s="3">
         <v>5400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2800</v>
       </c>
-      <c r="H35" s="3">
-        <v>14000</v>
-      </c>
       <c r="I35" s="3">
-        <v>11400</v>
+        <v>13800</v>
       </c>
       <c r="J35" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K35" s="3">
         <v>13800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2300</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,47 +2486,48 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>78600</v>
+        <v>139600</v>
       </c>
       <c r="E41" s="3">
-        <v>111600</v>
+        <v>77600</v>
       </c>
       <c r="F41" s="3">
-        <v>98900</v>
+        <v>110200</v>
       </c>
       <c r="G41" s="3">
-        <v>69600</v>
+        <v>97600</v>
       </c>
       <c r="H41" s="3">
-        <v>151700</v>
+        <v>68700</v>
       </c>
       <c r="I41" s="3">
-        <v>113400</v>
+        <v>149700</v>
       </c>
       <c r="J41" s="3">
+        <v>112000</v>
+      </c>
+      <c r="K41" s="3">
         <v>104200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>116200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>136600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>130600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>36900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2459,41 +2546,44 @@
       <c r="U41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>110200</v>
+        <v>108500</v>
       </c>
       <c r="E42" s="3">
-        <v>28000</v>
+        <v>108700</v>
       </c>
       <c r="F42" s="3">
-        <v>57200</v>
+        <v>27700</v>
       </c>
       <c r="G42" s="3">
-        <v>116400</v>
+        <v>56500</v>
       </c>
       <c r="H42" s="3">
-        <v>58700</v>
+        <v>114900</v>
       </c>
       <c r="I42" s="3">
-        <v>59600</v>
+        <v>57900</v>
       </c>
       <c r="J42" s="3">
+        <v>58800</v>
+      </c>
+      <c r="K42" s="3">
         <v>47200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>52500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>24500</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2509,8 +2599,8 @@
       <c r="R42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2518,47 +2608,50 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>175400</v>
+        <v>87900</v>
       </c>
       <c r="E43" s="3">
-        <v>175400</v>
+        <v>173100</v>
       </c>
       <c r="F43" s="3">
-        <v>195800</v>
+        <v>173100</v>
       </c>
       <c r="G43" s="3">
-        <v>99100</v>
+        <v>193300</v>
       </c>
       <c r="H43" s="3">
-        <v>163500</v>
+        <v>97800</v>
       </c>
       <c r="I43" s="3">
-        <v>128700</v>
+        <v>161400</v>
       </c>
       <c r="J43" s="3">
+        <v>127000</v>
+      </c>
+      <c r="K43" s="3">
         <v>120000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>55500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>70400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>54300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>68000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2577,47 +2670,50 @@
       <c r="U43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>68500</v>
+        <v>91200</v>
       </c>
       <c r="E44" s="3">
-        <v>76900</v>
+        <v>67700</v>
       </c>
       <c r="F44" s="3">
-        <v>64300</v>
+        <v>75900</v>
       </c>
       <c r="G44" s="3">
-        <v>57900</v>
+        <v>63500</v>
       </c>
       <c r="H44" s="3">
-        <v>65200</v>
+        <v>57100</v>
       </c>
       <c r="I44" s="3">
-        <v>70600</v>
+        <v>64400</v>
       </c>
       <c r="J44" s="3">
+        <v>69700</v>
+      </c>
+      <c r="K44" s="3">
         <v>65600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>45400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>33700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>28100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>23900</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2636,47 +2732,50 @@
       <c r="U44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24600</v>
+        <v>26700</v>
       </c>
       <c r="E45" s="3">
-        <v>28400</v>
+        <v>24300</v>
       </c>
       <c r="F45" s="3">
-        <v>19900</v>
+        <v>28100</v>
       </c>
       <c r="G45" s="3">
-        <v>14700</v>
+        <v>19600</v>
       </c>
       <c r="H45" s="3">
         <v>14500</v>
       </c>
       <c r="I45" s="3">
-        <v>7900</v>
+        <v>14300</v>
       </c>
       <c r="J45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K45" s="3">
         <v>9500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2695,47 +2794,50 @@
       <c r="U45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>457400</v>
+        <v>453900</v>
       </c>
       <c r="E46" s="3">
-        <v>420300</v>
+        <v>451500</v>
       </c>
       <c r="F46" s="3">
-        <v>436200</v>
+        <v>414900</v>
       </c>
       <c r="G46" s="3">
-        <v>357700</v>
+        <v>430500</v>
       </c>
       <c r="H46" s="3">
-        <v>453600</v>
+        <v>353000</v>
       </c>
       <c r="I46" s="3">
-        <v>380200</v>
+        <v>447700</v>
       </c>
       <c r="J46" s="3">
+        <v>375300</v>
+      </c>
+      <c r="K46" s="3">
         <v>346400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>282800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>276300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>225600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>143900</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2754,25 +2856,28 @@
       <c r="U46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="E47" s="3">
-        <v>9400</v>
+        <v>7700</v>
       </c>
       <c r="F47" s="3">
-        <v>9400</v>
+        <v>9200</v>
       </c>
       <c r="G47" s="3">
-        <v>9400</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>16</v>
+        <v>9200</v>
+      </c>
+      <c r="H47" s="3">
+        <v>9200</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>16</v>
@@ -2789,8 +2894,8 @@
       <c r="M47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2813,47 +2918,50 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24300</v>
+        <v>23900</v>
       </c>
       <c r="E48" s="3">
-        <v>22700</v>
+        <v>24000</v>
       </c>
       <c r="F48" s="3">
-        <v>13300</v>
+        <v>22400</v>
       </c>
       <c r="G48" s="3">
-        <v>12600</v>
+        <v>13100</v>
       </c>
       <c r="H48" s="3">
-        <v>13600</v>
+        <v>12400</v>
       </c>
       <c r="I48" s="3">
-        <v>9000</v>
+        <v>13400</v>
       </c>
       <c r="J48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K48" s="3">
         <v>7400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>500</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2884,16 +2995,16 @@
         <v>1200</v>
       </c>
       <c r="F49" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="G49" s="3">
         <v>900</v>
       </c>
       <c r="H49" s="3">
+        <v>900</v>
+      </c>
+      <c r="I49" s="3">
         <v>700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>400</v>
       </c>
       <c r="J49" s="3">
         <v>400</v>
@@ -2902,13 +3013,13 @@
         <v>400</v>
       </c>
       <c r="L49" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>16</v>
+      <c r="N49" s="3">
+        <v>0</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>16</v>
@@ -2922,8 +3033,8 @@
       <c r="R49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,46 +3166,49 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5300</v>
+        <v>6700</v>
       </c>
       <c r="E52" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="F52" s="3">
-        <v>7600</v>
+        <v>5400</v>
       </c>
       <c r="G52" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H52" s="3">
         <v>3900</v>
       </c>
-      <c r="H52" s="3">
-        <v>3700</v>
-      </c>
       <c r="I52" s="3">
-        <v>5200</v>
+        <v>3600</v>
       </c>
       <c r="J52" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K52" s="3">
         <v>5600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1300</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1500</v>
       </c>
       <c r="N52" s="3">
         <v>1500</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>16</v>
+      <c r="O52" s="3">
+        <v>1500</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>16</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,47 +3290,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>496000</v>
+        <v>493400</v>
       </c>
       <c r="E54" s="3">
-        <v>459100</v>
+        <v>489600</v>
       </c>
       <c r="F54" s="3">
-        <v>467300</v>
+        <v>453100</v>
       </c>
       <c r="G54" s="3">
-        <v>384400</v>
+        <v>461300</v>
       </c>
       <c r="H54" s="3">
-        <v>471500</v>
+        <v>379400</v>
       </c>
       <c r="I54" s="3">
-        <v>394800</v>
+        <v>465400</v>
       </c>
       <c r="J54" s="3">
+        <v>389600</v>
+      </c>
+      <c r="K54" s="3">
         <v>359800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>289700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>279300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>227500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>145900</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,47 +3402,48 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>156200</v>
+        <v>173700</v>
       </c>
       <c r="E57" s="3">
-        <v>157700</v>
+        <v>154200</v>
       </c>
       <c r="F57" s="3">
-        <v>173800</v>
+        <v>155600</v>
       </c>
       <c r="G57" s="3">
-        <v>115900</v>
+        <v>171500</v>
       </c>
       <c r="H57" s="3">
-        <v>162700</v>
+        <v>114400</v>
       </c>
       <c r="I57" s="3">
-        <v>118700</v>
+        <v>160600</v>
       </c>
       <c r="J57" s="3">
+        <v>117100</v>
+      </c>
+      <c r="K57" s="3">
         <v>108000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>79300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>79700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>58100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>71500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3331,47 +3462,50 @@
       <c r="U57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19400</v>
+        <v>7400</v>
       </c>
       <c r="E58" s="3">
-        <v>10800</v>
+        <v>19100</v>
       </c>
       <c r="F58" s="3">
-        <v>4300</v>
+        <v>10600</v>
       </c>
       <c r="G58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
-        <v>18900</v>
-      </c>
       <c r="I58" s="3">
-        <v>16200</v>
+        <v>18600</v>
       </c>
       <c r="J58" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K58" s="3">
         <v>15200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3390,47 +3524,50 @@
       <c r="U58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>79300</v>
+        <v>62700</v>
       </c>
       <c r="E59" s="3">
-        <v>59700</v>
+        <v>78300</v>
       </c>
       <c r="F59" s="3">
-        <v>61000</v>
+        <v>58900</v>
       </c>
       <c r="G59" s="3">
-        <v>44700</v>
+        <v>60200</v>
       </c>
       <c r="H59" s="3">
-        <v>73100</v>
+        <v>44100</v>
       </c>
       <c r="I59" s="3">
-        <v>57700</v>
+        <v>72200</v>
       </c>
       <c r="J59" s="3">
+        <v>57000</v>
+      </c>
+      <c r="K59" s="3">
         <v>50300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>46500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>43200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>28200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>28100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3449,47 +3586,50 @@
       <c r="U59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>254900</v>
+        <v>243800</v>
       </c>
       <c r="E60" s="3">
-        <v>228200</v>
+        <v>251600</v>
       </c>
       <c r="F60" s="3">
-        <v>239100</v>
+        <v>225200</v>
       </c>
       <c r="G60" s="3">
-        <v>161300</v>
+        <v>236000</v>
       </c>
       <c r="H60" s="3">
-        <v>254700</v>
+        <v>159200</v>
       </c>
       <c r="I60" s="3">
-        <v>192600</v>
+        <v>251400</v>
       </c>
       <c r="J60" s="3">
+        <v>190100</v>
+      </c>
+      <c r="K60" s="3">
         <v>173500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>126200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>123700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>86600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>100000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3508,8 +3648,11 @@
       <c r="U60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,46 +3710,49 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="E62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F62" s="3">
         <v>2700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I62" s="3">
         <v>2300</v>
       </c>
-      <c r="H62" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>16</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>16</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,47 +3958,50 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>257800</v>
+        <v>247000</v>
       </c>
       <c r="E66" s="3">
-        <v>231300</v>
+        <v>254400</v>
       </c>
       <c r="F66" s="3">
-        <v>242900</v>
+        <v>228300</v>
       </c>
       <c r="G66" s="3">
-        <v>164400</v>
+        <v>239700</v>
       </c>
       <c r="H66" s="3">
-        <v>258000</v>
+        <v>162300</v>
       </c>
       <c r="I66" s="3">
-        <v>195400</v>
+        <v>254600</v>
       </c>
       <c r="J66" s="3">
+        <v>192900</v>
+      </c>
+      <c r="K66" s="3">
         <v>176800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>128400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>124200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>87000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>100100</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4039,11 +4207,11 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>22600</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,47 +4292,50 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>56600</v>
+        <v>63200</v>
       </c>
       <c r="E72" s="3">
-        <v>39800</v>
+        <v>55900</v>
       </c>
       <c r="F72" s="3">
-        <v>34400</v>
+        <v>39300</v>
       </c>
       <c r="G72" s="3">
-        <v>32900</v>
+        <v>34000</v>
       </c>
       <c r="H72" s="3">
-        <v>30500</v>
+        <v>32500</v>
       </c>
       <c r="I72" s="3">
-        <v>16700</v>
+        <v>30100</v>
       </c>
       <c r="J72" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K72" s="3">
         <v>5300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-21100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,47 +4540,50 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>238200</v>
+        <v>246400</v>
       </c>
       <c r="E76" s="3">
-        <v>227800</v>
+        <v>235100</v>
       </c>
       <c r="F76" s="3">
-        <v>224500</v>
+        <v>224800</v>
       </c>
       <c r="G76" s="3">
-        <v>220000</v>
+        <v>221500</v>
       </c>
       <c r="H76" s="3">
-        <v>213500</v>
+        <v>217100</v>
       </c>
       <c r="I76" s="3">
-        <v>199400</v>
+        <v>210800</v>
       </c>
       <c r="J76" s="3">
+        <v>196800</v>
+      </c>
+      <c r="K76" s="3">
         <v>183000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>161300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>155100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>140500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>17300</v>
+        <v>7600</v>
       </c>
       <c r="E81" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F81" s="3">
         <v>5400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2800</v>
       </c>
-      <c r="H81" s="3">
-        <v>14000</v>
-      </c>
       <c r="I81" s="3">
-        <v>11400</v>
+        <v>13800</v>
       </c>
       <c r="J81" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K81" s="3">
         <v>13800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2300</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4650,8 +4849,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>16</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>16</v>
@@ -4671,8 +4870,8 @@
       <c r="R83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5004,8 +5221,8 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>16</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>16</v>
@@ -5025,8 +5242,8 @@
       <c r="R89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
+      <c r="S89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5086,8 +5307,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>16</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>16</v>
@@ -5107,8 +5328,8 @@
       <c r="R91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5263,8 +5493,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>16</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>16</v>
@@ -5284,8 +5514,8 @@
       <c r="R94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5581,8 +5827,8 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>16</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>16</v>
@@ -5602,8 +5848,8 @@
       <c r="R100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5640,8 +5889,8 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>16</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>16</v>
@@ -5661,8 +5910,8 @@
       <c r="R101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5699,8 +5951,8 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>16</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>16</v>
@@ -5720,13 +5972,16 @@
       <c r="R102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
+      <c r="S102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
   <si>
     <t>VIOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,308 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>193300</v>
+        <v>165400</v>
       </c>
       <c r="E8" s="3">
-        <v>290900</v>
+        <v>259700</v>
       </c>
       <c r="F8" s="3">
-        <v>228900</v>
+        <v>196600</v>
       </c>
       <c r="G8" s="3">
-        <v>259400</v>
+        <v>295700</v>
       </c>
       <c r="H8" s="3">
-        <v>117900</v>
+        <v>232800</v>
       </c>
       <c r="I8" s="3">
+        <v>263700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>119800</v>
+      </c>
+      <c r="K8" s="3">
         <v>268200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>164700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>181000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>102900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>138800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>79100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>101800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>47500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>58500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>31000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>40200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>19500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>17300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>152500</v>
+        <v>127900</v>
       </c>
       <c r="E9" s="3">
-        <v>222500</v>
+        <v>204600</v>
       </c>
       <c r="F9" s="3">
-        <v>189800</v>
+        <v>155100</v>
       </c>
       <c r="G9" s="3">
-        <v>222300</v>
+        <v>226300</v>
       </c>
       <c r="H9" s="3">
-        <v>95700</v>
+        <v>193000</v>
       </c>
       <c r="I9" s="3">
+        <v>226000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>97300</v>
+      </c>
+      <c r="K9" s="3">
         <v>214800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>128000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>132900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>74100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>101300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>55300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>74300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>33400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>39500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>21000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>28300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>13900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>12600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>40800</v>
+        <v>37500</v>
       </c>
       <c r="E10" s="3">
-        <v>68300</v>
+        <v>55100</v>
       </c>
       <c r="F10" s="3">
-        <v>39100</v>
+        <v>41500</v>
       </c>
       <c r="G10" s="3">
-        <v>37100</v>
+        <v>69500</v>
       </c>
       <c r="H10" s="3">
-        <v>22200</v>
+        <v>39800</v>
       </c>
       <c r="I10" s="3">
+        <v>37700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K10" s="3">
         <v>53400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>36700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>48100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>28800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>37500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>23800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>27500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>14000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>19000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>10000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>11900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>5600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>4800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +989,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10300</v>
+      </c>
+      <c r="G12" s="3">
+        <v>14600</v>
+      </c>
+      <c r="H12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>9500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K12" s="3">
         <v>10100</v>
       </c>
-      <c r="E12" s="3">
-        <v>14300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>8100</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="L12" s="3">
+        <v>6600</v>
+      </c>
+      <c r="M12" s="3">
         <v>9300</v>
       </c>
-      <c r="H12" s="3">
-        <v>9100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>10100</v>
-      </c>
-      <c r="J12" s="3">
-        <v>6600</v>
-      </c>
-      <c r="K12" s="3">
-        <v>9300</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>5600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>6100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>4700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>4000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>3000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>3800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>3300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>1100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>1300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>186100</v>
+        <v>171500</v>
       </c>
       <c r="E17" s="3">
-        <v>271400</v>
+        <v>252300</v>
       </c>
       <c r="F17" s="3">
-        <v>223300</v>
+        <v>189200</v>
       </c>
       <c r="G17" s="3">
-        <v>258000</v>
+        <v>276000</v>
       </c>
       <c r="H17" s="3">
-        <v>115900</v>
+        <v>227100</v>
       </c>
       <c r="I17" s="3">
+        <v>262300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>117900</v>
+      </c>
+      <c r="K17" s="3">
         <v>253900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>152000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>165600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>97200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>130100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>87400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>95100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>42800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>50600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>26400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>37000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>17900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>16100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>7300</v>
+        <v>-6100</v>
       </c>
       <c r="E18" s="3">
-        <v>19400</v>
+        <v>7400</v>
       </c>
       <c r="F18" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>19800</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K18" s="3">
+        <v>14300</v>
+      </c>
+      <c r="L18" s="3">
+        <v>12700</v>
+      </c>
+      <c r="M18" s="3">
+        <v>15400</v>
+      </c>
+      <c r="N18" s="3">
         <v>5600</v>
       </c>
-      <c r="G18" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I18" s="3">
-        <v>14300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>12700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>15400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>5600</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>8700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-8300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>6700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>4700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>7900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>4600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>3200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>1200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,70 +1446,78 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
-        <v>800</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>900</v>
+      </c>
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1471,41 +1545,47 @@
       <c r="K21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3">
         <v>7500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>9600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>7000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3">
         <v>8200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="3">
         <v>3500</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,111 +1646,123 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8400</v>
+        <v>-5500</v>
       </c>
       <c r="E23" s="3">
-        <v>21000</v>
+        <v>8700</v>
       </c>
       <c r="F23" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G23" s="3">
+        <v>21400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K23" s="3">
+        <v>15800</v>
+      </c>
+      <c r="L23" s="3">
+        <v>13200</v>
+      </c>
+      <c r="M23" s="3">
+        <v>16100</v>
+      </c>
+      <c r="N23" s="3">
         <v>7200</v>
       </c>
-      <c r="G23" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>15800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>13200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>16100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>7200</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>9300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-7900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>6900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>4900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>8000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>4700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>3300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>700</v>
+        <v>-1000</v>
       </c>
       <c r="E24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F24" s="3">
+        <v>800</v>
+      </c>
+      <c r="G24" s="3">
         <v>3900</v>
       </c>
-      <c r="F24" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>900</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>700</v>
       </c>
       <c r="Q24" s="3">
         <v>1000</v>
@@ -1679,19 +1771,25 @@
         <v>700</v>
       </c>
       <c r="S24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T24" s="3">
+        <v>700</v>
+      </c>
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7600</v>
+        <v>-4600</v>
       </c>
       <c r="E26" s="3">
-        <v>17100</v>
+        <v>7300</v>
       </c>
       <c r="F26" s="3">
-        <v>5400</v>
+        <v>7700</v>
       </c>
       <c r="G26" s="3">
+        <v>17400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I26" s="3">
         <v>1600</v>
       </c>
-      <c r="H26" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>13900</v>
-      </c>
       <c r="J26" s="3">
-        <v>11300</v>
+        <v>2800</v>
       </c>
       <c r="K26" s="3">
         <v>13900</v>
       </c>
       <c r="L26" s="3">
+        <v>11300</v>
+      </c>
+      <c r="M26" s="3">
+        <v>13900</v>
+      </c>
+      <c r="N26" s="3">
         <v>6300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>8000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-8400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>5900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>4200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>7000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>4100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>2800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>600</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7600</v>
+        <v>-4600</v>
       </c>
       <c r="E27" s="3">
-        <v>17000</v>
+        <v>7200</v>
       </c>
       <c r="F27" s="3">
-        <v>5400</v>
+        <v>7700</v>
       </c>
       <c r="G27" s="3">
+        <v>17300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I27" s="3">
         <v>1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>13800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>11200</v>
       </c>
       <c r="K27" s="3">
         <v>13800</v>
       </c>
       <c r="L27" s="3">
+        <v>11200</v>
+      </c>
+      <c r="M27" s="3">
+        <v>13800</v>
+      </c>
+      <c r="N27" s="3">
         <v>6300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>8000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-9100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2300</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7600</v>
+        <v>-4600</v>
       </c>
       <c r="E33" s="3">
-        <v>17000</v>
+        <v>7200</v>
       </c>
       <c r="F33" s="3">
-        <v>5400</v>
+        <v>7700</v>
       </c>
       <c r="G33" s="3">
+        <v>17300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I33" s="3">
         <v>1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>13800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>11200</v>
       </c>
       <c r="K33" s="3">
         <v>13800</v>
       </c>
       <c r="L33" s="3">
+        <v>11200</v>
+      </c>
+      <c r="M33" s="3">
+        <v>13800</v>
+      </c>
+      <c r="N33" s="3">
         <v>6300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>8000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-9100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2300</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7600</v>
+        <v>-4600</v>
       </c>
       <c r="E35" s="3">
-        <v>17000</v>
+        <v>7200</v>
       </c>
       <c r="F35" s="3">
-        <v>5400</v>
+        <v>7700</v>
       </c>
       <c r="G35" s="3">
+        <v>17300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I35" s="3">
         <v>1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>13800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>11200</v>
       </c>
       <c r="K35" s="3">
         <v>13800</v>
       </c>
       <c r="L35" s="3">
+        <v>11200</v>
+      </c>
+      <c r="M35" s="3">
+        <v>13800</v>
+      </c>
+      <c r="N35" s="3">
         <v>6300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>8000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-9100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2300</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,53 +2659,55 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>139600</v>
+        <v>120800</v>
       </c>
       <c r="E41" s="3">
-        <v>77600</v>
+        <v>104500</v>
       </c>
       <c r="F41" s="3">
-        <v>110200</v>
+        <v>141900</v>
       </c>
       <c r="G41" s="3">
-        <v>97600</v>
+        <v>78900</v>
       </c>
       <c r="H41" s="3">
-        <v>68700</v>
+        <v>112000</v>
       </c>
       <c r="I41" s="3">
+        <v>99300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K41" s="3">
         <v>149700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>112000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>104200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>116200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>136600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>130600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>36900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2549,47 +2723,53 @@
       <c r="V41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>108500</v>
+        <v>92500</v>
       </c>
       <c r="E42" s="3">
-        <v>108700</v>
+        <v>81500</v>
       </c>
       <c r="F42" s="3">
-        <v>27700</v>
+        <v>110300</v>
       </c>
       <c r="G42" s="3">
-        <v>56500</v>
+        <v>110500</v>
       </c>
       <c r="H42" s="3">
-        <v>114900</v>
+        <v>28100</v>
       </c>
       <c r="I42" s="3">
+        <v>57400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>116800</v>
+      </c>
+      <c r="K42" s="3">
         <v>57900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>58800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>47200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>52500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>24500</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2602,62 +2782,68 @@
       <c r="S42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>87900</v>
+        <v>103200</v>
       </c>
       <c r="E43" s="3">
-        <v>173100</v>
+        <v>167500</v>
       </c>
       <c r="F43" s="3">
-        <v>173100</v>
+        <v>89400</v>
       </c>
       <c r="G43" s="3">
-        <v>193300</v>
+        <v>176000</v>
       </c>
       <c r="H43" s="3">
-        <v>97800</v>
+        <v>176000</v>
       </c>
       <c r="I43" s="3">
+        <v>196500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>99400</v>
+      </c>
+      <c r="K43" s="3">
         <v>161400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>127000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>120000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>55500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>70400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>54300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>68000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2673,53 +2859,59 @@
       <c r="V43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>91200</v>
+        <v>84700</v>
       </c>
       <c r="E44" s="3">
-        <v>67700</v>
+        <v>87400</v>
       </c>
       <c r="F44" s="3">
-        <v>75900</v>
+        <v>92700</v>
       </c>
       <c r="G44" s="3">
-        <v>63500</v>
+        <v>68800</v>
       </c>
       <c r="H44" s="3">
-        <v>57100</v>
+        <v>77100</v>
       </c>
       <c r="I44" s="3">
+        <v>64500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>58100</v>
+      </c>
+      <c r="K44" s="3">
         <v>64400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>69700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>65600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>45400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>33700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>28100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>23900</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2735,53 +2927,59 @@
       <c r="V44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26700</v>
+        <v>29600</v>
       </c>
       <c r="E45" s="3">
-        <v>24300</v>
+        <v>28500</v>
       </c>
       <c r="F45" s="3">
-        <v>28100</v>
+        <v>27200</v>
       </c>
       <c r="G45" s="3">
-        <v>19600</v>
+        <v>24700</v>
       </c>
       <c r="H45" s="3">
-        <v>14500</v>
+        <v>28500</v>
       </c>
       <c r="I45" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K45" s="3">
         <v>14300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>7800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>9500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>13200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>11100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>12500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>15100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2797,53 +2995,59 @@
       <c r="V45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>453900</v>
+        <v>430800</v>
       </c>
       <c r="E46" s="3">
-        <v>451500</v>
+        <v>469300</v>
       </c>
       <c r="F46" s="3">
-        <v>414900</v>
+        <v>461500</v>
       </c>
       <c r="G46" s="3">
-        <v>430500</v>
+        <v>459000</v>
       </c>
       <c r="H46" s="3">
-        <v>353000</v>
+        <v>421800</v>
       </c>
       <c r="I46" s="3">
+        <v>437800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>358900</v>
+      </c>
+      <c r="K46" s="3">
         <v>447700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>375300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>346400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>282800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>276300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>225600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>143900</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2859,31 +3063,37 @@
       <c r="V46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7700</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>7700</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>9200</v>
+        <v>7800</v>
       </c>
       <c r="G47" s="3">
-        <v>9200</v>
+        <v>7800</v>
       </c>
       <c r="H47" s="3">
-        <v>9200</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>16</v>
+        <v>9400</v>
+      </c>
+      <c r="I47" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>9400</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>16</v>
@@ -2897,11 +3107,11 @@
       <c r="N47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2921,53 +3131,59 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23900</v>
+        <v>29500</v>
       </c>
       <c r="E48" s="3">
-        <v>24000</v>
+        <v>28400</v>
       </c>
       <c r="F48" s="3">
-        <v>22400</v>
+        <v>24300</v>
       </c>
       <c r="G48" s="3">
-        <v>13100</v>
+        <v>24400</v>
       </c>
       <c r="H48" s="3">
-        <v>12400</v>
+        <v>22800</v>
       </c>
       <c r="I48" s="3">
+        <v>13300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K48" s="3">
         <v>13400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>8900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>7400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>500</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2983,49 +3199,55 @@
       <c r="V48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E49" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="F49" s="3">
         <v>1200</v>
       </c>
       <c r="G49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I49" s="3">
         <v>900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>400</v>
-      </c>
-      <c r="K49" s="3">
-        <v>400</v>
       </c>
       <c r="L49" s="3">
         <v>400</v>
       </c>
       <c r="M49" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>16</v>
+        <v>400</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>16</v>
@@ -3036,17 +3258,23 @@
       <c r="S49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,52 +3403,58 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6700</v>
+        <v>7800</v>
       </c>
       <c r="E52" s="3">
-        <v>5200</v>
+        <v>6500</v>
       </c>
       <c r="F52" s="3">
-        <v>5400</v>
+        <v>6900</v>
       </c>
       <c r="G52" s="3">
-        <v>7500</v>
+        <v>5300</v>
       </c>
       <c r="H52" s="3">
-        <v>3900</v>
+        <v>5500</v>
       </c>
       <c r="I52" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K52" s="3">
         <v>3600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>5100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5600</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1300</v>
       </c>
       <c r="N52" s="3">
         <v>1500</v>
       </c>
       <c r="O52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P52" s="3">
         <v>1500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>16</v>
+      <c r="Q52" s="3">
+        <v>1500</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>16</v>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,53 +3539,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>493400</v>
+        <v>469700</v>
       </c>
       <c r="E54" s="3">
-        <v>489600</v>
+        <v>505600</v>
       </c>
       <c r="F54" s="3">
-        <v>453100</v>
+        <v>501700</v>
       </c>
       <c r="G54" s="3">
-        <v>461300</v>
+        <v>497800</v>
       </c>
       <c r="H54" s="3">
-        <v>379400</v>
+        <v>460700</v>
       </c>
       <c r="I54" s="3">
+        <v>469000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>385800</v>
+      </c>
+      <c r="K54" s="3">
         <v>465400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>389600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>359800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>289700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>279300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>227500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>145900</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3355,8 +3607,14 @@
       <c r="V54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,53 +3663,55 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>173700</v>
+        <v>134600</v>
       </c>
       <c r="E57" s="3">
-        <v>154200</v>
+        <v>172500</v>
       </c>
       <c r="F57" s="3">
-        <v>155600</v>
+        <v>176600</v>
       </c>
       <c r="G57" s="3">
-        <v>171500</v>
+        <v>156800</v>
       </c>
       <c r="H57" s="3">
-        <v>114400</v>
+        <v>158200</v>
       </c>
       <c r="I57" s="3">
+        <v>174400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>116300</v>
+      </c>
+      <c r="K57" s="3">
         <v>160600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>117100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>108000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>79300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>79700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>58100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>71500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3465,53 +3727,59 @@
       <c r="V57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7400</v>
+        <v>900</v>
       </c>
       <c r="E58" s="3">
-        <v>19100</v>
+        <v>900</v>
       </c>
       <c r="F58" s="3">
-        <v>10600</v>
+        <v>7500</v>
       </c>
       <c r="G58" s="3">
-        <v>4200</v>
+        <v>19400</v>
       </c>
       <c r="H58" s="3">
+        <v>10800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>18600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>15900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>15200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3527,53 +3795,59 @@
       <c r="V58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>62700</v>
+        <v>72800</v>
       </c>
       <c r="E59" s="3">
-        <v>78300</v>
+        <v>69900</v>
       </c>
       <c r="F59" s="3">
-        <v>58900</v>
+        <v>63800</v>
       </c>
       <c r="G59" s="3">
-        <v>60200</v>
+        <v>79600</v>
       </c>
       <c r="H59" s="3">
-        <v>44100</v>
+        <v>59900</v>
       </c>
       <c r="I59" s="3">
+        <v>61200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>44800</v>
+      </c>
+      <c r="K59" s="3">
         <v>72200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>57000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>50300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>46500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>43200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>28200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>28100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3589,53 +3863,59 @@
       <c r="V59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>243800</v>
+        <v>208200</v>
       </c>
       <c r="E60" s="3">
-        <v>251600</v>
+        <v>243400</v>
       </c>
       <c r="F60" s="3">
-        <v>225200</v>
+        <v>247900</v>
       </c>
       <c r="G60" s="3">
-        <v>236000</v>
+        <v>255800</v>
       </c>
       <c r="H60" s="3">
-        <v>159200</v>
+        <v>229000</v>
       </c>
       <c r="I60" s="3">
+        <v>240000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>161900</v>
+      </c>
+      <c r="K60" s="3">
         <v>251400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>190100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>173500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>126200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>123700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>86600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>100000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3651,13 +3931,19 @@
       <c r="V60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3713,52 +3999,58 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E62" s="3">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="F62" s="3">
         <v>2700</v>
       </c>
       <c r="G62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H62" s="3">
         <v>2800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M62" s="3">
         <v>2200</v>
       </c>
-      <c r="I62" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K62" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>16</v>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>16</v>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,53 +4271,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>247000</v>
+        <v>213800</v>
       </c>
       <c r="E66" s="3">
-        <v>254400</v>
+        <v>246700</v>
       </c>
       <c r="F66" s="3">
-        <v>228300</v>
+        <v>251100</v>
       </c>
       <c r="G66" s="3">
-        <v>239700</v>
+        <v>258700</v>
       </c>
       <c r="H66" s="3">
-        <v>162300</v>
+        <v>232100</v>
       </c>
       <c r="I66" s="3">
+        <v>243700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>165000</v>
+      </c>
+      <c r="K66" s="3">
         <v>254600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>192900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>176800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>128400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>124200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>87000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>100100</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4023,8 +4339,14 @@
       <c r="V66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4210,14 +4546,14 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>22600</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,53 +4637,59 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>63200</v>
+        <v>66900</v>
       </c>
       <c r="E72" s="3">
-        <v>55900</v>
+        <v>71500</v>
       </c>
       <c r="F72" s="3">
-        <v>39300</v>
+        <v>64300</v>
       </c>
       <c r="G72" s="3">
-        <v>34000</v>
+        <v>56800</v>
       </c>
       <c r="H72" s="3">
-        <v>32500</v>
+        <v>39900</v>
       </c>
       <c r="I72" s="3">
+        <v>34500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K72" s="3">
         <v>30100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>16500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>5300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-8300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-13900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-21100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-13000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4357,8 +4705,14 @@
       <c r="V72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,53 +4909,59 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>246400</v>
+        <v>255900</v>
       </c>
       <c r="E76" s="3">
-        <v>235100</v>
+        <v>258900</v>
       </c>
       <c r="F76" s="3">
-        <v>224800</v>
+        <v>250500</v>
       </c>
       <c r="G76" s="3">
-        <v>221500</v>
+        <v>239100</v>
       </c>
       <c r="H76" s="3">
-        <v>217100</v>
+        <v>228600</v>
       </c>
       <c r="I76" s="3">
+        <v>225200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>220800</v>
+      </c>
+      <c r="K76" s="3">
         <v>210800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>196800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>183000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>161300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>155100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>140500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>23200</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4605,8 +4977,14 @@
       <c r="V76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7600</v>
+        <v>-4600</v>
       </c>
       <c r="E81" s="3">
-        <v>17000</v>
+        <v>7200</v>
       </c>
       <c r="F81" s="3">
-        <v>5400</v>
+        <v>7700</v>
       </c>
       <c r="G81" s="3">
+        <v>17300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I81" s="3">
         <v>1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>13800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>11200</v>
       </c>
       <c r="K81" s="3">
         <v>13800</v>
       </c>
       <c r="L81" s="3">
+        <v>11200</v>
+      </c>
+      <c r="M81" s="3">
+        <v>13800</v>
+      </c>
+      <c r="N81" s="3">
         <v>6300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>8000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-9100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2300</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4852,11 +5250,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>16</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>16</v>
@@ -4873,17 +5271,23 @@
       <c r="S83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5620,14 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5224,11 +5658,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>16</v>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>16</v>
@@ -5245,17 +5679,23 @@
       <c r="S89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3">
-        <v>0</v>
+      <c r="T89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5310,11 +5752,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>16</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>16</v>
@@ -5331,17 +5773,23 @@
       <c r="S91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5496,11 +5956,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>16</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>16</v>
@@ -5517,17 +5977,23 @@
       <c r="S94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6284,14 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5830,11 +6322,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>16</v>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>16</v>
@@ -5851,17 +6343,23 @@
       <c r="S100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5892,11 +6390,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>16</v>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>16</v>
@@ -5913,17 +6411,23 @@
       <c r="S101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="T101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5954,11 +6458,11 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>16</v>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>16</v>
@@ -5975,13 +6479,19 @@
       <c r="S102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
+      <c r="T102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>165400</v>
+        <v>166700</v>
       </c>
       <c r="E8" s="3">
-        <v>259700</v>
+        <v>261700</v>
       </c>
       <c r="F8" s="3">
-        <v>196600</v>
+        <v>198100</v>
       </c>
       <c r="G8" s="3">
-        <v>295700</v>
+        <v>298000</v>
       </c>
       <c r="H8" s="3">
-        <v>232800</v>
+        <v>234500</v>
       </c>
       <c r="I8" s="3">
-        <v>263700</v>
+        <v>265700</v>
       </c>
       <c r="J8" s="3">
-        <v>119800</v>
+        <v>120800</v>
       </c>
       <c r="K8" s="3">
         <v>268200</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>127900</v>
+        <v>128900</v>
       </c>
       <c r="E9" s="3">
-        <v>204600</v>
+        <v>206200</v>
       </c>
       <c r="F9" s="3">
-        <v>155100</v>
+        <v>156300</v>
       </c>
       <c r="G9" s="3">
-        <v>226300</v>
+        <v>228000</v>
       </c>
       <c r="H9" s="3">
-        <v>193000</v>
+        <v>194400</v>
       </c>
       <c r="I9" s="3">
-        <v>226000</v>
+        <v>227700</v>
       </c>
       <c r="J9" s="3">
-        <v>97300</v>
+        <v>98100</v>
       </c>
       <c r="K9" s="3">
         <v>214800</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>37500</v>
+        <v>37800</v>
       </c>
       <c r="E10" s="3">
-        <v>55100</v>
+        <v>55500</v>
       </c>
       <c r="F10" s="3">
-        <v>41500</v>
+        <v>41800</v>
       </c>
       <c r="G10" s="3">
-        <v>69500</v>
+        <v>70000</v>
       </c>
       <c r="H10" s="3">
-        <v>39800</v>
+        <v>40100</v>
       </c>
       <c r="I10" s="3">
-        <v>37700</v>
+        <v>38000</v>
       </c>
       <c r="J10" s="3">
-        <v>22500</v>
+        <v>22700</v>
       </c>
       <c r="K10" s="3">
         <v>53400</v>
@@ -997,7 +997,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="E12" s="3">
         <v>10400</v>
@@ -1006,13 +1006,13 @@
         <v>10300</v>
       </c>
       <c r="G12" s="3">
-        <v>14600</v>
+        <v>14700</v>
       </c>
       <c r="H12" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="I12" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="J12" s="3">
         <v>9300</v>
@@ -1292,25 +1292,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>171500</v>
+        <v>172800</v>
       </c>
       <c r="E17" s="3">
-        <v>252300</v>
+        <v>254300</v>
       </c>
       <c r="F17" s="3">
-        <v>189200</v>
+        <v>190700</v>
       </c>
       <c r="G17" s="3">
-        <v>276000</v>
+        <v>278100</v>
       </c>
       <c r="H17" s="3">
-        <v>227100</v>
+        <v>228800</v>
       </c>
       <c r="I17" s="3">
-        <v>262300</v>
+        <v>264300</v>
       </c>
       <c r="J17" s="3">
-        <v>117900</v>
+        <v>118800</v>
       </c>
       <c r="K17" s="3">
         <v>253900</v>
@@ -1369,7 +1369,7 @@
         <v>7400</v>
       </c>
       <c r="G18" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="H18" s="3">
         <v>5700</v>
@@ -1658,16 +1658,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="E23" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="F23" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="G23" s="3">
-        <v>21400</v>
+        <v>21500</v>
       </c>
       <c r="H23" s="3">
         <v>7400</v>
@@ -1729,13 +1729,13 @@
         <v>-1000</v>
       </c>
       <c r="E24" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F24" s="3">
         <v>800</v>
       </c>
       <c r="G24" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="H24" s="3">
         <v>1900</v>
@@ -1868,10 +1868,10 @@
         <v>7300</v>
       </c>
       <c r="F26" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="G26" s="3">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="H26" s="3">
         <v>5500</v>
@@ -1933,19 +1933,19 @@
         <v>-4600</v>
       </c>
       <c r="E27" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="F27" s="3">
         <v>7700</v>
       </c>
       <c r="G27" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="H27" s="3">
         <v>5500</v>
       </c>
       <c r="I27" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J27" s="3">
         <v>2800</v>
@@ -2341,19 +2341,19 @@
         <v>-4600</v>
       </c>
       <c r="E33" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="F33" s="3">
         <v>7700</v>
       </c>
       <c r="G33" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="H33" s="3">
         <v>5500</v>
       </c>
       <c r="I33" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J33" s="3">
         <v>2800</v>
@@ -2477,19 +2477,19 @@
         <v>-4600</v>
       </c>
       <c r="E35" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="F35" s="3">
         <v>7700</v>
       </c>
       <c r="G35" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="H35" s="3">
         <v>5500</v>
       </c>
       <c r="I35" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J35" s="3">
         <v>2800</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>120800</v>
+        <v>121700</v>
       </c>
       <c r="E41" s="3">
-        <v>104500</v>
+        <v>105300</v>
       </c>
       <c r="F41" s="3">
-        <v>141900</v>
+        <v>143000</v>
       </c>
       <c r="G41" s="3">
-        <v>78900</v>
+        <v>79500</v>
       </c>
       <c r="H41" s="3">
-        <v>112000</v>
+        <v>112900</v>
       </c>
       <c r="I41" s="3">
-        <v>99300</v>
+        <v>100000</v>
       </c>
       <c r="J41" s="3">
-        <v>69800</v>
+        <v>70300</v>
       </c>
       <c r="K41" s="3">
         <v>149700</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>92500</v>
+        <v>93200</v>
       </c>
       <c r="E42" s="3">
-        <v>81500</v>
+        <v>82100</v>
       </c>
       <c r="F42" s="3">
-        <v>110300</v>
+        <v>111200</v>
       </c>
       <c r="G42" s="3">
-        <v>110500</v>
+        <v>111400</v>
       </c>
       <c r="H42" s="3">
-        <v>28100</v>
+        <v>28300</v>
       </c>
       <c r="I42" s="3">
-        <v>57400</v>
+        <v>57900</v>
       </c>
       <c r="J42" s="3">
-        <v>116800</v>
+        <v>117700</v>
       </c>
       <c r="K42" s="3">
         <v>57900</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>103200</v>
+        <v>104000</v>
       </c>
       <c r="E43" s="3">
-        <v>167500</v>
+        <v>168800</v>
       </c>
       <c r="F43" s="3">
-        <v>89400</v>
+        <v>90100</v>
       </c>
       <c r="G43" s="3">
-        <v>176000</v>
+        <v>177400</v>
       </c>
       <c r="H43" s="3">
-        <v>176000</v>
+        <v>177400</v>
       </c>
       <c r="I43" s="3">
-        <v>196500</v>
+        <v>198000</v>
       </c>
       <c r="J43" s="3">
-        <v>99400</v>
+        <v>100200</v>
       </c>
       <c r="K43" s="3">
         <v>161400</v>
@@ -2871,25 +2871,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>84700</v>
+        <v>85400</v>
       </c>
       <c r="E44" s="3">
-        <v>87400</v>
+        <v>88000</v>
       </c>
       <c r="F44" s="3">
-        <v>92700</v>
+        <v>93400</v>
       </c>
       <c r="G44" s="3">
-        <v>68800</v>
+        <v>69300</v>
       </c>
       <c r="H44" s="3">
-        <v>77100</v>
+        <v>77700</v>
       </c>
       <c r="I44" s="3">
-        <v>64500</v>
+        <v>65000</v>
       </c>
       <c r="J44" s="3">
-        <v>58100</v>
+        <v>58500</v>
       </c>
       <c r="K44" s="3">
         <v>64400</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29600</v>
+        <v>29900</v>
       </c>
       <c r="E45" s="3">
-        <v>28500</v>
+        <v>28700</v>
       </c>
       <c r="F45" s="3">
-        <v>27200</v>
+        <v>27400</v>
       </c>
       <c r="G45" s="3">
-        <v>24700</v>
+        <v>24900</v>
       </c>
       <c r="H45" s="3">
-        <v>28500</v>
+        <v>28800</v>
       </c>
       <c r="I45" s="3">
-        <v>20000</v>
+        <v>20100</v>
       </c>
       <c r="J45" s="3">
-        <v>14700</v>
+        <v>14900</v>
       </c>
       <c r="K45" s="3">
         <v>14300</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>430800</v>
+        <v>434100</v>
       </c>
       <c r="E46" s="3">
-        <v>469300</v>
+        <v>472900</v>
       </c>
       <c r="F46" s="3">
-        <v>461500</v>
+        <v>465000</v>
       </c>
       <c r="G46" s="3">
-        <v>459000</v>
+        <v>462500</v>
       </c>
       <c r="H46" s="3">
-        <v>421800</v>
+        <v>425100</v>
       </c>
       <c r="I46" s="3">
-        <v>437800</v>
+        <v>441100</v>
       </c>
       <c r="J46" s="3">
-        <v>358900</v>
+        <v>361700</v>
       </c>
       <c r="K46" s="3">
         <v>447700</v>
@@ -3081,19 +3081,19 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="G47" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="H47" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="I47" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="J47" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>16</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29500</v>
+        <v>29700</v>
       </c>
       <c r="E48" s="3">
-        <v>28400</v>
+        <v>28600</v>
       </c>
       <c r="F48" s="3">
-        <v>24300</v>
+        <v>24500</v>
       </c>
       <c r="G48" s="3">
-        <v>24400</v>
+        <v>24600</v>
       </c>
       <c r="H48" s="3">
-        <v>22800</v>
+        <v>23000</v>
       </c>
       <c r="I48" s="3">
-        <v>13300</v>
+        <v>13400</v>
       </c>
       <c r="J48" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="K48" s="3">
         <v>13400</v>
@@ -3424,13 +3424,13 @@
         <v>6900</v>
       </c>
       <c r="G52" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="H52" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="I52" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="J52" s="3">
         <v>4000</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>469700</v>
+        <v>473300</v>
       </c>
       <c r="E54" s="3">
-        <v>505600</v>
+        <v>509500</v>
       </c>
       <c r="F54" s="3">
-        <v>501700</v>
+        <v>505500</v>
       </c>
       <c r="G54" s="3">
-        <v>497800</v>
+        <v>501600</v>
       </c>
       <c r="H54" s="3">
-        <v>460700</v>
+        <v>464300</v>
       </c>
       <c r="I54" s="3">
-        <v>469000</v>
+        <v>472600</v>
       </c>
       <c r="J54" s="3">
-        <v>385800</v>
+        <v>388700</v>
       </c>
       <c r="K54" s="3">
         <v>465400</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>134600</v>
+        <v>135600</v>
       </c>
       <c r="E57" s="3">
-        <v>172500</v>
+        <v>173900</v>
       </c>
       <c r="F57" s="3">
-        <v>176600</v>
+        <v>178000</v>
       </c>
       <c r="G57" s="3">
-        <v>156800</v>
+        <v>158000</v>
       </c>
       <c r="H57" s="3">
-        <v>158200</v>
+        <v>159500</v>
       </c>
       <c r="I57" s="3">
-        <v>174400</v>
+        <v>175700</v>
       </c>
       <c r="J57" s="3">
-        <v>116300</v>
+        <v>117200</v>
       </c>
       <c r="K57" s="3">
         <v>160600</v>
@@ -3748,10 +3748,10 @@
         <v>7500</v>
       </c>
       <c r="G58" s="3">
-        <v>19400</v>
+        <v>19600</v>
       </c>
       <c r="H58" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="I58" s="3">
         <v>4300</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>72800</v>
+        <v>73300</v>
       </c>
       <c r="E59" s="3">
-        <v>69900</v>
+        <v>70400</v>
       </c>
       <c r="F59" s="3">
-        <v>63800</v>
+        <v>64300</v>
       </c>
       <c r="G59" s="3">
-        <v>79600</v>
+        <v>80200</v>
       </c>
       <c r="H59" s="3">
-        <v>59900</v>
+        <v>60400</v>
       </c>
       <c r="I59" s="3">
-        <v>61200</v>
+        <v>61700</v>
       </c>
       <c r="J59" s="3">
-        <v>44800</v>
+        <v>45200</v>
       </c>
       <c r="K59" s="3">
         <v>72200</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>208200</v>
+        <v>209800</v>
       </c>
       <c r="E60" s="3">
-        <v>243400</v>
+        <v>245200</v>
       </c>
       <c r="F60" s="3">
-        <v>247900</v>
+        <v>249800</v>
       </c>
       <c r="G60" s="3">
-        <v>255800</v>
+        <v>257800</v>
       </c>
       <c r="H60" s="3">
-        <v>229000</v>
+        <v>230700</v>
       </c>
       <c r="I60" s="3">
-        <v>240000</v>
+        <v>241800</v>
       </c>
       <c r="J60" s="3">
-        <v>161900</v>
+        <v>163100</v>
       </c>
       <c r="K60" s="3">
         <v>251400</v>
@@ -4014,7 +4014,7 @@
         <v>2500</v>
       </c>
       <c r="E62" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F62" s="3">
         <v>2700</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>213800</v>
+        <v>215500</v>
       </c>
       <c r="E66" s="3">
-        <v>246700</v>
+        <v>248600</v>
       </c>
       <c r="F66" s="3">
-        <v>251100</v>
+        <v>253100</v>
       </c>
       <c r="G66" s="3">
-        <v>258700</v>
+        <v>260700</v>
       </c>
       <c r="H66" s="3">
-        <v>232100</v>
+        <v>233900</v>
       </c>
       <c r="I66" s="3">
-        <v>243700</v>
+        <v>245600</v>
       </c>
       <c r="J66" s="3">
-        <v>165000</v>
+        <v>166300</v>
       </c>
       <c r="K66" s="3">
         <v>254600</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>66900</v>
+        <v>67400</v>
       </c>
       <c r="E72" s="3">
-        <v>71500</v>
+        <v>72000</v>
       </c>
       <c r="F72" s="3">
-        <v>64300</v>
+        <v>64700</v>
       </c>
       <c r="G72" s="3">
-        <v>56800</v>
+        <v>57300</v>
       </c>
       <c r="H72" s="3">
-        <v>39900</v>
+        <v>40200</v>
       </c>
       <c r="I72" s="3">
-        <v>34500</v>
+        <v>34800</v>
       </c>
       <c r="J72" s="3">
-        <v>33000</v>
+        <v>33300</v>
       </c>
       <c r="K72" s="3">
         <v>30100</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>255900</v>
+        <v>257800</v>
       </c>
       <c r="E76" s="3">
-        <v>258900</v>
+        <v>260900</v>
       </c>
       <c r="F76" s="3">
-        <v>250500</v>
+        <v>252500</v>
       </c>
       <c r="G76" s="3">
-        <v>239100</v>
+        <v>240900</v>
       </c>
       <c r="H76" s="3">
-        <v>228600</v>
+        <v>230400</v>
       </c>
       <c r="I76" s="3">
-        <v>225200</v>
+        <v>227000</v>
       </c>
       <c r="J76" s="3">
-        <v>220800</v>
+        <v>222500</v>
       </c>
       <c r="K76" s="3">
         <v>210800</v>
@@ -5133,19 +5133,19 @@
         <v>-4600</v>
       </c>
       <c r="E81" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="F81" s="3">
         <v>7700</v>
       </c>
       <c r="G81" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="H81" s="3">
         <v>5500</v>
       </c>
       <c r="I81" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J81" s="3">
         <v>2800</v>

--- a/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t>VIOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>166700</v>
+        <v>196400</v>
       </c>
       <c r="E8" s="3">
-        <v>261700</v>
+        <v>155700</v>
       </c>
       <c r="F8" s="3">
-        <v>198100</v>
+        <v>244500</v>
       </c>
       <c r="G8" s="3">
-        <v>298000</v>
+        <v>185000</v>
       </c>
       <c r="H8" s="3">
-        <v>234500</v>
+        <v>278400</v>
       </c>
       <c r="I8" s="3">
-        <v>265700</v>
+        <v>219100</v>
       </c>
       <c r="J8" s="3">
+        <v>248200</v>
+      </c>
+      <c r="K8" s="3">
         <v>120800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>268200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>164700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>181000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>102900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>138800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>79100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>101800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>47500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>58500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>31000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>40200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>19500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>17300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>128900</v>
+        <v>146100</v>
       </c>
       <c r="E9" s="3">
-        <v>206200</v>
+        <v>120400</v>
       </c>
       <c r="F9" s="3">
-        <v>156300</v>
+        <v>192600</v>
       </c>
       <c r="G9" s="3">
-        <v>228000</v>
+        <v>146000</v>
       </c>
       <c r="H9" s="3">
-        <v>194400</v>
+        <v>213000</v>
       </c>
       <c r="I9" s="3">
-        <v>227700</v>
+        <v>181600</v>
       </c>
       <c r="J9" s="3">
+        <v>212700</v>
+      </c>
+      <c r="K9" s="3">
         <v>98100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>214800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>128000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>132900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>74100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>101300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>55300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>74300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>33400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>39500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>21000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>28300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>13900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>12600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>37800</v>
+        <v>50300</v>
       </c>
       <c r="E10" s="3">
-        <v>55500</v>
+        <v>35300</v>
       </c>
       <c r="F10" s="3">
-        <v>41800</v>
+        <v>51800</v>
       </c>
       <c r="G10" s="3">
-        <v>70000</v>
+        <v>39100</v>
       </c>
       <c r="H10" s="3">
-        <v>40100</v>
+        <v>65400</v>
       </c>
       <c r="I10" s="3">
-        <v>38000</v>
+        <v>37500</v>
       </c>
       <c r="J10" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K10" s="3">
         <v>22700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>53400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>36700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>48100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>28800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>37500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>23800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>27500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>14000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>19000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>10000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>11900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>13000</v>
+        <v>14400</v>
       </c>
       <c r="E12" s="3">
-        <v>10400</v>
+        <v>12100</v>
       </c>
       <c r="F12" s="3">
-        <v>10300</v>
+        <v>9800</v>
       </c>
       <c r="G12" s="3">
-        <v>14700</v>
+        <v>9700</v>
       </c>
       <c r="H12" s="3">
-        <v>8300</v>
+        <v>13700</v>
       </c>
       <c r="I12" s="3">
-        <v>9600</v>
+        <v>7800</v>
       </c>
       <c r="J12" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K12" s="3">
         <v>9300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>172800</v>
+        <v>195100</v>
       </c>
       <c r="E17" s="3">
-        <v>254300</v>
+        <v>161400</v>
       </c>
       <c r="F17" s="3">
-        <v>190700</v>
+        <v>237500</v>
       </c>
       <c r="G17" s="3">
-        <v>278100</v>
+        <v>178100</v>
       </c>
       <c r="H17" s="3">
-        <v>228800</v>
+        <v>259800</v>
       </c>
       <c r="I17" s="3">
-        <v>264300</v>
+        <v>213700</v>
       </c>
       <c r="J17" s="3">
+        <v>246900</v>
+      </c>
+      <c r="K17" s="3">
         <v>118800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>253900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>152000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>165600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>97200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>130100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>87400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>95100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>42800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>50600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>26400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>37000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>17900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>16100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-6100</v>
+        <v>1300</v>
       </c>
       <c r="E18" s="3">
-        <v>7400</v>
+        <v>-5700</v>
       </c>
       <c r="F18" s="3">
-        <v>7400</v>
+        <v>6900</v>
       </c>
       <c r="G18" s="3">
-        <v>19900</v>
+        <v>6900</v>
       </c>
       <c r="H18" s="3">
-        <v>5700</v>
+        <v>18600</v>
       </c>
       <c r="I18" s="3">
-        <v>1400</v>
+        <v>5400</v>
       </c>
       <c r="J18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K18" s="3">
         <v>2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>15400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,58 +1480,59 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
-        <v>1300</v>
-      </c>
       <c r="F20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1200</v>
-      </c>
       <c r="J20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>200</v>
       </c>
       <c r="R20" s="3">
         <v>200</v>
       </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
@@ -1508,7 +1541,7 @@
         <v>100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1516,8 +1549,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1551,41 +1587,44 @@
       <c r="M21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" s="3">
         <v>7500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
         <v>7000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="3">
         <v>8200</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="3">
         <v>3500</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5600</v>
+        <v>3000</v>
       </c>
       <c r="E23" s="3">
-        <v>8800</v>
+        <v>-5200</v>
       </c>
       <c r="F23" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="G23" s="3">
-        <v>21500</v>
+        <v>8000</v>
       </c>
       <c r="H23" s="3">
-        <v>7400</v>
+        <v>20100</v>
       </c>
       <c r="I23" s="3">
-        <v>2600</v>
+        <v>6900</v>
       </c>
       <c r="J23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K23" s="3">
         <v>2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1000</v>
+        <v>-300</v>
       </c>
       <c r="E24" s="3">
-        <v>1500</v>
+        <v>-900</v>
       </c>
       <c r="F24" s="3">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="G24" s="3">
-        <v>4000</v>
+        <v>700</v>
       </c>
       <c r="H24" s="3">
-        <v>1900</v>
+        <v>3700</v>
       </c>
       <c r="I24" s="3">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="K24" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>1900</v>
       </c>
       <c r="M24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N24" s="3">
         <v>2200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4600</v>
+        <v>3300</v>
       </c>
       <c r="E26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>6800</v>
+      </c>
+      <c r="G26" s="3">
         <v>7300</v>
       </c>
-      <c r="F26" s="3">
-        <v>7800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>17500</v>
-      </c>
       <c r="H26" s="3">
-        <v>5500</v>
+        <v>16400</v>
       </c>
       <c r="I26" s="3">
-        <v>1600</v>
+        <v>5200</v>
       </c>
       <c r="J26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K26" s="3">
         <v>2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>13900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>13900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>600</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4600</v>
+        <v>3300</v>
       </c>
       <c r="E27" s="3">
-        <v>7300</v>
+        <v>-4300</v>
       </c>
       <c r="F27" s="3">
-        <v>7700</v>
+        <v>6800</v>
       </c>
       <c r="G27" s="3">
-        <v>17400</v>
+        <v>7200</v>
       </c>
       <c r="H27" s="3">
-        <v>5500</v>
+        <v>16300</v>
       </c>
       <c r="I27" s="3">
-        <v>1600</v>
+        <v>5100</v>
       </c>
       <c r="J27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K27" s="3">
         <v>2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>13800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>13800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2300</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,58 +2330,61 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
-        <v>-1300</v>
-      </c>
       <c r="F32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1200</v>
-      </c>
       <c r="J32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-200</v>
       </c>
       <c r="R32" s="3">
         <v>-200</v>
       </c>
       <c r="S32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
@@ -2324,7 +2393,7 @@
         <v>-100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2332,76 +2401,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4600</v>
+        <v>3300</v>
       </c>
       <c r="E33" s="3">
-        <v>7300</v>
+        <v>-4300</v>
       </c>
       <c r="F33" s="3">
-        <v>7700</v>
+        <v>6800</v>
       </c>
       <c r="G33" s="3">
-        <v>17400</v>
+        <v>7200</v>
       </c>
       <c r="H33" s="3">
-        <v>5500</v>
+        <v>16300</v>
       </c>
       <c r="I33" s="3">
-        <v>1600</v>
+        <v>5100</v>
       </c>
       <c r="J33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K33" s="3">
         <v>2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>13800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>13800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2300</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4600</v>
+        <v>3300</v>
       </c>
       <c r="E35" s="3">
-        <v>7300</v>
+        <v>-4300</v>
       </c>
       <c r="F35" s="3">
-        <v>7700</v>
+        <v>6800</v>
       </c>
       <c r="G35" s="3">
-        <v>17400</v>
+        <v>7200</v>
       </c>
       <c r="H35" s="3">
-        <v>5500</v>
+        <v>16300</v>
       </c>
       <c r="I35" s="3">
-        <v>1600</v>
+        <v>5100</v>
       </c>
       <c r="J35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K35" s="3">
         <v>2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>13800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>13800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2300</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,56 +2746,57 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>121700</v>
+        <v>86500</v>
       </c>
       <c r="E41" s="3">
-        <v>105300</v>
+        <v>113700</v>
       </c>
       <c r="F41" s="3">
-        <v>143000</v>
+        <v>98400</v>
       </c>
       <c r="G41" s="3">
-        <v>79500</v>
+        <v>133600</v>
       </c>
       <c r="H41" s="3">
-        <v>112900</v>
+        <v>74300</v>
       </c>
       <c r="I41" s="3">
-        <v>100000</v>
+        <v>105400</v>
       </c>
       <c r="J41" s="3">
+        <v>93500</v>
+      </c>
+      <c r="K41" s="3">
         <v>70300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>149700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>112000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>104200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>116200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>136600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>130600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>36900</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2729,50 +2815,53 @@
       <c r="X41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>93200</v>
+        <v>129500</v>
       </c>
       <c r="E42" s="3">
-        <v>82100</v>
+        <v>87000</v>
       </c>
       <c r="F42" s="3">
-        <v>111200</v>
+        <v>76700</v>
       </c>
       <c r="G42" s="3">
-        <v>111400</v>
+        <v>103800</v>
       </c>
       <c r="H42" s="3">
-        <v>28300</v>
+        <v>104000</v>
       </c>
       <c r="I42" s="3">
+        <v>26500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>54100</v>
+      </c>
+      <c r="K42" s="3">
+        <v>117700</v>
+      </c>
+      <c r="L42" s="3">
         <v>57900</v>
       </c>
-      <c r="J42" s="3">
-        <v>117700</v>
-      </c>
-      <c r="K42" s="3">
-        <v>57900</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>58800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>47200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>52500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>24500</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2788,8 +2877,8 @@
       <c r="U42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -2797,56 +2886,59 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>104000</v>
+        <v>104900</v>
       </c>
       <c r="E43" s="3">
-        <v>168800</v>
+        <v>97100</v>
       </c>
       <c r="F43" s="3">
-        <v>90100</v>
+        <v>157600</v>
       </c>
       <c r="G43" s="3">
-        <v>177400</v>
+        <v>84200</v>
       </c>
       <c r="H43" s="3">
-        <v>177400</v>
+        <v>165700</v>
       </c>
       <c r="I43" s="3">
-        <v>198000</v>
+        <v>165700</v>
       </c>
       <c r="J43" s="3">
+        <v>185000</v>
+      </c>
+      <c r="K43" s="3">
         <v>100200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>161400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>127000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>120000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>55500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>70400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>54300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>68000</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2865,56 +2957,59 @@
       <c r="X43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>85400</v>
+        <v>84900</v>
       </c>
       <c r="E44" s="3">
-        <v>88000</v>
+        <v>79700</v>
       </c>
       <c r="F44" s="3">
-        <v>93400</v>
+        <v>82200</v>
       </c>
       <c r="G44" s="3">
-        <v>69300</v>
+        <v>87200</v>
       </c>
       <c r="H44" s="3">
-        <v>77700</v>
+        <v>64700</v>
       </c>
       <c r="I44" s="3">
-        <v>65000</v>
+        <v>72600</v>
       </c>
       <c r="J44" s="3">
+        <v>60700</v>
+      </c>
+      <c r="K44" s="3">
         <v>58500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>64400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>69700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>65600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>45400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>33700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>28100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>23900</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>16</v>
       </c>
@@ -2933,56 +3028,59 @@
       <c r="X44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29900</v>
+        <v>28300</v>
       </c>
       <c r="E45" s="3">
-        <v>28700</v>
+        <v>27900</v>
       </c>
       <c r="F45" s="3">
-        <v>27400</v>
+        <v>26800</v>
       </c>
       <c r="G45" s="3">
-        <v>24900</v>
+        <v>25600</v>
       </c>
       <c r="H45" s="3">
-        <v>28800</v>
+        <v>23300</v>
       </c>
       <c r="I45" s="3">
-        <v>20100</v>
+        <v>26900</v>
       </c>
       <c r="J45" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K45" s="3">
         <v>14900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>15100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3001,8 +3099,11 @@
       <c r="X45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3010,47 +3111,47 @@
         <v>434100</v>
       </c>
       <c r="E46" s="3">
-        <v>472900</v>
+        <v>405500</v>
       </c>
       <c r="F46" s="3">
-        <v>465000</v>
+        <v>441700</v>
       </c>
       <c r="G46" s="3">
-        <v>462500</v>
+        <v>434300</v>
       </c>
       <c r="H46" s="3">
-        <v>425100</v>
+        <v>432000</v>
       </c>
       <c r="I46" s="3">
-        <v>441100</v>
+        <v>397000</v>
       </c>
       <c r="J46" s="3">
+        <v>412000</v>
+      </c>
+      <c r="K46" s="3">
         <v>361700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>447700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>375300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>346400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>282800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>276300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>225600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>143900</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3069,35 +3170,38 @@
       <c r="X46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="H47" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I47" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K47" s="3">
         <v>9500</v>
       </c>
-      <c r="I47" s="3">
-        <v>9500</v>
-      </c>
-      <c r="J47" s="3">
-        <v>9500</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3113,8 +3217,8 @@
       <c r="P47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3137,56 +3241,59 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29700</v>
+        <v>33300</v>
       </c>
       <c r="E48" s="3">
-        <v>28600</v>
+        <v>27800</v>
       </c>
       <c r="F48" s="3">
-        <v>24500</v>
+        <v>26700</v>
       </c>
       <c r="G48" s="3">
-        <v>24600</v>
+        <v>22900</v>
       </c>
       <c r="H48" s="3">
         <v>23000</v>
       </c>
       <c r="I48" s="3">
+        <v>21500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K48" s="3">
+        <v>12700</v>
+      </c>
+      <c r="L48" s="3">
         <v>13400</v>
       </c>
-      <c r="J48" s="3">
-        <v>12700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>13400</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>500</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3205,37 +3312,40 @@
       <c r="X48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="E49" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F49" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G49" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H49" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>800</v>
+      </c>
+      <c r="K49" s="3">
         <v>900</v>
       </c>
-      <c r="J49" s="3">
-        <v>900</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>700</v>
-      </c>
-      <c r="L49" s="3">
-        <v>400</v>
       </c>
       <c r="M49" s="3">
         <v>400</v>
@@ -3244,13 +3354,13 @@
         <v>400</v>
       </c>
       <c r="O49" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>16</v>
+      <c r="Q49" s="3">
+        <v>0</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>16</v>
@@ -3264,8 +3374,8 @@
       <c r="U49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,55 +3525,58 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7800</v>
+        <v>9200</v>
       </c>
       <c r="E52" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F52" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G52" s="3">
         <v>6500</v>
       </c>
-      <c r="F52" s="3">
-        <v>6900</v>
-      </c>
-      <c r="G52" s="3">
-        <v>5400</v>
-      </c>
       <c r="H52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M52" s="3">
+        <v>5100</v>
+      </c>
+      <c r="N52" s="3">
         <v>5600</v>
       </c>
-      <c r="I52" s="3">
-        <v>7700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>4000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>3600</v>
-      </c>
-      <c r="L52" s="3">
-        <v>5100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>5600</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1300</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1500</v>
       </c>
       <c r="Q52" s="3">
         <v>1500</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>16</v>
+      <c r="R52" s="3">
+        <v>1500</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>16</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,56 +3667,59 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>473300</v>
+        <v>482900</v>
       </c>
       <c r="E54" s="3">
-        <v>509500</v>
+        <v>442100</v>
       </c>
       <c r="F54" s="3">
-        <v>505500</v>
+        <v>475900</v>
       </c>
       <c r="G54" s="3">
-        <v>501600</v>
+        <v>472200</v>
       </c>
       <c r="H54" s="3">
-        <v>464300</v>
+        <v>468500</v>
       </c>
       <c r="I54" s="3">
-        <v>472600</v>
+        <v>433600</v>
       </c>
       <c r="J54" s="3">
+        <v>441400</v>
+      </c>
+      <c r="K54" s="3">
         <v>388700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>465400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>389600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>359800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>289700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>279300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>227500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>145900</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,56 +3794,57 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>135600</v>
+        <v>157500</v>
       </c>
       <c r="E57" s="3">
-        <v>173900</v>
+        <v>126700</v>
       </c>
       <c r="F57" s="3">
-        <v>178000</v>
+        <v>162400</v>
       </c>
       <c r="G57" s="3">
-        <v>158000</v>
+        <v>166200</v>
       </c>
       <c r="H57" s="3">
-        <v>159500</v>
+        <v>147600</v>
       </c>
       <c r="I57" s="3">
-        <v>175700</v>
+        <v>148900</v>
       </c>
       <c r="J57" s="3">
+        <v>164200</v>
+      </c>
+      <c r="K57" s="3">
         <v>117200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>160600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>117100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>108000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>79300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>79700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>58100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>71500</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3733,56 +3863,59 @@
       <c r="X57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
-        <v>900</v>
-      </c>
-      <c r="F58" s="3">
-        <v>7500</v>
-      </c>
       <c r="G58" s="3">
-        <v>19600</v>
+        <v>7100</v>
       </c>
       <c r="H58" s="3">
-        <v>10900</v>
+        <v>18300</v>
       </c>
       <c r="I58" s="3">
-        <v>4300</v>
+        <v>10200</v>
       </c>
       <c r="J58" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>18600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3801,56 +3934,59 @@
       <c r="X58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>73300</v>
+        <v>76600</v>
       </c>
       <c r="E59" s="3">
-        <v>70400</v>
+        <v>68500</v>
       </c>
       <c r="F59" s="3">
-        <v>64300</v>
+        <v>65800</v>
       </c>
       <c r="G59" s="3">
-        <v>80200</v>
+        <v>60000</v>
       </c>
       <c r="H59" s="3">
-        <v>60400</v>
+        <v>74900</v>
       </c>
       <c r="I59" s="3">
-        <v>61700</v>
+        <v>56400</v>
       </c>
       <c r="J59" s="3">
+        <v>57600</v>
+      </c>
+      <c r="K59" s="3">
         <v>45200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>72200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>57000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>50300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>46500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>43200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>28200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>28100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3869,56 +4005,59 @@
       <c r="X59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>209800</v>
+        <v>235000</v>
       </c>
       <c r="E60" s="3">
-        <v>245200</v>
+        <v>196000</v>
       </c>
       <c r="F60" s="3">
-        <v>249800</v>
+        <v>229100</v>
       </c>
       <c r="G60" s="3">
-        <v>257800</v>
+        <v>233300</v>
       </c>
       <c r="H60" s="3">
-        <v>230700</v>
+        <v>240800</v>
       </c>
       <c r="I60" s="3">
-        <v>241800</v>
+        <v>215500</v>
       </c>
       <c r="J60" s="3">
+        <v>225900</v>
+      </c>
+      <c r="K60" s="3">
         <v>163100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>251400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>190100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>173500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>126200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>123700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>86600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>100000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3937,16 +4076,19 @@
       <c r="X60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4005,55 +4147,58 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G62" s="3">
         <v>2500</v>
       </c>
-      <c r="E62" s="3">
-        <v>2800</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J62" s="3">
         <v>2700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2300</v>
       </c>
       <c r="K62" s="3">
         <v>2300</v>
       </c>
       <c r="L62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M62" s="3">
         <v>2000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>16</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>16</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,56 +4431,59 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>215500</v>
+        <v>240100</v>
       </c>
       <c r="E66" s="3">
-        <v>248600</v>
+        <v>201300</v>
       </c>
       <c r="F66" s="3">
-        <v>253100</v>
+        <v>232200</v>
       </c>
       <c r="G66" s="3">
-        <v>260700</v>
+        <v>236400</v>
       </c>
       <c r="H66" s="3">
-        <v>233900</v>
+        <v>243500</v>
       </c>
       <c r="I66" s="3">
-        <v>245600</v>
+        <v>218500</v>
       </c>
       <c r="J66" s="3">
+        <v>229400</v>
+      </c>
+      <c r="K66" s="3">
         <v>166300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>254600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>192900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>176800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>128400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>124200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>87000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>100100</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4345,8 +4502,11 @@
       <c r="X66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4552,11 +4719,11 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>22600</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,56 +4813,59 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>67400</v>
+        <v>66300</v>
       </c>
       <c r="E72" s="3">
-        <v>72000</v>
+        <v>63000</v>
       </c>
       <c r="F72" s="3">
-        <v>64700</v>
+        <v>67300</v>
       </c>
       <c r="G72" s="3">
-        <v>57300</v>
+        <v>60500</v>
       </c>
       <c r="H72" s="3">
-        <v>40200</v>
+        <v>53500</v>
       </c>
       <c r="I72" s="3">
-        <v>34800</v>
+        <v>37600</v>
       </c>
       <c r="J72" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K72" s="3">
         <v>33300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>30100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4711,8 +4884,11 @@
       <c r="X72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,56 +5097,59 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>257800</v>
+        <v>242800</v>
       </c>
       <c r="E76" s="3">
-        <v>260900</v>
+        <v>240800</v>
       </c>
       <c r="F76" s="3">
-        <v>252500</v>
+        <v>243700</v>
       </c>
       <c r="G76" s="3">
-        <v>240900</v>
+        <v>235800</v>
       </c>
       <c r="H76" s="3">
-        <v>230400</v>
+        <v>225000</v>
       </c>
       <c r="I76" s="3">
-        <v>227000</v>
+        <v>215200</v>
       </c>
       <c r="J76" s="3">
+        <v>212000</v>
+      </c>
+      <c r="K76" s="3">
         <v>222500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>210800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>196800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>183000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>161300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>155100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>140500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23200</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4983,8 +5168,11 @@
       <c r="X76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4600</v>
+        <v>3300</v>
       </c>
       <c r="E81" s="3">
-        <v>7300</v>
+        <v>-4300</v>
       </c>
       <c r="F81" s="3">
-        <v>7700</v>
+        <v>6800</v>
       </c>
       <c r="G81" s="3">
-        <v>17400</v>
+        <v>7200</v>
       </c>
       <c r="H81" s="3">
-        <v>5500</v>
+        <v>16300</v>
       </c>
       <c r="I81" s="3">
-        <v>1600</v>
+        <v>5100</v>
       </c>
       <c r="J81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K81" s="3">
         <v>2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>13800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>13800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2300</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5256,8 +5454,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>16</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>16</v>
@@ -5277,8 +5475,8 @@
       <c r="U83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5664,8 +5880,8 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>16</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>16</v>
@@ -5685,8 +5901,8 @@
       <c r="U89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
+      <c r="V89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5758,8 +5978,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>16</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>16</v>
@@ -5779,8 +5999,8 @@
       <c r="U91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5962,8 +6191,8 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>16</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>16</v>
@@ -5983,8 +6212,8 @@
       <c r="U94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6328,8 +6573,8 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>16</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>16</v>
@@ -6349,8 +6594,8 @@
       <c r="U100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
+      <c r="V100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6396,8 +6644,8 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>16</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>16</v>
@@ -6417,8 +6665,8 @@
       <c r="U101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6464,8 +6715,8 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>16</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>16</v>
@@ -6485,13 +6736,16 @@
       <c r="U102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
+      <c r="V102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
   <si>
     <t>VIOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>196400</v>
+        <v>135000</v>
       </c>
       <c r="E8" s="3">
-        <v>155700</v>
+        <v>104000</v>
       </c>
       <c r="F8" s="3">
-        <v>244500</v>
+        <v>194600</v>
       </c>
       <c r="G8" s="3">
-        <v>185000</v>
+        <v>154300</v>
       </c>
       <c r="H8" s="3">
-        <v>278400</v>
+        <v>242200</v>
       </c>
       <c r="I8" s="3">
+        <v>183400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>275900</v>
+      </c>
+      <c r="K8" s="3">
         <v>219100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>248200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>120800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>268200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>164700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>181000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>102900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>138800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>79100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>101800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>47500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>58500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>31000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>40200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>19500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>17300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>146100</v>
+        <v>105100</v>
       </c>
       <c r="E9" s="3">
-        <v>120400</v>
+        <v>76700</v>
       </c>
       <c r="F9" s="3">
-        <v>192600</v>
+        <v>144800</v>
       </c>
       <c r="G9" s="3">
-        <v>146000</v>
+        <v>119300</v>
       </c>
       <c r="H9" s="3">
-        <v>213000</v>
+        <v>190900</v>
       </c>
       <c r="I9" s="3">
+        <v>144700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>211000</v>
+      </c>
+      <c r="K9" s="3">
         <v>181600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>212700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>98100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>214800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>128000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>132900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>74100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>101300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>55300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>74300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>33400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>39500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>21000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>28300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>13900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>12600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>50300</v>
+        <v>29900</v>
       </c>
       <c r="E10" s="3">
-        <v>35300</v>
+        <v>27300</v>
       </c>
       <c r="F10" s="3">
-        <v>51800</v>
+        <v>49900</v>
       </c>
       <c r="G10" s="3">
-        <v>39100</v>
+        <v>35000</v>
       </c>
       <c r="H10" s="3">
-        <v>65400</v>
+        <v>51400</v>
       </c>
       <c r="I10" s="3">
+        <v>38700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>64800</v>
+      </c>
+      <c r="K10" s="3">
         <v>37500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>35500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>22700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>53400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>36700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>48100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>28800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>37500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>23800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>27500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>14000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>19000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>10000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>11900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>5600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>4800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1030,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14400</v>
+        <v>11600</v>
       </c>
       <c r="E12" s="3">
-        <v>12100</v>
+        <v>11500</v>
       </c>
       <c r="F12" s="3">
-        <v>9800</v>
+        <v>14300</v>
       </c>
       <c r="G12" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H12" s="3">
         <v>9700</v>
       </c>
-      <c r="H12" s="3">
-        <v>13700</v>
-      </c>
       <c r="I12" s="3">
+        <v>9600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K12" s="3">
         <v>7800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>8900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>9300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>10100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>6600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>9300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>5600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>6100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>4700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>4000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>3000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>3800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>1900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>3300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>1100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>1300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>195100</v>
+        <v>143100</v>
       </c>
       <c r="E17" s="3">
-        <v>161400</v>
+        <v>113500</v>
       </c>
       <c r="F17" s="3">
-        <v>237500</v>
+        <v>193300</v>
       </c>
       <c r="G17" s="3">
-        <v>178100</v>
+        <v>159900</v>
       </c>
       <c r="H17" s="3">
-        <v>259800</v>
+        <v>235400</v>
       </c>
       <c r="I17" s="3">
+        <v>176500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>257400</v>
+      </c>
+      <c r="K17" s="3">
         <v>213700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>246900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>118800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>253900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>152000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>165600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>97200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>130100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>87400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>95100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>42800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>50600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>26400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>37000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>17900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>16100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F18" s="3">
         <v>1300</v>
       </c>
-      <c r="E18" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="H18" s="3">
         <v>6900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>6900</v>
       </c>
-      <c r="H18" s="3">
-        <v>18600</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K18" s="3">
         <v>5400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>14300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>12700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>15400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>8700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-8300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>6700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>4700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>7900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>4600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>3200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>1500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>1200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,79 +1547,87 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="M20" s="3">
+        <v>900</v>
+      </c>
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>900</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
+        <v>500</v>
+      </c>
+      <c r="P20" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
-        <v>700</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="P20" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
-      </c>
-      <c r="T20" s="3">
-        <v>100</v>
-      </c>
-      <c r="U20" s="3">
-        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1590,41 +1664,47 @@
       <c r="N21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>7500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>9600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="3">
         <v>7000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="3">
         <v>8200</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="3">
         <v>3500</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,129 +1774,141 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3000</v>
+        <v>-7900</v>
       </c>
       <c r="E23" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G23" s="3">
         <v>-5200</v>
       </c>
-      <c r="F23" s="3">
-        <v>8200</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="L23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N23" s="3">
+        <v>15800</v>
+      </c>
+      <c r="O23" s="3">
+        <v>13200</v>
+      </c>
+      <c r="P23" s="3">
+        <v>16100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>7200</v>
+      </c>
+      <c r="R23" s="3">
+        <v>9300</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="T23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="U23" s="3">
+        <v>4900</v>
+      </c>
+      <c r="V23" s="3">
         <v>8000</v>
       </c>
-      <c r="H23" s="3">
-        <v>20100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>6900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>2800</v>
-      </c>
-      <c r="L23" s="3">
-        <v>15800</v>
-      </c>
-      <c r="M23" s="3">
-        <v>13200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>16100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>7200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>9300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="R23" s="3">
-        <v>6900</v>
-      </c>
-      <c r="S23" s="3">
-        <v>4900</v>
-      </c>
-      <c r="T23" s="3">
-        <v>8000</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>4700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>3300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>1600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>1200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-900</v>
       </c>
-      <c r="F24" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>3700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>2200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
-      </c>
-      <c r="R24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="S24" s="3">
-        <v>700</v>
       </c>
       <c r="T24" s="3">
         <v>1000</v>
@@ -1825,19 +1917,25 @@
         <v>700</v>
       </c>
       <c r="V24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W24" s="3">
+        <v>700</v>
+      </c>
+      <c r="X24" s="3">
         <v>500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3300</v>
+        <v>-6300</v>
       </c>
       <c r="E26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-4300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>6800</v>
       </c>
-      <c r="G26" s="3">
-        <v>7300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>16400</v>
-      </c>
       <c r="I26" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K26" s="3">
         <v>5200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2800</v>
-      </c>
-      <c r="L26" s="3">
-        <v>13900</v>
-      </c>
-      <c r="M26" s="3">
-        <v>11300</v>
       </c>
       <c r="N26" s="3">
         <v>13900</v>
       </c>
       <c r="O26" s="3">
+        <v>11300</v>
+      </c>
+      <c r="P26" s="3">
+        <v>13900</v>
+      </c>
+      <c r="Q26" s="3">
         <v>6300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>8000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-8400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>5900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>4200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>7000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>4100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>2800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>1300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>600</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F27" s="3">
         <v>3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4300</v>
       </c>
-      <c r="F27" s="3">
-        <v>6800</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I27" s="3">
         <v>7200</v>
       </c>
-      <c r="H27" s="3">
-        <v>16300</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K27" s="3">
         <v>5100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2800</v>
-      </c>
-      <c r="L27" s="3">
-        <v>13800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>11200</v>
       </c>
       <c r="N27" s="3">
         <v>13800</v>
       </c>
       <c r="O27" s="3">
+        <v>11200</v>
+      </c>
+      <c r="P27" s="3">
+        <v>13800</v>
+      </c>
+      <c r="Q27" s="3">
         <v>6300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>8000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-9100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>1300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="M32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F33" s="3">
         <v>3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4300</v>
       </c>
-      <c r="F33" s="3">
-        <v>6800</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I33" s="3">
         <v>7200</v>
       </c>
-      <c r="H33" s="3">
-        <v>16300</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K33" s="3">
         <v>5100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>13800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>11200</v>
       </c>
       <c r="N33" s="3">
         <v>13800</v>
       </c>
       <c r="O33" s="3">
+        <v>11200</v>
+      </c>
+      <c r="P33" s="3">
+        <v>13800</v>
+      </c>
+      <c r="Q33" s="3">
         <v>6300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>8000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-9100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>1300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F35" s="3">
         <v>3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4300</v>
       </c>
-      <c r="F35" s="3">
-        <v>6800</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I35" s="3">
         <v>7200</v>
       </c>
-      <c r="H35" s="3">
-        <v>16300</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K35" s="3">
         <v>5100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>13800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>11200</v>
       </c>
       <c r="N35" s="3">
         <v>13800</v>
       </c>
       <c r="O35" s="3">
+        <v>11200</v>
+      </c>
+      <c r="P35" s="3">
+        <v>13800</v>
+      </c>
+      <c r="Q35" s="3">
         <v>6300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>8000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-9100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>1300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,62 +2919,64 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>86500</v>
+        <v>119200</v>
       </c>
       <c r="E41" s="3">
-        <v>113700</v>
+        <v>126800</v>
       </c>
       <c r="F41" s="3">
-        <v>98400</v>
+        <v>85700</v>
       </c>
       <c r="G41" s="3">
-        <v>133600</v>
+        <v>112700</v>
       </c>
       <c r="H41" s="3">
-        <v>74300</v>
+        <v>97500</v>
       </c>
       <c r="I41" s="3">
+        <v>132400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>73600</v>
+      </c>
+      <c r="K41" s="3">
         <v>105400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>93500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>70300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>149700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>112000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>104200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>116200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>136600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>130600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>36900</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2818,56 +2992,62 @@
       <c r="Y41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>129500</v>
+        <v>36100</v>
       </c>
       <c r="E42" s="3">
-        <v>87000</v>
+        <v>64500</v>
       </c>
       <c r="F42" s="3">
-        <v>76700</v>
+        <v>128300</v>
       </c>
       <c r="G42" s="3">
-        <v>103800</v>
+        <v>86200</v>
       </c>
       <c r="H42" s="3">
-        <v>104000</v>
+        <v>76000</v>
       </c>
       <c r="I42" s="3">
+        <v>102900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>103100</v>
+      </c>
+      <c r="K42" s="3">
         <v>26500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>54100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>117700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>57900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>58800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>47200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>52500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>24500</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2880,71 +3060,77 @@
       <c r="V42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>104900</v>
+        <v>111100</v>
       </c>
       <c r="E43" s="3">
-        <v>97100</v>
+        <v>69400</v>
       </c>
       <c r="F43" s="3">
-        <v>157600</v>
+        <v>103900</v>
       </c>
       <c r="G43" s="3">
-        <v>84200</v>
+        <v>96200</v>
       </c>
       <c r="H43" s="3">
+        <v>156200</v>
+      </c>
+      <c r="I43" s="3">
+        <v>83400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>164200</v>
+      </c>
+      <c r="K43" s="3">
         <v>165700</v>
       </c>
-      <c r="I43" s="3">
-        <v>165700</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>185000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>100200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>161400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>127000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>120000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>55500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>70400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>54300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>68000</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2960,62 +3146,68 @@
       <c r="Y43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>84900</v>
+        <v>81100</v>
       </c>
       <c r="E44" s="3">
-        <v>79700</v>
+        <v>92100</v>
       </c>
       <c r="F44" s="3">
-        <v>82200</v>
+        <v>84200</v>
       </c>
       <c r="G44" s="3">
-        <v>87200</v>
+        <v>79000</v>
       </c>
       <c r="H44" s="3">
-        <v>64700</v>
+        <v>81500</v>
       </c>
       <c r="I44" s="3">
+        <v>86500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>64200</v>
+      </c>
+      <c r="K44" s="3">
         <v>72600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>60700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>58500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>64400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>69700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>65600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>45400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>33700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>28100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>23900</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>16</v>
       </c>
@@ -3031,62 +3223,68 @@
       <c r="Y44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28300</v>
+        <v>33900</v>
       </c>
       <c r="E45" s="3">
-        <v>27900</v>
+        <v>38900</v>
       </c>
       <c r="F45" s="3">
-        <v>26800</v>
+        <v>28000</v>
       </c>
       <c r="G45" s="3">
-        <v>25600</v>
+        <v>27600</v>
       </c>
       <c r="H45" s="3">
-        <v>23300</v>
+        <v>26500</v>
       </c>
       <c r="I45" s="3">
+        <v>25300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K45" s="3">
         <v>26900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>18800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>14900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>14300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>7800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>9500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>13200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>11100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>12500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>15100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3102,62 +3300,68 @@
       <c r="Y45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>434100</v>
+        <v>381400</v>
       </c>
       <c r="E46" s="3">
-        <v>405500</v>
+        <v>391800</v>
       </c>
       <c r="F46" s="3">
-        <v>441700</v>
+        <v>430200</v>
       </c>
       <c r="G46" s="3">
-        <v>434300</v>
+        <v>401800</v>
       </c>
       <c r="H46" s="3">
-        <v>432000</v>
+        <v>437700</v>
       </c>
       <c r="I46" s="3">
+        <v>430400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>428100</v>
+      </c>
+      <c r="K46" s="3">
         <v>397000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>412000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>361700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>447700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>375300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>346400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>282800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>276300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>225600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>143900</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3173,8 +3377,14 @@
       <c r="Y46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3182,32 +3392,32 @@
         <v>4400</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="G47" s="3">
-        <v>7400</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>7400</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K47" s="3">
         <v>8800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>8800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>9500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3220,11 +3430,11 @@
       <c r="Q47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3244,62 +3454,68 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33300</v>
+        <v>40200</v>
       </c>
       <c r="E48" s="3">
-        <v>27800</v>
+        <v>36200</v>
       </c>
       <c r="F48" s="3">
-        <v>26700</v>
+        <v>33000</v>
       </c>
       <c r="G48" s="3">
-        <v>22900</v>
+        <v>27500</v>
       </c>
       <c r="H48" s="3">
-        <v>23000</v>
+        <v>26500</v>
       </c>
       <c r="I48" s="3">
+        <v>22700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K48" s="3">
         <v>21500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>12500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>12700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>13400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>8900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>7400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>5000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>500</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3315,8 +3531,14 @@
       <c r="Y48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3324,49 +3546,49 @@
         <v>1800</v>
       </c>
       <c r="E49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G49" s="3">
         <v>1500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1300</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1100</v>
       </c>
       <c r="I49" s="3">
         <v>1100</v>
       </c>
       <c r="J49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L49" s="3">
         <v>800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>700</v>
-      </c>
-      <c r="M49" s="3">
-        <v>400</v>
-      </c>
-      <c r="N49" s="3">
-        <v>400</v>
       </c>
       <c r="O49" s="3">
         <v>400</v>
       </c>
       <c r="P49" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>16</v>
+        <v>400</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>16</v>
@@ -3377,17 +3599,23 @@
       <c r="V49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
-      </c>
-      <c r="X49" s="3">
-        <v>0</v>
+      <c r="W49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,61 +3762,67 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9200</v>
+        <v>12700</v>
       </c>
       <c r="E52" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F52" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G52" s="3">
         <v>7300</v>
       </c>
-      <c r="F52" s="3">
-        <v>6100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>6500</v>
-      </c>
       <c r="H52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J52" s="3">
         <v>5000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>5200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>7200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>5100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5600</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1500</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1300</v>
       </c>
       <c r="Q52" s="3">
         <v>1500</v>
       </c>
       <c r="R52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S52" s="3">
         <v>1500</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>16</v>
+      <c r="T52" s="3">
+        <v>1500</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>16</v>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,62 +3916,68 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>482900</v>
+        <v>440500</v>
       </c>
       <c r="E54" s="3">
-        <v>442100</v>
+        <v>445200</v>
       </c>
       <c r="F54" s="3">
-        <v>475900</v>
+        <v>478500</v>
       </c>
       <c r="G54" s="3">
-        <v>472200</v>
+        <v>438100</v>
       </c>
       <c r="H54" s="3">
-        <v>468500</v>
+        <v>471600</v>
       </c>
       <c r="I54" s="3">
+        <v>467900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>464300</v>
+      </c>
+      <c r="K54" s="3">
         <v>433600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>441400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>388700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>465400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>389600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>359800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>289700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>279300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>227500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>145900</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3741,8 +3993,14 @@
       <c r="Y54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,62 +4055,64 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>157500</v>
+        <v>126400</v>
       </c>
       <c r="E57" s="3">
-        <v>126700</v>
+        <v>135700</v>
       </c>
       <c r="F57" s="3">
-        <v>162400</v>
+        <v>156100</v>
       </c>
       <c r="G57" s="3">
-        <v>166200</v>
+        <v>125500</v>
       </c>
       <c r="H57" s="3">
-        <v>147600</v>
+        <v>160900</v>
       </c>
       <c r="I57" s="3">
+        <v>164700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>146200</v>
+      </c>
+      <c r="K57" s="3">
         <v>148900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>164200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>117200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>160600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>117100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>108000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>79300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>79700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>58100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>71500</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>16</v>
       </c>
@@ -3866,62 +4128,68 @@
       <c r="Y57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="E58" s="3">
         <v>800</v>
       </c>
       <c r="F58" s="3">
+        <v>800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>800</v>
+      </c>
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
-        <v>7100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>18300</v>
-      </c>
       <c r="I58" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>18100</v>
+      </c>
+      <c r="K58" s="3">
         <v>10200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>18600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>15900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>15200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>16</v>
       </c>
@@ -3937,62 +4205,68 @@
       <c r="Y58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>76600</v>
+        <v>64300</v>
       </c>
       <c r="E59" s="3">
-        <v>68500</v>
+        <v>62200</v>
       </c>
       <c r="F59" s="3">
-        <v>65800</v>
+        <v>75900</v>
       </c>
       <c r="G59" s="3">
-        <v>60000</v>
+        <v>67900</v>
       </c>
       <c r="H59" s="3">
-        <v>74900</v>
+        <v>65200</v>
       </c>
       <c r="I59" s="3">
+        <v>59500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>74300</v>
+      </c>
+      <c r="K59" s="3">
         <v>56400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>57600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>45200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>72200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>57000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>50300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>46500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>43200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>28200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>28100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4008,62 +4282,68 @@
       <c r="Y59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>235000</v>
+        <v>192500</v>
       </c>
       <c r="E60" s="3">
-        <v>196000</v>
+        <v>198600</v>
       </c>
       <c r="F60" s="3">
-        <v>229100</v>
+        <v>232800</v>
       </c>
       <c r="G60" s="3">
-        <v>233300</v>
+        <v>194200</v>
       </c>
       <c r="H60" s="3">
-        <v>240800</v>
+        <v>227000</v>
       </c>
       <c r="I60" s="3">
+        <v>231200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>238600</v>
+      </c>
+      <c r="K60" s="3">
         <v>215500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>225900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>163100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>251400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>190100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>173500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>126200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>123700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>86600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>100000</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4079,23 +4359,29 @@
       <c r="Y60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F61" s="3">
         <v>2400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -4150,61 +4436,67 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F62" s="3">
         <v>2200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>16</v>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>16</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,62 +4744,68 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>240100</v>
+        <v>207800</v>
       </c>
       <c r="E66" s="3">
-        <v>201300</v>
+        <v>210600</v>
       </c>
       <c r="F66" s="3">
-        <v>232200</v>
+        <v>237900</v>
       </c>
       <c r="G66" s="3">
-        <v>236400</v>
+        <v>199500</v>
       </c>
       <c r="H66" s="3">
-        <v>243500</v>
+        <v>230100</v>
       </c>
       <c r="I66" s="3">
+        <v>234200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>241300</v>
+      </c>
+      <c r="K66" s="3">
         <v>218500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>229400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>166300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>254600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>192900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>176800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>128400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>124200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>87000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>100100</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4505,8 +4821,14 @@
       <c r="Y66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4722,14 +5058,14 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>22600</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,62 +5158,68 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>66300</v>
+        <v>52600</v>
       </c>
       <c r="E72" s="3">
-        <v>63000</v>
+        <v>58400</v>
       </c>
       <c r="F72" s="3">
-        <v>67300</v>
+        <v>65700</v>
       </c>
       <c r="G72" s="3">
-        <v>60500</v>
+        <v>62400</v>
       </c>
       <c r="H72" s="3">
-        <v>53500</v>
+        <v>66700</v>
       </c>
       <c r="I72" s="3">
+        <v>59900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>53000</v>
+      </c>
+      <c r="K72" s="3">
         <v>37600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>32500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>33300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>30100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>16500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>5300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-8300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-13900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-21100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-13000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4887,8 +5235,14 @@
       <c r="Y72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,62 +5466,68 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>242800</v>
+        <v>232700</v>
       </c>
       <c r="E76" s="3">
-        <v>240800</v>
+        <v>234500</v>
       </c>
       <c r="F76" s="3">
-        <v>243700</v>
+        <v>240600</v>
       </c>
       <c r="G76" s="3">
-        <v>235800</v>
+        <v>238700</v>
       </c>
       <c r="H76" s="3">
-        <v>225000</v>
+        <v>241500</v>
       </c>
       <c r="I76" s="3">
+        <v>233700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>223000</v>
+      </c>
+      <c r="K76" s="3">
         <v>215200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>212000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>222500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>210800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>196800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>183000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>161300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>155100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>140500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>23200</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5171,8 +5543,14 @@
       <c r="Y76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F81" s="3">
         <v>3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4300</v>
       </c>
-      <c r="F81" s="3">
-        <v>6800</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I81" s="3">
         <v>7200</v>
       </c>
-      <c r="H81" s="3">
-        <v>16300</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K81" s="3">
         <v>5100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>13800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>11200</v>
       </c>
       <c r="N81" s="3">
         <v>13800</v>
       </c>
       <c r="O81" s="3">
+        <v>11200</v>
+      </c>
+      <c r="P81" s="3">
+        <v>13800</v>
+      </c>
+      <c r="Q81" s="3">
         <v>6300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>8000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-9100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>1300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5457,11 +5855,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>16</v>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>16</v>
@@ -5478,17 +5876,23 @@
       <c r="V83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
-      <c r="X83" s="3">
-        <v>0</v>
+      <c r="W83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6270,14 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5883,11 +6317,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>16</v>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>16</v>
@@ -5904,17 +6338,23 @@
       <c r="V89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3">
-        <v>0</v>
+      <c r="W89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5981,11 +6423,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>16</v>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>16</v>
@@ -6002,17 +6444,23 @@
       <c r="V91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6194,11 +6654,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>16</v>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>16</v>
@@ -6215,17 +6675,23 @@
       <c r="V94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="W94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6576,11 +7068,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>16</v>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>16</v>
@@ -6597,17 +7089,23 @@
       <c r="V100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
-        <v>0</v>
+      <c r="W100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6647,11 +7145,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>16</v>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>16</v>
@@ -6668,17 +7166,23 @@
       <c r="V101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-      <c r="X101" s="3">
-        <v>0</v>
+      <c r="W101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6718,11 +7222,11 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>16</v>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>16</v>
@@ -6739,13 +7243,19 @@
       <c r="V102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3">
-        <v>0</v>
+      <c r="W102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
@@ -778,25 +778,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>135000</v>
+        <v>128600</v>
       </c>
       <c r="E8" s="3">
-        <v>104000</v>
+        <v>99100</v>
       </c>
       <c r="F8" s="3">
-        <v>194600</v>
+        <v>185500</v>
       </c>
       <c r="G8" s="3">
-        <v>154300</v>
+        <v>147100</v>
       </c>
       <c r="H8" s="3">
-        <v>242200</v>
+        <v>230900</v>
       </c>
       <c r="I8" s="3">
-        <v>183400</v>
+        <v>174800</v>
       </c>
       <c r="J8" s="3">
-        <v>275900</v>
+        <v>262900</v>
       </c>
       <c r="K8" s="3">
         <v>219100</v>
@@ -855,25 +855,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>105100</v>
+        <v>100200</v>
       </c>
       <c r="E9" s="3">
-        <v>76700</v>
+        <v>73100</v>
       </c>
       <c r="F9" s="3">
-        <v>144800</v>
+        <v>138000</v>
       </c>
       <c r="G9" s="3">
-        <v>119300</v>
+        <v>113700</v>
       </c>
       <c r="H9" s="3">
-        <v>190900</v>
+        <v>181900</v>
       </c>
       <c r="I9" s="3">
-        <v>144700</v>
+        <v>137900</v>
       </c>
       <c r="J9" s="3">
-        <v>211000</v>
+        <v>201200</v>
       </c>
       <c r="K9" s="3">
         <v>181600</v>
@@ -932,25 +932,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29900</v>
+        <v>28500</v>
       </c>
       <c r="E10" s="3">
-        <v>27300</v>
+        <v>26000</v>
       </c>
       <c r="F10" s="3">
-        <v>49900</v>
+        <v>47500</v>
       </c>
       <c r="G10" s="3">
-        <v>35000</v>
+        <v>33400</v>
       </c>
       <c r="H10" s="3">
-        <v>51400</v>
+        <v>49000</v>
       </c>
       <c r="I10" s="3">
-        <v>38700</v>
+        <v>36900</v>
       </c>
       <c r="J10" s="3">
-        <v>64800</v>
+        <v>61800</v>
       </c>
       <c r="K10" s="3">
         <v>37500</v>
@@ -1038,25 +1038,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11600</v>
+        <v>11100</v>
       </c>
       <c r="E12" s="3">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="F12" s="3">
-        <v>14300</v>
+        <v>13600</v>
       </c>
       <c r="G12" s="3">
-        <v>12000</v>
+        <v>11400</v>
       </c>
       <c r="H12" s="3">
-        <v>9700</v>
+        <v>9200</v>
       </c>
       <c r="I12" s="3">
-        <v>9600</v>
+        <v>9100</v>
       </c>
       <c r="J12" s="3">
-        <v>13600</v>
+        <v>13000</v>
       </c>
       <c r="K12" s="3">
         <v>7800</v>
@@ -1372,25 +1372,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>143100</v>
+        <v>136400</v>
       </c>
       <c r="E17" s="3">
-        <v>113500</v>
+        <v>108200</v>
       </c>
       <c r="F17" s="3">
-        <v>193300</v>
+        <v>184300</v>
       </c>
       <c r="G17" s="3">
-        <v>159900</v>
+        <v>152400</v>
       </c>
       <c r="H17" s="3">
-        <v>235400</v>
+        <v>224400</v>
       </c>
       <c r="I17" s="3">
-        <v>176500</v>
+        <v>168200</v>
       </c>
       <c r="J17" s="3">
-        <v>257400</v>
+        <v>245400</v>
       </c>
       <c r="K17" s="3">
         <v>213700</v>
@@ -1449,25 +1449,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-8100</v>
+        <v>-7700</v>
       </c>
       <c r="E18" s="3">
-        <v>-9500</v>
+        <v>-9100</v>
       </c>
       <c r="F18" s="3">
         <v>1300</v>
       </c>
       <c r="G18" s="3">
-        <v>-5600</v>
+        <v>-5400</v>
       </c>
       <c r="H18" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="I18" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="J18" s="3">
-        <v>18400</v>
+        <v>17600</v>
       </c>
       <c r="K18" s="3">
         <v>5400</v>
@@ -1561,7 +1561,7 @@
         <v>1000</v>
       </c>
       <c r="F20" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G20" s="3">
         <v>500</v>
@@ -1573,7 +1573,7 @@
         <v>1000</v>
       </c>
       <c r="J20" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K20" s="3">
         <v>1600</v>
@@ -1786,25 +1786,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7900</v>
+        <v>-7600</v>
       </c>
       <c r="E23" s="3">
-        <v>-8500</v>
+        <v>-8100</v>
       </c>
       <c r="F23" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="G23" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="H23" s="3">
-        <v>8100</v>
+        <v>7700</v>
       </c>
       <c r="I23" s="3">
-        <v>7900</v>
+        <v>7500</v>
       </c>
       <c r="J23" s="3">
-        <v>19900</v>
+        <v>19000</v>
       </c>
       <c r="K23" s="3">
         <v>6900</v>
@@ -1863,7 +1863,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="E24" s="3">
         <v>-1100</v>
@@ -1881,7 +1881,7 @@
         <v>700</v>
       </c>
       <c r="J24" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="K24" s="3">
         <v>1800</v>
@@ -2017,25 +2017,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6300</v>
+        <v>-6100</v>
       </c>
       <c r="E26" s="3">
-        <v>-7400</v>
+        <v>-7000</v>
       </c>
       <c r="F26" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G26" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="H26" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="I26" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="J26" s="3">
-        <v>16200</v>
+        <v>15500</v>
       </c>
       <c r="K26" s="3">
         <v>5200</v>
@@ -2094,25 +2094,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5800</v>
+        <v>-5500</v>
       </c>
       <c r="E27" s="3">
-        <v>-7300</v>
+        <v>-7000</v>
       </c>
       <c r="F27" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="G27" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="H27" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="I27" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="J27" s="3">
-        <v>16100</v>
+        <v>15400</v>
       </c>
       <c r="K27" s="3">
         <v>5100</v>
@@ -2485,7 +2485,7 @@
         <v>-1000</v>
       </c>
       <c r="F32" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="G32" s="3">
         <v>-500</v>
@@ -2497,7 +2497,7 @@
         <v>-1000</v>
       </c>
       <c r="J32" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K32" s="3">
         <v>-1600</v>
@@ -2556,25 +2556,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5800</v>
+        <v>-5500</v>
       </c>
       <c r="E33" s="3">
-        <v>-7300</v>
+        <v>-7000</v>
       </c>
       <c r="F33" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="G33" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="H33" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="I33" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="J33" s="3">
-        <v>16100</v>
+        <v>15400</v>
       </c>
       <c r="K33" s="3">
         <v>5100</v>
@@ -2710,25 +2710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5800</v>
+        <v>-5500</v>
       </c>
       <c r="E35" s="3">
-        <v>-7300</v>
+        <v>-7000</v>
       </c>
       <c r="F35" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="G35" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="H35" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="I35" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="J35" s="3">
-        <v>16100</v>
+        <v>15400</v>
       </c>
       <c r="K35" s="3">
         <v>5100</v>
@@ -2927,25 +2927,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>119200</v>
+        <v>113600</v>
       </c>
       <c r="E41" s="3">
-        <v>126800</v>
+        <v>120900</v>
       </c>
       <c r="F41" s="3">
-        <v>85700</v>
+        <v>81700</v>
       </c>
       <c r="G41" s="3">
-        <v>112700</v>
+        <v>107400</v>
       </c>
       <c r="H41" s="3">
-        <v>97500</v>
+        <v>92900</v>
       </c>
       <c r="I41" s="3">
-        <v>132400</v>
+        <v>126200</v>
       </c>
       <c r="J41" s="3">
-        <v>73600</v>
+        <v>70200</v>
       </c>
       <c r="K41" s="3">
         <v>105400</v>
@@ -3004,25 +3004,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>36100</v>
+        <v>34400</v>
       </c>
       <c r="E42" s="3">
-        <v>64500</v>
+        <v>61500</v>
       </c>
       <c r="F42" s="3">
-        <v>128300</v>
+        <v>122300</v>
       </c>
       <c r="G42" s="3">
-        <v>86200</v>
+        <v>82200</v>
       </c>
       <c r="H42" s="3">
-        <v>76000</v>
+        <v>72400</v>
       </c>
       <c r="I42" s="3">
-        <v>102900</v>
+        <v>98100</v>
       </c>
       <c r="J42" s="3">
-        <v>103100</v>
+        <v>98300</v>
       </c>
       <c r="K42" s="3">
         <v>26500</v>
@@ -3081,25 +3081,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>111100</v>
+        <v>105900</v>
       </c>
       <c r="E43" s="3">
-        <v>69400</v>
+        <v>66200</v>
       </c>
       <c r="F43" s="3">
-        <v>103900</v>
+        <v>99100</v>
       </c>
       <c r="G43" s="3">
-        <v>96200</v>
+        <v>91700</v>
       </c>
       <c r="H43" s="3">
-        <v>156200</v>
+        <v>148900</v>
       </c>
       <c r="I43" s="3">
-        <v>83400</v>
+        <v>79500</v>
       </c>
       <c r="J43" s="3">
-        <v>164200</v>
+        <v>156500</v>
       </c>
       <c r="K43" s="3">
         <v>165700</v>
@@ -3158,25 +3158,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>81100</v>
+        <v>77300</v>
       </c>
       <c r="E44" s="3">
-        <v>92100</v>
+        <v>87800</v>
       </c>
       <c r="F44" s="3">
-        <v>84200</v>
+        <v>80200</v>
       </c>
       <c r="G44" s="3">
-        <v>79000</v>
+        <v>75300</v>
       </c>
       <c r="H44" s="3">
-        <v>81500</v>
+        <v>77700</v>
       </c>
       <c r="I44" s="3">
-        <v>86500</v>
+        <v>82400</v>
       </c>
       <c r="J44" s="3">
-        <v>64200</v>
+        <v>61200</v>
       </c>
       <c r="K44" s="3">
         <v>72600</v>
@@ -3235,25 +3235,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33900</v>
+        <v>32300</v>
       </c>
       <c r="E45" s="3">
-        <v>38900</v>
+        <v>37100</v>
       </c>
       <c r="F45" s="3">
-        <v>28000</v>
+        <v>26700</v>
       </c>
       <c r="G45" s="3">
-        <v>27600</v>
+        <v>26400</v>
       </c>
       <c r="H45" s="3">
-        <v>26500</v>
+        <v>25300</v>
       </c>
       <c r="I45" s="3">
-        <v>25300</v>
+        <v>24100</v>
       </c>
       <c r="J45" s="3">
-        <v>23100</v>
+        <v>22000</v>
       </c>
       <c r="K45" s="3">
         <v>26900</v>
@@ -3312,25 +3312,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>381400</v>
+        <v>363600</v>
       </c>
       <c r="E46" s="3">
-        <v>391800</v>
+        <v>373500</v>
       </c>
       <c r="F46" s="3">
-        <v>430200</v>
+        <v>410100</v>
       </c>
       <c r="G46" s="3">
-        <v>401800</v>
+        <v>383000</v>
       </c>
       <c r="H46" s="3">
-        <v>437700</v>
+        <v>417300</v>
       </c>
       <c r="I46" s="3">
-        <v>430400</v>
+        <v>410300</v>
       </c>
       <c r="J46" s="3">
-        <v>428100</v>
+        <v>408100</v>
       </c>
       <c r="K46" s="3">
         <v>397000</v>
@@ -3389,13 +3389,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="E47" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="F47" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -3404,10 +3404,10 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="J47" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="K47" s="3">
         <v>8800</v>
@@ -3466,25 +3466,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40200</v>
+        <v>38300</v>
       </c>
       <c r="E48" s="3">
-        <v>36200</v>
+        <v>34500</v>
       </c>
       <c r="F48" s="3">
-        <v>33000</v>
+        <v>31500</v>
       </c>
       <c r="G48" s="3">
-        <v>27500</v>
+        <v>26200</v>
       </c>
       <c r="H48" s="3">
-        <v>26500</v>
+        <v>25300</v>
       </c>
       <c r="I48" s="3">
-        <v>22700</v>
+        <v>21600</v>
       </c>
       <c r="J48" s="3">
-        <v>22800</v>
+        <v>21700</v>
       </c>
       <c r="K48" s="3">
         <v>21500</v>
@@ -3546,13 +3546,13 @@
         <v>1800</v>
       </c>
       <c r="E49" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F49" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H49" s="3">
         <v>1300</v>
@@ -3774,25 +3774,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12700</v>
+        <v>12100</v>
       </c>
       <c r="E52" s="3">
-        <v>11000</v>
+        <v>10400</v>
       </c>
       <c r="F52" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="G52" s="3">
-        <v>7300</v>
+        <v>6900</v>
       </c>
       <c r="H52" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="I52" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="J52" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="K52" s="3">
         <v>5200</v>
@@ -3928,25 +3928,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>440500</v>
+        <v>419900</v>
       </c>
       <c r="E54" s="3">
-        <v>445200</v>
+        <v>424300</v>
       </c>
       <c r="F54" s="3">
-        <v>478500</v>
+        <v>456100</v>
       </c>
       <c r="G54" s="3">
-        <v>438100</v>
+        <v>417600</v>
       </c>
       <c r="H54" s="3">
-        <v>471600</v>
+        <v>449500</v>
       </c>
       <c r="I54" s="3">
-        <v>467900</v>
+        <v>446100</v>
       </c>
       <c r="J54" s="3">
-        <v>464300</v>
+        <v>442600</v>
       </c>
       <c r="K54" s="3">
         <v>433600</v>
@@ -4063,25 +4063,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>126400</v>
+        <v>120500</v>
       </c>
       <c r="E57" s="3">
-        <v>135700</v>
+        <v>129300</v>
       </c>
       <c r="F57" s="3">
-        <v>156100</v>
+        <v>148800</v>
       </c>
       <c r="G57" s="3">
-        <v>125500</v>
+        <v>119700</v>
       </c>
       <c r="H57" s="3">
-        <v>160900</v>
+        <v>153400</v>
       </c>
       <c r="I57" s="3">
-        <v>164700</v>
+        <v>157000</v>
       </c>
       <c r="J57" s="3">
-        <v>146200</v>
+        <v>139400</v>
       </c>
       <c r="K57" s="3">
         <v>148900</v>
@@ -4140,10 +4140,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F58" s="3">
         <v>800</v>
@@ -4152,13 +4152,13 @@
         <v>800</v>
       </c>
       <c r="H58" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I58" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="J58" s="3">
-        <v>18100</v>
+        <v>17300</v>
       </c>
       <c r="K58" s="3">
         <v>10200</v>
@@ -4217,25 +4217,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>64300</v>
+        <v>61300</v>
       </c>
       <c r="E59" s="3">
+        <v>59300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>72400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>64700</v>
+      </c>
+      <c r="H59" s="3">
         <v>62200</v>
       </c>
-      <c r="F59" s="3">
-        <v>75900</v>
-      </c>
-      <c r="G59" s="3">
-        <v>67900</v>
-      </c>
-      <c r="H59" s="3">
-        <v>65200</v>
-      </c>
       <c r="I59" s="3">
-        <v>59500</v>
+        <v>56700</v>
       </c>
       <c r="J59" s="3">
-        <v>74300</v>
+        <v>70800</v>
       </c>
       <c r="K59" s="3">
         <v>56400</v>
@@ -4294,25 +4294,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>192500</v>
+        <v>183500</v>
       </c>
       <c r="E60" s="3">
-        <v>198600</v>
+        <v>189300</v>
       </c>
       <c r="F60" s="3">
-        <v>232800</v>
+        <v>222000</v>
       </c>
       <c r="G60" s="3">
-        <v>194200</v>
+        <v>185100</v>
       </c>
       <c r="H60" s="3">
-        <v>227000</v>
+        <v>216400</v>
       </c>
       <c r="I60" s="3">
-        <v>231200</v>
+        <v>220400</v>
       </c>
       <c r="J60" s="3">
-        <v>238600</v>
+        <v>227500</v>
       </c>
       <c r="K60" s="3">
         <v>215500</v>
@@ -4371,16 +4371,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13700</v>
+        <v>13000</v>
       </c>
       <c r="E61" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="F61" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="G61" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4448,25 +4448,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2200</v>
       </c>
-      <c r="G62" s="3">
-        <v>2300</v>
-      </c>
       <c r="H62" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="I62" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="J62" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K62" s="3">
         <v>2600</v>
@@ -4756,25 +4756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>207800</v>
+        <v>198100</v>
       </c>
       <c r="E66" s="3">
-        <v>210600</v>
+        <v>200800</v>
       </c>
       <c r="F66" s="3">
-        <v>237900</v>
+        <v>226800</v>
       </c>
       <c r="G66" s="3">
-        <v>199500</v>
+        <v>190100</v>
       </c>
       <c r="H66" s="3">
-        <v>230100</v>
+        <v>219300</v>
       </c>
       <c r="I66" s="3">
-        <v>234200</v>
+        <v>223300</v>
       </c>
       <c r="J66" s="3">
-        <v>241300</v>
+        <v>230000</v>
       </c>
       <c r="K66" s="3">
         <v>218500</v>
@@ -5170,25 +5170,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>52600</v>
+        <v>50200</v>
       </c>
       <c r="E72" s="3">
-        <v>58400</v>
+        <v>55700</v>
       </c>
       <c r="F72" s="3">
-        <v>65700</v>
+        <v>62600</v>
       </c>
       <c r="G72" s="3">
-        <v>62400</v>
+        <v>59500</v>
       </c>
       <c r="H72" s="3">
-        <v>66700</v>
+        <v>63500</v>
       </c>
       <c r="I72" s="3">
-        <v>59900</v>
+        <v>57100</v>
       </c>
       <c r="J72" s="3">
-        <v>53000</v>
+        <v>50500</v>
       </c>
       <c r="K72" s="3">
         <v>37600</v>
@@ -5478,25 +5478,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>232700</v>
+        <v>221900</v>
       </c>
       <c r="E76" s="3">
-        <v>234500</v>
+        <v>223600</v>
       </c>
       <c r="F76" s="3">
-        <v>240600</v>
+        <v>229300</v>
       </c>
       <c r="G76" s="3">
-        <v>238700</v>
+        <v>227500</v>
       </c>
       <c r="H76" s="3">
-        <v>241500</v>
+        <v>230200</v>
       </c>
       <c r="I76" s="3">
-        <v>233700</v>
+        <v>222800</v>
       </c>
       <c r="J76" s="3">
-        <v>223000</v>
+        <v>212600</v>
       </c>
       <c r="K76" s="3">
         <v>215200</v>
@@ -5714,25 +5714,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5800</v>
+        <v>-5500</v>
       </c>
       <c r="E81" s="3">
-        <v>-7300</v>
+        <v>-7000</v>
       </c>
       <c r="F81" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="G81" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="H81" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="I81" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="J81" s="3">
-        <v>16100</v>
+        <v>15400</v>
       </c>
       <c r="K81" s="3">
         <v>5100</v>

--- a/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>VIOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>128600</v>
+        <v>98500</v>
       </c>
       <c r="E8" s="3">
-        <v>99100</v>
+        <v>132700</v>
       </c>
       <c r="F8" s="3">
-        <v>185500</v>
+        <v>102300</v>
       </c>
       <c r="G8" s="3">
-        <v>147100</v>
+        <v>191400</v>
       </c>
       <c r="H8" s="3">
-        <v>230900</v>
+        <v>151700</v>
       </c>
       <c r="I8" s="3">
-        <v>174800</v>
+        <v>238300</v>
       </c>
       <c r="J8" s="3">
+        <v>180300</v>
+      </c>
+      <c r="K8" s="3">
         <v>262900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>219100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>248200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>120800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>268200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>164700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>181000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>102900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>138800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>79100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>101800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>47500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>58500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>31000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>40200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>19500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>17300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100200</v>
+        <v>79000</v>
       </c>
       <c r="E9" s="3">
-        <v>73100</v>
+        <v>103400</v>
       </c>
       <c r="F9" s="3">
-        <v>138000</v>
+        <v>75400</v>
       </c>
       <c r="G9" s="3">
-        <v>113700</v>
+        <v>142400</v>
       </c>
       <c r="H9" s="3">
-        <v>181900</v>
+        <v>117300</v>
       </c>
       <c r="I9" s="3">
-        <v>137900</v>
+        <v>187700</v>
       </c>
       <c r="J9" s="3">
+        <v>142300</v>
+      </c>
+      <c r="K9" s="3">
         <v>201200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>181600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>212700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>98100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>214800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>128000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>132900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>74100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>101300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>55300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>74300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>33400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>39500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>21000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>28300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>13900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>12600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>28500</v>
+        <v>19500</v>
       </c>
       <c r="E10" s="3">
-        <v>26000</v>
+        <v>29400</v>
       </c>
       <c r="F10" s="3">
-        <v>47500</v>
+        <v>26900</v>
       </c>
       <c r="G10" s="3">
-        <v>33400</v>
+        <v>49000</v>
       </c>
       <c r="H10" s="3">
-        <v>49000</v>
+        <v>34400</v>
       </c>
       <c r="I10" s="3">
-        <v>36900</v>
+        <v>50500</v>
       </c>
       <c r="J10" s="3">
+        <v>38100</v>
+      </c>
+      <c r="K10" s="3">
         <v>61800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>35500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>22700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>53400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>36700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>48100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>28800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>37500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>23800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>27500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>14000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>19000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>10000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>11900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>11100</v>
+        <v>9600</v>
       </c>
       <c r="E12" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="F12" s="3">
-        <v>13600</v>
+        <v>11400</v>
       </c>
       <c r="G12" s="3">
-        <v>11400</v>
+        <v>14000</v>
       </c>
       <c r="H12" s="3">
-        <v>9200</v>
+        <v>11800</v>
       </c>
       <c r="I12" s="3">
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="J12" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K12" s="3">
         <v>13000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>5600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>3000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>3800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>3300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>136400</v>
+        <v>112500</v>
       </c>
       <c r="E17" s="3">
-        <v>108200</v>
+        <v>140700</v>
       </c>
       <c r="F17" s="3">
-        <v>184300</v>
+        <v>111600</v>
       </c>
       <c r="G17" s="3">
-        <v>152400</v>
+        <v>190100</v>
       </c>
       <c r="H17" s="3">
-        <v>224400</v>
+        <v>157300</v>
       </c>
       <c r="I17" s="3">
-        <v>168200</v>
+        <v>231500</v>
       </c>
       <c r="J17" s="3">
+        <v>173600</v>
+      </c>
+      <c r="K17" s="3">
         <v>245400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>213700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>246900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>118800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>253900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>152000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>165600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>97200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>130100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>87400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>95100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>42800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>50600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>26400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>37000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>17900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>16100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-7700</v>
+        <v>-14000</v>
       </c>
       <c r="E18" s="3">
-        <v>-9100</v>
+        <v>-8000</v>
       </c>
       <c r="F18" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="G18" s="3">
         <v>1300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-5400</v>
-      </c>
       <c r="H18" s="3">
-        <v>6600</v>
+        <v>-5600</v>
       </c>
       <c r="I18" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="J18" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K18" s="3">
         <v>17600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>12700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>15400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>5600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>7900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,67 +1582,68 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>900</v>
+      </c>
+      <c r="O20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>900</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
+        <v>700</v>
+      </c>
+      <c r="R20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="R20" s="3">
-        <v>500</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
-      </c>
-      <c r="T20" s="3">
-        <v>200</v>
       </c>
       <c r="U20" s="3">
         <v>200</v>
       </c>
       <c r="V20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W20" s="3">
         <v>100</v>
@@ -1618,7 +1652,7 @@
         <v>100</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z20" s="3">
         <v>0</v>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1670,41 +1707,44 @@
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3">
         <v>7500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9600</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="3">
         <v>7000</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="3">
         <v>8200</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="3">
         <v>3500</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,162 +1820,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7600</v>
+        <v>-13700</v>
       </c>
       <c r="E23" s="3">
-        <v>-8100</v>
+        <v>-7800</v>
       </c>
       <c r="F23" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K23" s="3">
+        <v>19000</v>
+      </c>
+      <c r="L23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="M23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N23" s="3">
         <v>2800</v>
       </c>
-      <c r="G23" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>7700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>7500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>19000</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
+        <v>15800</v>
+      </c>
+      <c r="P23" s="3">
+        <v>13200</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>16100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>7200</v>
+      </c>
+      <c r="S23" s="3">
+        <v>9300</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="U23" s="3">
         <v>6900</v>
       </c>
-      <c r="L23" s="3">
-        <v>2400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>2800</v>
-      </c>
-      <c r="N23" s="3">
-        <v>15800</v>
-      </c>
-      <c r="O23" s="3">
-        <v>13200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>16100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>7200</v>
-      </c>
-      <c r="R23" s="3">
-        <v>9300</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="T23" s="3">
-        <v>6900</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>8000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>1900</v>
       </c>
       <c r="P24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q24" s="3">
         <v>2200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6100</v>
+        <v>-11700</v>
       </c>
       <c r="E26" s="3">
-        <v>-7000</v>
+        <v>-6200</v>
       </c>
       <c r="F26" s="3">
-        <v>3100</v>
+        <v>-7300</v>
       </c>
       <c r="G26" s="3">
-        <v>-4100</v>
+        <v>3200</v>
       </c>
       <c r="H26" s="3">
-        <v>6500</v>
+        <v>-4200</v>
       </c>
       <c r="I26" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="J26" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K26" s="3">
         <v>15500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>13900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>13900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>600</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5500</v>
+        <v>-11400</v>
       </c>
       <c r="E27" s="3">
-        <v>-7000</v>
+        <v>-5700</v>
       </c>
       <c r="F27" s="3">
-        <v>3200</v>
+        <v>-7200</v>
       </c>
       <c r="G27" s="3">
-        <v>-4100</v>
+        <v>3300</v>
       </c>
       <c r="H27" s="3">
-        <v>6400</v>
+        <v>-4200</v>
       </c>
       <c r="I27" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="J27" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K27" s="3">
         <v>15400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>13800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>13800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,67 +2540,70 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-200</v>
       </c>
       <c r="U32" s="3">
         <v>-200</v>
       </c>
       <c r="V32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W32" s="3">
         <v>-100</v>
@@ -2542,7 +2612,7 @@
         <v>-100</v>
       </c>
       <c r="Y32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z32" s="3">
         <v>0</v>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5500</v>
+        <v>-11400</v>
       </c>
       <c r="E33" s="3">
-        <v>-7000</v>
+        <v>-5700</v>
       </c>
       <c r="F33" s="3">
-        <v>3200</v>
+        <v>-7200</v>
       </c>
       <c r="G33" s="3">
-        <v>-4100</v>
+        <v>3300</v>
       </c>
       <c r="H33" s="3">
-        <v>6400</v>
+        <v>-4200</v>
       </c>
       <c r="I33" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="J33" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K33" s="3">
         <v>15400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>13800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>13800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5500</v>
+        <v>-11400</v>
       </c>
       <c r="E35" s="3">
-        <v>-7000</v>
+        <v>-5700</v>
       </c>
       <c r="F35" s="3">
-        <v>3200</v>
+        <v>-7200</v>
       </c>
       <c r="G35" s="3">
-        <v>-4100</v>
+        <v>3300</v>
       </c>
       <c r="H35" s="3">
-        <v>6400</v>
+        <v>-4200</v>
       </c>
       <c r="I35" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="J35" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K35" s="3">
         <v>15400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>13800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>13800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,65 +3007,66 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>113600</v>
+        <v>109200</v>
       </c>
       <c r="E41" s="3">
-        <v>120900</v>
+        <v>117200</v>
       </c>
       <c r="F41" s="3">
-        <v>81700</v>
+        <v>124700</v>
       </c>
       <c r="G41" s="3">
-        <v>107400</v>
+        <v>84300</v>
       </c>
       <c r="H41" s="3">
-        <v>92900</v>
+        <v>110800</v>
       </c>
       <c r="I41" s="3">
-        <v>126200</v>
+        <v>95900</v>
       </c>
       <c r="J41" s="3">
+        <v>130200</v>
+      </c>
+      <c r="K41" s="3">
         <v>70200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>105400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>93500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>70300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>149700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>112000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>104200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>116200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>136600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>130600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>36900</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2998,59 +3085,62 @@
       <c r="AA41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>34400</v>
+        <v>49300</v>
       </c>
       <c r="E42" s="3">
-        <v>61500</v>
+        <v>35500</v>
       </c>
       <c r="F42" s="3">
-        <v>122300</v>
+        <v>63500</v>
       </c>
       <c r="G42" s="3">
-        <v>82200</v>
+        <v>126200</v>
       </c>
       <c r="H42" s="3">
-        <v>72400</v>
+        <v>84800</v>
       </c>
       <c r="I42" s="3">
-        <v>98100</v>
+        <v>74700</v>
       </c>
       <c r="J42" s="3">
+        <v>101200</v>
+      </c>
+      <c r="K42" s="3">
         <v>98300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>26500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>54100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>117700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>57900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>58800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>47200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>52500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>24500</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>16</v>
       </c>
@@ -3066,8 +3156,8 @@
       <c r="X42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
+      <c r="Y42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -3075,65 +3165,68 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>105900</v>
+        <v>79100</v>
       </c>
       <c r="E43" s="3">
-        <v>66200</v>
+        <v>109300</v>
       </c>
       <c r="F43" s="3">
-        <v>99100</v>
+        <v>68300</v>
       </c>
       <c r="G43" s="3">
-        <v>91700</v>
+        <v>102200</v>
       </c>
       <c r="H43" s="3">
-        <v>148900</v>
+        <v>94600</v>
       </c>
       <c r="I43" s="3">
-        <v>79500</v>
+        <v>153600</v>
       </c>
       <c r="J43" s="3">
+        <v>82000</v>
+      </c>
+      <c r="K43" s="3">
         <v>156500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>165700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>185000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>161400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>127000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>120000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>55500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>70400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>54300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>68000</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>16</v>
       </c>
@@ -3152,65 +3245,68 @@
       <c r="AA43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>77300</v>
+        <v>86800</v>
       </c>
       <c r="E44" s="3">
-        <v>87800</v>
+        <v>79700</v>
       </c>
       <c r="F44" s="3">
-        <v>80200</v>
+        <v>90600</v>
       </c>
       <c r="G44" s="3">
-        <v>75300</v>
+        <v>82800</v>
       </c>
       <c r="H44" s="3">
         <v>77700</v>
       </c>
       <c r="I44" s="3">
-        <v>82400</v>
+        <v>80200</v>
       </c>
       <c r="J44" s="3">
+        <v>85000</v>
+      </c>
+      <c r="K44" s="3">
         <v>61200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>72600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>60700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>58500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>64400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>69700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>65600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>45400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>33700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>28100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>23900</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V44" s="3" t="s">
         <v>16</v>
       </c>
@@ -3229,65 +3325,68 @@
       <c r="AA44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>32300</v>
+        <v>35700</v>
       </c>
       <c r="E45" s="3">
-        <v>37100</v>
+        <v>33400</v>
       </c>
       <c r="F45" s="3">
-        <v>26700</v>
+        <v>38300</v>
       </c>
       <c r="G45" s="3">
-        <v>26400</v>
+        <v>27600</v>
       </c>
       <c r="H45" s="3">
-        <v>25300</v>
+        <v>27200</v>
       </c>
       <c r="I45" s="3">
-        <v>24100</v>
+        <v>26100</v>
       </c>
       <c r="J45" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K45" s="3">
         <v>22000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>15100</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3306,65 +3405,68 @@
       <c r="AA45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>363600</v>
+        <v>360000</v>
       </c>
       <c r="E46" s="3">
-        <v>373500</v>
+        <v>375100</v>
       </c>
       <c r="F46" s="3">
-        <v>410100</v>
+        <v>385300</v>
       </c>
       <c r="G46" s="3">
-        <v>383000</v>
+        <v>423100</v>
       </c>
       <c r="H46" s="3">
-        <v>417300</v>
+        <v>395200</v>
       </c>
       <c r="I46" s="3">
-        <v>410300</v>
+        <v>430500</v>
       </c>
       <c r="J46" s="3">
+        <v>423300</v>
+      </c>
+      <c r="K46" s="3">
         <v>408100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>397000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>412000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>361700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>447700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>375300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>346400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>282800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>276300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>225600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>143900</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3383,44 +3485,47 @@
       <c r="AA46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="E47" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="F47" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K47" s="3">
         <v>7000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>7000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>8800</v>
       </c>
       <c r="L47" s="3">
         <v>8800</v>
       </c>
       <c r="M47" s="3">
+        <v>8800</v>
+      </c>
+      <c r="N47" s="3">
         <v>9500</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3436,8 +3541,8 @@
       <c r="S47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3460,65 +3565,68 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38300</v>
+        <v>41600</v>
       </c>
       <c r="E48" s="3">
-        <v>34500</v>
+        <v>39500</v>
       </c>
       <c r="F48" s="3">
-        <v>31500</v>
+        <v>35600</v>
       </c>
       <c r="G48" s="3">
-        <v>26200</v>
+        <v>32500</v>
       </c>
       <c r="H48" s="3">
-        <v>25300</v>
+        <v>27100</v>
       </c>
       <c r="I48" s="3">
-        <v>21600</v>
+        <v>26100</v>
       </c>
       <c r="J48" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K48" s="3">
         <v>21700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>500</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3537,28 +3645,31 @@
       <c r="AA48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E49" s="3">
         <v>1800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G49" s="3">
         <v>1700</v>
       </c>
-      <c r="F49" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1400</v>
-      </c>
       <c r="H49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I49" s="3">
         <v>1300</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1100</v>
       </c>
       <c r="J49" s="3">
         <v>1100</v>
@@ -3567,16 +3678,16 @@
         <v>1100</v>
       </c>
       <c r="L49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M49" s="3">
         <v>800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>700</v>
-      </c>
-      <c r="O49" s="3">
-        <v>400</v>
       </c>
       <c r="P49" s="3">
         <v>400</v>
@@ -3585,13 +3696,13 @@
         <v>400</v>
       </c>
       <c r="R49" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>16</v>
+      <c r="T49" s="3">
+        <v>0</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>16</v>
@@ -3605,8 +3716,8 @@
       <c r="X49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y49" s="3">
-        <v>0</v>
+      <c r="Y49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z49" s="3">
         <v>0</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,64 +3885,67 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12100</v>
+        <v>14200</v>
       </c>
       <c r="E52" s="3">
-        <v>10400</v>
+        <v>12500</v>
       </c>
       <c r="F52" s="3">
-        <v>8700</v>
+        <v>10800</v>
       </c>
       <c r="G52" s="3">
-        <v>6900</v>
+        <v>9000</v>
       </c>
       <c r="H52" s="3">
-        <v>5800</v>
+        <v>7100</v>
       </c>
       <c r="I52" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="J52" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K52" s="3">
         <v>4700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1300</v>
-      </c>
-      <c r="S52" s="3">
-        <v>1500</v>
       </c>
       <c r="T52" s="3">
         <v>1500</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>16</v>
+      <c r="U52" s="3">
+        <v>1500</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>16</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,65 +4045,68 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>419900</v>
+        <v>422200</v>
       </c>
       <c r="E54" s="3">
-        <v>424300</v>
+        <v>433300</v>
       </c>
       <c r="F54" s="3">
-        <v>456100</v>
+        <v>437800</v>
       </c>
       <c r="G54" s="3">
-        <v>417600</v>
+        <v>470600</v>
       </c>
       <c r="H54" s="3">
-        <v>449500</v>
+        <v>430900</v>
       </c>
       <c r="I54" s="3">
-        <v>446100</v>
+        <v>463800</v>
       </c>
       <c r="J54" s="3">
+        <v>460200</v>
+      </c>
+      <c r="K54" s="3">
         <v>442600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>433600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>441400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>388700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>465400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>389600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>359800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>289700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>279300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>227500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>145900</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4066,56 +4197,56 @@
         <v>120500</v>
       </c>
       <c r="E57" s="3">
-        <v>129300</v>
+        <v>124300</v>
       </c>
       <c r="F57" s="3">
-        <v>148800</v>
+        <v>133400</v>
       </c>
       <c r="G57" s="3">
-        <v>119700</v>
+        <v>153500</v>
       </c>
       <c r="H57" s="3">
-        <v>153400</v>
+        <v>123500</v>
       </c>
       <c r="I57" s="3">
-        <v>157000</v>
+        <v>158300</v>
       </c>
       <c r="J57" s="3">
+        <v>162000</v>
+      </c>
+      <c r="K57" s="3">
         <v>139400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>148900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>164200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>117200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>160600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>117100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>108000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>79300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>79700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>58100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>71500</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>16</v>
       </c>
@@ -4134,16 +4265,19 @@
       <c r="AA57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="E58" s="3">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="F58" s="3">
         <v>800</v>
@@ -4155,44 +4289,44 @@
         <v>800</v>
       </c>
       <c r="I58" s="3">
-        <v>6700</v>
+        <v>800</v>
       </c>
       <c r="J58" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K58" s="3">
         <v>17300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>18600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>400</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>16</v>
       </c>
@@ -4211,65 +4345,68 @@
       <c r="AA58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>61300</v>
+        <v>62000</v>
       </c>
       <c r="E59" s="3">
-        <v>59300</v>
+        <v>63300</v>
       </c>
       <c r="F59" s="3">
-        <v>72400</v>
+        <v>61100</v>
       </c>
       <c r="G59" s="3">
-        <v>64700</v>
+        <v>74700</v>
       </c>
       <c r="H59" s="3">
-        <v>62200</v>
+        <v>66800</v>
       </c>
       <c r="I59" s="3">
-        <v>56700</v>
+        <v>64100</v>
       </c>
       <c r="J59" s="3">
+        <v>58500</v>
+      </c>
+      <c r="K59" s="3">
         <v>70800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>56400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>57600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>45200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>72200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>57000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>50300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>46500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>43200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>28200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>28100</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4288,65 +4425,68 @@
       <c r="AA59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>183500</v>
+        <v>184400</v>
       </c>
       <c r="E60" s="3">
-        <v>189300</v>
+        <v>189400</v>
       </c>
       <c r="F60" s="3">
-        <v>222000</v>
+        <v>195300</v>
       </c>
       <c r="G60" s="3">
-        <v>185100</v>
+        <v>229000</v>
       </c>
       <c r="H60" s="3">
-        <v>216400</v>
+        <v>191000</v>
       </c>
       <c r="I60" s="3">
-        <v>220400</v>
+        <v>223200</v>
       </c>
       <c r="J60" s="3">
+        <v>227400</v>
+      </c>
+      <c r="K60" s="3">
         <v>227500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>215500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>225900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>163100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>251400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>190100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>173500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>126200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>123700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>86600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>100000</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4365,25 +4505,28 @@
       <c r="AA60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="E61" s="3">
-        <v>9100</v>
+        <v>13400</v>
       </c>
       <c r="F61" s="3">
-        <v>2200</v>
+        <v>9400</v>
       </c>
       <c r="G61" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4442,16 +4585,19 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="E62" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="F62" s="3">
         <v>2100</v>
@@ -4460,46 +4606,46 @@
         <v>2200</v>
       </c>
       <c r="H62" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I62" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K62" s="3">
         <v>2100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2700</v>
-      </c>
-      <c r="M62" s="3">
-        <v>2300</v>
       </c>
       <c r="N62" s="3">
         <v>2300</v>
       </c>
       <c r="O62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P62" s="3">
         <v>2000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>16</v>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>16</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,65 +4905,68 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>198100</v>
+        <v>200500</v>
       </c>
       <c r="E66" s="3">
-        <v>200800</v>
+        <v>204400</v>
       </c>
       <c r="F66" s="3">
-        <v>226800</v>
+        <v>207200</v>
       </c>
       <c r="G66" s="3">
-        <v>190100</v>
+        <v>234000</v>
       </c>
       <c r="H66" s="3">
-        <v>219300</v>
+        <v>196200</v>
       </c>
       <c r="I66" s="3">
-        <v>223300</v>
+        <v>226300</v>
       </c>
       <c r="J66" s="3">
+        <v>230400</v>
+      </c>
+      <c r="K66" s="3">
         <v>230000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>218500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>229400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>166300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>254600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>192900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>176800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>128400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>124200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>87000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>100100</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5064,11 +5232,11 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>22600</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,65 +5335,68 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>50200</v>
+        <v>40300</v>
       </c>
       <c r="E72" s="3">
-        <v>55700</v>
+        <v>51700</v>
       </c>
       <c r="F72" s="3">
-        <v>62600</v>
+        <v>57400</v>
       </c>
       <c r="G72" s="3">
-        <v>59500</v>
+        <v>64600</v>
       </c>
       <c r="H72" s="3">
-        <v>63500</v>
+        <v>61400</v>
       </c>
       <c r="I72" s="3">
-        <v>57100</v>
+        <v>65600</v>
       </c>
       <c r="J72" s="3">
+        <v>58900</v>
+      </c>
+      <c r="K72" s="3">
         <v>50500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>37600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>32500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>33300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>30100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-21100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13000</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,65 +5655,68 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>221900</v>
+        <v>221700</v>
       </c>
       <c r="E76" s="3">
-        <v>223600</v>
+        <v>228900</v>
       </c>
       <c r="F76" s="3">
-        <v>229300</v>
+        <v>230700</v>
       </c>
       <c r="G76" s="3">
-        <v>227500</v>
+        <v>236600</v>
       </c>
       <c r="H76" s="3">
-        <v>230200</v>
+        <v>234700</v>
       </c>
       <c r="I76" s="3">
-        <v>222800</v>
+        <v>237500</v>
       </c>
       <c r="J76" s="3">
+        <v>229800</v>
+      </c>
+      <c r="K76" s="3">
         <v>212600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>215200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>212000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>222500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>210800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>196800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>183000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>161300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>155100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>140500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>23200</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5500</v>
+        <v>-11400</v>
       </c>
       <c r="E81" s="3">
-        <v>-7000</v>
+        <v>-5700</v>
       </c>
       <c r="F81" s="3">
-        <v>3200</v>
+        <v>-7200</v>
       </c>
       <c r="G81" s="3">
-        <v>-4100</v>
+        <v>3300</v>
       </c>
       <c r="H81" s="3">
-        <v>6400</v>
+        <v>-4200</v>
       </c>
       <c r="I81" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="J81" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K81" s="3">
         <v>15400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>13800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>13800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5861,8 +6060,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>16</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>16</v>
@@ -5882,8 +6081,8 @@
       <c r="X83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
+      <c r="Y83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6323,8 +6540,8 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>16</v>
+      <c r="R89" s="3">
+        <v>0</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>16</v>
@@ -6344,8 +6561,8 @@
       <c r="X89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
+      <c r="Y89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z89" s="3">
         <v>0</v>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6429,8 +6650,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>16</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>16</v>
@@ -6450,8 +6671,8 @@
       <c r="X91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6660,8 +6890,8 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>16</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>16</v>
@@ -6681,8 +6911,8 @@
       <c r="X94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
+      <c r="Y94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7074,8 +7320,8 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>16</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>16</v>
@@ -7095,8 +7341,8 @@
       <c r="X100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
+      <c r="Y100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z100" s="3">
         <v>0</v>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7151,8 +7400,8 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>16</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>16</v>
@@ -7172,8 +7421,8 @@
       <c r="X101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
+      <c r="Y101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z101" s="3">
         <v>0</v>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7228,8 +7480,8 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>16</v>
+      <c r="R102" s="3">
+        <v>0</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>16</v>
@@ -7249,13 +7501,16 @@
       <c r="X102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
+      <c r="Y102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>VIOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>98500</v>
+        <v>129400</v>
       </c>
       <c r="E8" s="3">
-        <v>132700</v>
+        <v>97500</v>
       </c>
       <c r="F8" s="3">
-        <v>102300</v>
+        <v>131400</v>
       </c>
       <c r="G8" s="3">
-        <v>191400</v>
+        <v>101200</v>
       </c>
       <c r="H8" s="3">
-        <v>151700</v>
+        <v>189500</v>
       </c>
       <c r="I8" s="3">
-        <v>238300</v>
+        <v>150200</v>
       </c>
       <c r="J8" s="3">
+        <v>235800</v>
+      </c>
+      <c r="K8" s="3">
         <v>180300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>262900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>219100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>248200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>120800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>268200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>164700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>181000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>102900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>138800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>79100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>101800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>47500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>58500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>31000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>40200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>19500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>17300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>79000</v>
+        <v>99600</v>
       </c>
       <c r="E9" s="3">
-        <v>103400</v>
+        <v>78200</v>
       </c>
       <c r="F9" s="3">
-        <v>75400</v>
+        <v>102300</v>
       </c>
       <c r="G9" s="3">
-        <v>142400</v>
+        <v>74600</v>
       </c>
       <c r="H9" s="3">
-        <v>117300</v>
+        <v>140900</v>
       </c>
       <c r="I9" s="3">
-        <v>187700</v>
+        <v>116100</v>
       </c>
       <c r="J9" s="3">
+        <v>185800</v>
+      </c>
+      <c r="K9" s="3">
         <v>142300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>201200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>181600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>212700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>98100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>214800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>128000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>132900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>74100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>101300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>55300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>74300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>33400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>39500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>21000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>28300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>13900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>12600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>19500</v>
+        <v>29800</v>
       </c>
       <c r="E10" s="3">
-        <v>29400</v>
+        <v>19300</v>
       </c>
       <c r="F10" s="3">
-        <v>26900</v>
+        <v>29100</v>
       </c>
       <c r="G10" s="3">
-        <v>49000</v>
+        <v>26600</v>
       </c>
       <c r="H10" s="3">
-        <v>34400</v>
+        <v>48500</v>
       </c>
       <c r="I10" s="3">
-        <v>50500</v>
+        <v>34100</v>
       </c>
       <c r="J10" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K10" s="3">
         <v>38100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>61800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>37500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>35500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>22700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>53400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>36700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>48100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>28800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>37500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>23800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>27500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>14000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>19000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>10000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>11900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>4800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>9600</v>
+        <v>10600</v>
       </c>
       <c r="E12" s="3">
-        <v>11400</v>
+        <v>9500</v>
       </c>
       <c r="F12" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="G12" s="3">
-        <v>14000</v>
+        <v>11200</v>
       </c>
       <c r="H12" s="3">
-        <v>11800</v>
+        <v>13900</v>
       </c>
       <c r="I12" s="3">
-        <v>9500</v>
+        <v>11700</v>
       </c>
       <c r="J12" s="3">
         <v>9400</v>
       </c>
       <c r="K12" s="3">
+        <v>9400</v>
+      </c>
+      <c r="L12" s="3">
         <v>13000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>3000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>3800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>3300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>112500</v>
+        <v>137900</v>
       </c>
       <c r="E17" s="3">
-        <v>140700</v>
+        <v>111300</v>
       </c>
       <c r="F17" s="3">
-        <v>111600</v>
+        <v>139300</v>
       </c>
       <c r="G17" s="3">
-        <v>190100</v>
+        <v>110500</v>
       </c>
       <c r="H17" s="3">
-        <v>157300</v>
+        <v>188200</v>
       </c>
       <c r="I17" s="3">
-        <v>231500</v>
+        <v>155700</v>
       </c>
       <c r="J17" s="3">
+        <v>229100</v>
+      </c>
+      <c r="K17" s="3">
         <v>173600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>245400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>213700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>246900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>118800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>253900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>152000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>165600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>97200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>130100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>87400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>95100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>42800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>50600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>26400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>37000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>17900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>16100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-14000</v>
+        <v>-8400</v>
       </c>
       <c r="E18" s="3">
-        <v>-8000</v>
+        <v>-13800</v>
       </c>
       <c r="F18" s="3">
-        <v>-9400</v>
+        <v>-7900</v>
       </c>
       <c r="G18" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="H18" s="3">
         <v>1300</v>
       </c>
-      <c r="H18" s="3">
-        <v>-5600</v>
-      </c>
       <c r="I18" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K18" s="3">
         <v>6800</v>
       </c>
-      <c r="J18" s="3">
-        <v>6800</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>12700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>15400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>5600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-8300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>7900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,70 +1615,71 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
       </c>
       <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
-      </c>
-      <c r="U20" s="3">
-        <v>200</v>
       </c>
       <c r="V20" s="3">
         <v>200</v>
       </c>
       <c r="W20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X20" s="3">
         <v>100</v>
@@ -1655,7 +1688,7 @@
         <v>100</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
@@ -1663,8 +1696,11 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1710,41 +1746,44 @@
       <c r="Q21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="3">
         <v>7500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9600</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="3">
         <v>7000</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X21" s="3">
         <v>8200</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z21" s="3">
         <v>3500</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AB21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,168 +1862,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-13700</v>
+        <v>-8000</v>
       </c>
       <c r="E23" s="3">
-        <v>-7800</v>
+        <v>-13600</v>
       </c>
       <c r="F23" s="3">
-        <v>-8400</v>
+        <v>-7700</v>
       </c>
       <c r="G23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="H23" s="3">
         <v>2900</v>
       </c>
-      <c r="H23" s="3">
-        <v>-5100</v>
-      </c>
       <c r="I23" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K23" s="3">
+        <v>7800</v>
+      </c>
+      <c r="L23" s="3">
+        <v>19000</v>
+      </c>
+      <c r="M23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="N23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P23" s="3">
+        <v>15800</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>13200</v>
+      </c>
+      <c r="R23" s="3">
+        <v>16100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>7200</v>
+      </c>
+      <c r="T23" s="3">
+        <v>9300</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="V23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="W23" s="3">
+        <v>4900</v>
+      </c>
+      <c r="X23" s="3">
         <v>8000</v>
       </c>
-      <c r="J23" s="3">
-        <v>7800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>19000</v>
-      </c>
-      <c r="L23" s="3">
-        <v>6900</v>
-      </c>
-      <c r="M23" s="3">
-        <v>2400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>2800</v>
-      </c>
-      <c r="O23" s="3">
-        <v>15800</v>
-      </c>
-      <c r="P23" s="3">
-        <v>13200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>16100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>7200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>9300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="U23" s="3">
-        <v>6900</v>
-      </c>
-      <c r="V23" s="3">
-        <v>4900</v>
-      </c>
-      <c r="W23" s="3">
-        <v>8000</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>1900</v>
       </c>
       <c r="Q24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R24" s="3">
         <v>2200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-11700</v>
+        <v>-15300</v>
       </c>
       <c r="E26" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-7300</v>
-      </c>
       <c r="G26" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="H26" s="3">
         <v>3200</v>
       </c>
-      <c r="H26" s="3">
-        <v>-4200</v>
-      </c>
       <c r="I26" s="3">
-        <v>6700</v>
+        <v>-4100</v>
       </c>
       <c r="J26" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K26" s="3">
         <v>7100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>13900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>13900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>8000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>4200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>600</v>
       </c>
-      <c r="AB26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-11400</v>
+        <v>-15100</v>
       </c>
       <c r="E27" s="3">
-        <v>-5700</v>
+        <v>-11300</v>
       </c>
       <c r="F27" s="3">
-        <v>-7200</v>
+        <v>-5600</v>
       </c>
       <c r="G27" s="3">
-        <v>3300</v>
+        <v>-7100</v>
       </c>
       <c r="H27" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-4200</v>
       </c>
-      <c r="I27" s="3">
-        <v>6600</v>
-      </c>
       <c r="J27" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K27" s="3">
         <v>7100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>13800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>13800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,70 +2609,73 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
       </c>
       <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-200</v>
       </c>
       <c r="V32" s="3">
         <v>-200</v>
       </c>
       <c r="W32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X32" s="3">
         <v>-100</v>
@@ -2615,7 +2684,7 @@
         <v>-100</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
@@ -2623,88 +2692,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-11400</v>
+        <v>-15100</v>
       </c>
       <c r="E33" s="3">
-        <v>-5700</v>
+        <v>-11300</v>
       </c>
       <c r="F33" s="3">
-        <v>-7200</v>
+        <v>-5600</v>
       </c>
       <c r="G33" s="3">
-        <v>3300</v>
+        <v>-7100</v>
       </c>
       <c r="H33" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-4200</v>
       </c>
-      <c r="I33" s="3">
-        <v>6600</v>
-      </c>
       <c r="J33" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K33" s="3">
         <v>7100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>13800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>13800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-9100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-11400</v>
+        <v>-15100</v>
       </c>
       <c r="E35" s="3">
-        <v>-5700</v>
+        <v>-11300</v>
       </c>
       <c r="F35" s="3">
-        <v>-7200</v>
+        <v>-5600</v>
       </c>
       <c r="G35" s="3">
-        <v>3300</v>
+        <v>-7100</v>
       </c>
       <c r="H35" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-4200</v>
       </c>
-      <c r="I35" s="3">
-        <v>6600</v>
-      </c>
       <c r="J35" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K35" s="3">
         <v>7100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>13800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>13800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-9100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,68 +3093,69 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>109200</v>
+        <v>104800</v>
       </c>
       <c r="E41" s="3">
-        <v>117200</v>
+        <v>108100</v>
       </c>
       <c r="F41" s="3">
-        <v>124700</v>
+        <v>116000</v>
       </c>
       <c r="G41" s="3">
-        <v>84300</v>
+        <v>123400</v>
       </c>
       <c r="H41" s="3">
-        <v>110800</v>
+        <v>83400</v>
       </c>
       <c r="I41" s="3">
-        <v>95900</v>
+        <v>109700</v>
       </c>
       <c r="J41" s="3">
+        <v>94900</v>
+      </c>
+      <c r="K41" s="3">
         <v>130200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>70200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>105400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>93500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>70300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>149700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>112000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>104200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>116200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>136600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>130600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>36900</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>16</v>
       </c>
@@ -3088,62 +3174,65 @@
       <c r="AB41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>49300</v>
+        <v>52400</v>
       </c>
       <c r="E42" s="3">
-        <v>35500</v>
+        <v>48800</v>
       </c>
       <c r="F42" s="3">
-        <v>63500</v>
+        <v>35100</v>
       </c>
       <c r="G42" s="3">
-        <v>126200</v>
+        <v>62800</v>
       </c>
       <c r="H42" s="3">
-        <v>84800</v>
+        <v>124900</v>
       </c>
       <c r="I42" s="3">
-        <v>74700</v>
+        <v>83900</v>
       </c>
       <c r="J42" s="3">
+        <v>74000</v>
+      </c>
+      <c r="K42" s="3">
         <v>101200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>98300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>26500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>54100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>117700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>57900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>58800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>47200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>52500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>24500</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>16</v>
       </c>
@@ -3159,8 +3248,8 @@
       <c r="Y42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
+      <c r="Z42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
@@ -3168,68 +3257,71 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>79100</v>
+        <v>89200</v>
       </c>
       <c r="E43" s="3">
-        <v>109300</v>
+        <v>78300</v>
       </c>
       <c r="F43" s="3">
-        <v>68300</v>
+        <v>108200</v>
       </c>
       <c r="G43" s="3">
-        <v>102200</v>
+        <v>67600</v>
       </c>
       <c r="H43" s="3">
-        <v>94600</v>
+        <v>101200</v>
       </c>
       <c r="I43" s="3">
-        <v>153600</v>
+        <v>93700</v>
       </c>
       <c r="J43" s="3">
+        <v>152100</v>
+      </c>
+      <c r="K43" s="3">
         <v>82000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>156500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>165700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>185000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>161400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>127000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>120000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>55500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>70400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>54300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>68000</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>16</v>
       </c>
@@ -3248,68 +3340,71 @@
       <c r="AB43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>86800</v>
+        <v>71400</v>
       </c>
       <c r="E44" s="3">
-        <v>79700</v>
+        <v>85900</v>
       </c>
       <c r="F44" s="3">
-        <v>90600</v>
+        <v>78900</v>
       </c>
       <c r="G44" s="3">
-        <v>82800</v>
+        <v>89700</v>
       </c>
       <c r="H44" s="3">
-        <v>77700</v>
+        <v>81900</v>
       </c>
       <c r="I44" s="3">
-        <v>80200</v>
+        <v>76900</v>
       </c>
       <c r="J44" s="3">
+        <v>79300</v>
+      </c>
+      <c r="K44" s="3">
         <v>85000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>61200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>72600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>60700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>58500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>64400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>69700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>65600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>45400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>33700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>28100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>23900</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>16</v>
       </c>
@@ -3328,68 +3423,71 @@
       <c r="AB44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35700</v>
+        <v>36900</v>
       </c>
       <c r="E45" s="3">
-        <v>33400</v>
+        <v>35300</v>
       </c>
       <c r="F45" s="3">
-        <v>38300</v>
+        <v>33000</v>
       </c>
       <c r="G45" s="3">
-        <v>27600</v>
+        <v>37900</v>
       </c>
       <c r="H45" s="3">
-        <v>27200</v>
+        <v>27300</v>
       </c>
       <c r="I45" s="3">
-        <v>26100</v>
+        <v>26900</v>
       </c>
       <c r="J45" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K45" s="3">
         <v>24900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>26900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>11100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>15100</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3408,68 +3506,71 @@
       <c r="AB45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>360000</v>
+        <v>354700</v>
       </c>
       <c r="E46" s="3">
-        <v>375100</v>
+        <v>356400</v>
       </c>
       <c r="F46" s="3">
-        <v>385300</v>
+        <v>371300</v>
       </c>
       <c r="G46" s="3">
-        <v>423100</v>
+        <v>381400</v>
       </c>
       <c r="H46" s="3">
-        <v>395200</v>
+        <v>418700</v>
       </c>
       <c r="I46" s="3">
-        <v>430500</v>
+        <v>391100</v>
       </c>
       <c r="J46" s="3">
+        <v>426100</v>
+      </c>
+      <c r="K46" s="3">
         <v>423300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>408100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>397000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>412000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>361700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>447700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>375300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>346400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>282800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>276300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>225600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>143900</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3488,8 +3589,11 @@
       <c r="AB46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3506,29 +3610,29 @@
         <v>4300</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>7200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7000</v>
-      </c>
-      <c r="L47" s="3">
-        <v>8800</v>
       </c>
       <c r="M47" s="3">
         <v>8800</v>
       </c>
       <c r="N47" s="3">
+        <v>8800</v>
+      </c>
+      <c r="O47" s="3">
         <v>9500</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3544,8 +3648,8 @@
       <c r="T47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3568,68 +3672,71 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>41600</v>
+        <v>44300</v>
       </c>
       <c r="E48" s="3">
-        <v>39500</v>
+        <v>41100</v>
       </c>
       <c r="F48" s="3">
-        <v>35600</v>
+        <v>39100</v>
       </c>
       <c r="G48" s="3">
-        <v>32500</v>
+        <v>35300</v>
       </c>
       <c r="H48" s="3">
-        <v>27100</v>
+        <v>32100</v>
       </c>
       <c r="I48" s="3">
-        <v>26100</v>
+        <v>26800</v>
       </c>
       <c r="J48" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K48" s="3">
         <v>22300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>500</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3648,31 +3755,34 @@
       <c r="AB48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="E49" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="F49" s="3">
         <v>1800</v>
       </c>
       <c r="G49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H49" s="3">
         <v>1700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1100</v>
       </c>
       <c r="K49" s="3">
         <v>1100</v>
@@ -3681,16 +3791,16 @@
         <v>1100</v>
       </c>
       <c r="M49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N49" s="3">
         <v>800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>700</v>
-      </c>
-      <c r="P49" s="3">
-        <v>400</v>
       </c>
       <c r="Q49" s="3">
         <v>400</v>
@@ -3699,13 +3809,13 @@
         <v>400</v>
       </c>
       <c r="S49" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>16</v>
+      <c r="U49" s="3">
+        <v>0</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>16</v>
@@ -3719,8 +3829,8 @@
       <c r="Y49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z49" s="3">
-        <v>0</v>
+      <c r="Z49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA49" s="3">
         <v>0</v>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,67 +4004,70 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14200</v>
+        <v>5000</v>
       </c>
       <c r="E52" s="3">
-        <v>12500</v>
+        <v>14100</v>
       </c>
       <c r="F52" s="3">
-        <v>10800</v>
+        <v>12400</v>
       </c>
       <c r="G52" s="3">
-        <v>9000</v>
+        <v>10700</v>
       </c>
       <c r="H52" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I52" s="3">
         <v>7100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1300</v>
-      </c>
-      <c r="T52" s="3">
-        <v>1500</v>
       </c>
       <c r="U52" s="3">
         <v>1500</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>16</v>
+      <c r="V52" s="3">
+        <v>1500</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>16</v>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,68 +4170,71 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>422200</v>
+        <v>410200</v>
       </c>
       <c r="E54" s="3">
+        <v>417900</v>
+      </c>
+      <c r="F54" s="3">
+        <v>428800</v>
+      </c>
+      <c r="G54" s="3">
         <v>433300</v>
       </c>
-      <c r="F54" s="3">
-        <v>437800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>470600</v>
-      </c>
       <c r="H54" s="3">
-        <v>430900</v>
+        <v>465800</v>
       </c>
       <c r="I54" s="3">
-        <v>463800</v>
+        <v>426500</v>
       </c>
       <c r="J54" s="3">
+        <v>459100</v>
+      </c>
+      <c r="K54" s="3">
         <v>460200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>442600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>433600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>441400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>388700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>465400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>389600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>359800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>289700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>279300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>227500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>145900</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>16</v>
       </c>
@@ -4128,8 +4253,11 @@
       <c r="AB54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,68 +4317,69 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>120500</v>
+        <v>120000</v>
       </c>
       <c r="E57" s="3">
-        <v>124300</v>
+        <v>119300</v>
       </c>
       <c r="F57" s="3">
-        <v>133400</v>
+        <v>123000</v>
       </c>
       <c r="G57" s="3">
-        <v>153500</v>
+        <v>132100</v>
       </c>
       <c r="H57" s="3">
-        <v>123500</v>
+        <v>152000</v>
       </c>
       <c r="I57" s="3">
-        <v>158300</v>
+        <v>122200</v>
       </c>
       <c r="J57" s="3">
+        <v>156700</v>
+      </c>
+      <c r="K57" s="3">
         <v>162000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>139400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>148900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>164200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>117200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>160600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>117100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>108000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>79300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>79700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>58100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>71500</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>16</v>
       </c>
@@ -4268,19 +4398,22 @@
       <c r="AB57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>800</v>
       </c>
       <c r="G58" s="3">
         <v>800</v>
@@ -4292,44 +4425,44 @@
         <v>800</v>
       </c>
       <c r="J58" s="3">
+        <v>800</v>
+      </c>
+      <c r="K58" s="3">
         <v>6900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>18600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>15200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>400</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>16</v>
       </c>
@@ -4348,68 +4481,71 @@
       <c r="AB58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>62000</v>
+        <v>64100</v>
       </c>
       <c r="E59" s="3">
-        <v>63300</v>
+        <v>61300</v>
       </c>
       <c r="F59" s="3">
-        <v>61100</v>
+        <v>62600</v>
       </c>
       <c r="G59" s="3">
-        <v>74700</v>
+        <v>60500</v>
       </c>
       <c r="H59" s="3">
-        <v>66800</v>
+        <v>73900</v>
       </c>
       <c r="I59" s="3">
-        <v>64100</v>
+        <v>66100</v>
       </c>
       <c r="J59" s="3">
+        <v>63500</v>
+      </c>
+      <c r="K59" s="3">
         <v>58500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>70800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>56400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>57600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>45200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>72200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>57000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>50300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>46500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>43200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>28200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>28100</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4428,68 +4564,71 @@
       <c r="AB59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>184400</v>
+        <v>188600</v>
       </c>
       <c r="E60" s="3">
-        <v>189400</v>
+        <v>182600</v>
       </c>
       <c r="F60" s="3">
-        <v>195300</v>
+        <v>187400</v>
       </c>
       <c r="G60" s="3">
-        <v>229000</v>
+        <v>193300</v>
       </c>
       <c r="H60" s="3">
-        <v>191000</v>
+        <v>226700</v>
       </c>
       <c r="I60" s="3">
-        <v>223200</v>
+        <v>189100</v>
       </c>
       <c r="J60" s="3">
+        <v>221000</v>
+      </c>
+      <c r="K60" s="3">
         <v>227400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>227500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>215500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>225900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>163100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>251400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>190100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>173500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>126200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>123700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>86600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>100000</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4508,28 +4647,31 @@
       <c r="AB60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14000</v>
+        <v>16300</v>
       </c>
       <c r="E61" s="3">
-        <v>13400</v>
+        <v>13900</v>
       </c>
       <c r="F61" s="3">
-        <v>9400</v>
+        <v>13300</v>
       </c>
       <c r="G61" s="3">
-        <v>2300</v>
+        <v>9300</v>
       </c>
       <c r="H61" s="3">
         <v>2300</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4588,67 +4730,70 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="E62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1700</v>
       </c>
-      <c r="F62" s="3">
-        <v>2100</v>
-      </c>
       <c r="G62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H62" s="3">
         <v>2200</v>
       </c>
-      <c r="H62" s="3">
-        <v>2300</v>
-      </c>
       <c r="I62" s="3">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="J62" s="3">
         <v>2500</v>
       </c>
       <c r="K62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L62" s="3">
         <v>2100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2700</v>
-      </c>
-      <c r="N62" s="3">
-        <v>2300</v>
       </c>
       <c r="O62" s="3">
         <v>2300</v>
       </c>
       <c r="P62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q62" s="3">
         <v>2000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>100</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>16</v>
+      <c r="V62" s="3">
+        <v>0</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>16</v>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,68 +5062,71 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200500</v>
+        <v>206500</v>
       </c>
       <c r="E66" s="3">
-        <v>204400</v>
+        <v>198400</v>
       </c>
       <c r="F66" s="3">
-        <v>207200</v>
+        <v>202300</v>
       </c>
       <c r="G66" s="3">
-        <v>234000</v>
+        <v>205000</v>
       </c>
       <c r="H66" s="3">
-        <v>196200</v>
+        <v>231600</v>
       </c>
       <c r="I66" s="3">
-        <v>226300</v>
+        <v>194200</v>
       </c>
       <c r="J66" s="3">
+        <v>224000</v>
+      </c>
+      <c r="K66" s="3">
         <v>230400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>230000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>218500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>229400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>166300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>254600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>192900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>176800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>128400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>124200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>87000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>100100</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4988,8 +5145,11 @@
       <c r="AB66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5235,11 +5402,11 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>22600</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,68 +5508,71 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>40300</v>
+        <v>24800</v>
       </c>
       <c r="E72" s="3">
-        <v>51700</v>
+        <v>39900</v>
       </c>
       <c r="F72" s="3">
-        <v>57400</v>
+        <v>51200</v>
       </c>
       <c r="G72" s="3">
-        <v>64600</v>
+        <v>56800</v>
       </c>
       <c r="H72" s="3">
-        <v>61400</v>
+        <v>64000</v>
       </c>
       <c r="I72" s="3">
-        <v>65600</v>
+        <v>60700</v>
       </c>
       <c r="J72" s="3">
+        <v>64900</v>
+      </c>
+      <c r="K72" s="3">
         <v>58900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>50500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>37600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>32500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>33300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>30100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-21100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13000</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5418,8 +5591,11 @@
       <c r="AB72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,68 +5840,71 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>221700</v>
+        <v>203700</v>
       </c>
       <c r="E76" s="3">
-        <v>228900</v>
+        <v>219400</v>
       </c>
       <c r="F76" s="3">
-        <v>230700</v>
+        <v>226600</v>
       </c>
       <c r="G76" s="3">
-        <v>236600</v>
+        <v>228300</v>
       </c>
       <c r="H76" s="3">
-        <v>234700</v>
+        <v>234200</v>
       </c>
       <c r="I76" s="3">
-        <v>237500</v>
+        <v>232300</v>
       </c>
       <c r="J76" s="3">
+        <v>235100</v>
+      </c>
+      <c r="K76" s="3">
         <v>229800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>212600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>215200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>212000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>222500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>210800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>196800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>183000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>161300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>155100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>140500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>23200</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5738,8 +5923,11 @@
       <c r="AB76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-11400</v>
+        <v>-15100</v>
       </c>
       <c r="E81" s="3">
-        <v>-5700</v>
+        <v>-11300</v>
       </c>
       <c r="F81" s="3">
-        <v>-7200</v>
+        <v>-5600</v>
       </c>
       <c r="G81" s="3">
-        <v>3300</v>
+        <v>-7100</v>
       </c>
       <c r="H81" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-4200</v>
       </c>
-      <c r="I81" s="3">
-        <v>6600</v>
-      </c>
       <c r="J81" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K81" s="3">
         <v>7100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>13800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>13800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-9100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6063,8 +6261,8 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>16</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>16</v>
@@ -6084,8 +6282,8 @@
       <c r="Y83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z83" s="3">
-        <v>0</v>
+      <c r="Z83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA83" s="3">
         <v>0</v>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6706,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6543,8 +6759,8 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>16</v>
+      <c r="S89" s="3">
+        <v>0</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>16</v>
@@ -6564,8 +6780,8 @@
       <c r="Y89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
+      <c r="Z89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA89" s="3">
         <v>0</v>
@@ -6573,8 +6789,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6653,8 +6873,8 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>16</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>16</v>
@@ -6674,8 +6894,8 @@
       <c r="Y91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6893,8 +7122,8 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>16</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>16</v>
@@ -6914,8 +7143,8 @@
       <c r="Y94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
+      <c r="Z94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7323,8 +7568,8 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>16</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>16</v>
@@ -7344,8 +7589,8 @@
       <c r="Y100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
+      <c r="Z100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
@@ -7353,8 +7598,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7403,8 +7651,8 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>16</v>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>16</v>
@@ -7424,8 +7672,8 @@
       <c r="Y101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
+      <c r="Z101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA101" s="3">
         <v>0</v>
@@ -7433,8 +7681,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7483,8 +7734,8 @@
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>16</v>
+      <c r="S102" s="3">
+        <v>0</v>
       </c>
       <c r="T102" s="3" t="s">
         <v>16</v>
@@ -7504,13 +7755,16 @@
       <c r="Y102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
+      <c r="Z102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AA102" s="3">
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>VIOT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>129400</v>
+        <v>179700</v>
       </c>
       <c r="E8" s="3">
-        <v>97500</v>
+        <v>125400</v>
       </c>
       <c r="F8" s="3">
-        <v>131400</v>
+        <v>94500</v>
       </c>
       <c r="G8" s="3">
-        <v>101200</v>
+        <v>127300</v>
       </c>
       <c r="H8" s="3">
-        <v>189500</v>
+        <v>98100</v>
       </c>
       <c r="I8" s="3">
-        <v>150200</v>
+        <v>183600</v>
       </c>
       <c r="J8" s="3">
+        <v>145600</v>
+      </c>
+      <c r="K8" s="3">
         <v>235800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>180300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>262900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>219100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>248200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>120800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>268200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>164700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>181000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>102900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>138800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>79100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>101800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>47500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>58500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>31000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>40200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>19500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>17300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>9100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>99600</v>
+        <v>140200</v>
       </c>
       <c r="E9" s="3">
-        <v>78200</v>
+        <v>96600</v>
       </c>
       <c r="F9" s="3">
-        <v>102300</v>
+        <v>75800</v>
       </c>
       <c r="G9" s="3">
-        <v>74600</v>
+        <v>99200</v>
       </c>
       <c r="H9" s="3">
-        <v>140900</v>
+        <v>72400</v>
       </c>
       <c r="I9" s="3">
-        <v>116100</v>
+        <v>136600</v>
       </c>
       <c r="J9" s="3">
+        <v>112500</v>
+      </c>
+      <c r="K9" s="3">
         <v>185800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>142300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>201200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>181600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>212700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>98100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>214800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>128000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>132900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>74100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>101300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>55300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>74300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>33400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>39500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>21000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>28300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>13900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>12600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29800</v>
+        <v>39500</v>
       </c>
       <c r="E10" s="3">
-        <v>19300</v>
+        <v>28900</v>
       </c>
       <c r="F10" s="3">
-        <v>29100</v>
+        <v>18700</v>
       </c>
       <c r="G10" s="3">
-        <v>26600</v>
+        <v>28200</v>
       </c>
       <c r="H10" s="3">
-        <v>48500</v>
+        <v>25800</v>
       </c>
       <c r="I10" s="3">
-        <v>34100</v>
+        <v>47000</v>
       </c>
       <c r="J10" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K10" s="3">
         <v>50000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>38100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>61800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>37500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>35500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>22700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>53400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>36700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>48100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>28800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>37500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>23800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>27500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>14000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>19000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>10000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>11900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>5600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>4800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1072,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10600</v>
+        <v>15100</v>
       </c>
       <c r="E12" s="3">
-        <v>9500</v>
+        <v>10300</v>
       </c>
       <c r="F12" s="3">
+        <v>9200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>13500</v>
+      </c>
+      <c r="J12" s="3">
         <v>11300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>11200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>13900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>11700</v>
-      </c>
-      <c r="J12" s="3">
-        <v>9400</v>
       </c>
       <c r="K12" s="3">
         <v>9400</v>
       </c>
       <c r="L12" s="3">
+        <v>9400</v>
+      </c>
+      <c r="M12" s="3">
         <v>13000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>9300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>4700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>4000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>3000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>3800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>3300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1300</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>137900</v>
+        <v>189100</v>
       </c>
       <c r="E17" s="3">
-        <v>111300</v>
+        <v>133600</v>
       </c>
       <c r="F17" s="3">
-        <v>139300</v>
+        <v>107900</v>
       </c>
       <c r="G17" s="3">
-        <v>110500</v>
+        <v>135000</v>
       </c>
       <c r="H17" s="3">
-        <v>188200</v>
+        <v>107100</v>
       </c>
       <c r="I17" s="3">
-        <v>155700</v>
+        <v>182400</v>
       </c>
       <c r="J17" s="3">
+        <v>150900</v>
+      </c>
+      <c r="K17" s="3">
         <v>229100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>173600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>245400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>213700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>246900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>118800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>253900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>152000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>165600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>97200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>130100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>87400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>95100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>42800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>50600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>26400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>37000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>17900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>16100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>8900</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-8400</v>
+        <v>-9400</v>
       </c>
       <c r="E18" s="3">
-        <v>-13800</v>
+        <v>-8200</v>
       </c>
       <c r="F18" s="3">
-        <v>-7900</v>
+        <v>-13400</v>
       </c>
       <c r="G18" s="3">
-        <v>-9300</v>
+        <v>-7700</v>
       </c>
       <c r="H18" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="K18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="L18" s="3">
+        <v>6800</v>
+      </c>
+      <c r="M18" s="3">
+        <v>17600</v>
+      </c>
+      <c r="N18" s="3">
+        <v>5400</v>
+      </c>
+      <c r="O18" s="3">
         <v>1300</v>
       </c>
-      <c r="I18" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="P18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>14300</v>
+      </c>
+      <c r="R18" s="3">
+        <v>12700</v>
+      </c>
+      <c r="S18" s="3">
+        <v>15400</v>
+      </c>
+      <c r="T18" s="3">
+        <v>5600</v>
+      </c>
+      <c r="U18" s="3">
+        <v>8700</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="W18" s="3">
         <v>6700</v>
       </c>
-      <c r="K18" s="3">
-        <v>6800</v>
-      </c>
-      <c r="L18" s="3">
-        <v>17600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>5400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P18" s="3">
-        <v>14300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>12700</v>
-      </c>
-      <c r="R18" s="3">
-        <v>15400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>5600</v>
-      </c>
-      <c r="T18" s="3">
-        <v>8700</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="V18" s="3">
-        <v>6700</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>7900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,73 +1649,74 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
-      </c>
-      <c r="E20" s="3">
-        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
       </c>
       <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>500</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="O20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P20" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>900</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
+        <v>700</v>
+      </c>
+      <c r="T20" s="3">
         <v>1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
-        <v>700</v>
-      </c>
-      <c r="S20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="T20" s="3">
-        <v>500</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
-      </c>
-      <c r="V20" s="3">
-        <v>200</v>
       </c>
       <c r="W20" s="3">
         <v>200</v>
       </c>
       <c r="X20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y20" s="3">
         <v>100</v>
@@ -1691,7 +1725,7 @@
         <v>100</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
@@ -1699,8 +1733,11 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1749,41 +1786,44 @@
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="3">
         <v>7500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9600</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="3">
         <v>7000</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="3">
         <v>8200</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA21" s="3">
         <v>3500</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AB21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AC21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1865,174 +1905,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="H23" s="3">
         <v>-8000</v>
       </c>
-      <c r="E23" s="3">
-        <v>-13600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2900</v>
-      </c>
       <c r="I23" s="3">
-        <v>-5000</v>
+        <v>2800</v>
       </c>
       <c r="J23" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="K23" s="3">
         <v>7900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>19000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>13200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>16100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>8000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>3300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7200</v>
+        <v>900</v>
       </c>
       <c r="E24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1500</v>
       </c>
-      <c r="G24" s="3">
-        <v>-1100</v>
-      </c>
       <c r="H24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>1900</v>
       </c>
       <c r="R24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S24" s="3">
         <v>2200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15300</v>
+        <v>-7900</v>
       </c>
       <c r="E26" s="3">
-        <v>-11500</v>
+        <v>-14800</v>
       </c>
       <c r="F26" s="3">
-        <v>-6200</v>
+        <v>-11200</v>
       </c>
       <c r="G26" s="3">
-        <v>-7200</v>
+        <v>-6000</v>
       </c>
       <c r="H26" s="3">
-        <v>3200</v>
+        <v>-7000</v>
       </c>
       <c r="I26" s="3">
-        <v>-4100</v>
+        <v>3100</v>
       </c>
       <c r="J26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K26" s="3">
         <v>6600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>13900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>13900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>8000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-8400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>600</v>
       </c>
-      <c r="AC26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-15100</v>
+        <v>-7600</v>
       </c>
       <c r="E27" s="3">
-        <v>-11300</v>
+        <v>-14700</v>
       </c>
       <c r="F27" s="3">
-        <v>-5600</v>
+        <v>-11000</v>
       </c>
       <c r="G27" s="3">
-        <v>-7100</v>
+        <v>-5500</v>
       </c>
       <c r="H27" s="3">
-        <v>3200</v>
+        <v>-6900</v>
       </c>
       <c r="I27" s="3">
-        <v>-4200</v>
+        <v>3100</v>
       </c>
       <c r="J27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K27" s="3">
         <v>6500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>13800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>13800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>8000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-9100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,73 +2679,76 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
       </c>
       <c r="G32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="O32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="S32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-200</v>
       </c>
       <c r="W32" s="3">
         <v>-200</v>
       </c>
       <c r="X32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y32" s="3">
         <v>-100</v>
@@ -2687,7 +2757,7 @@
         <v>-100</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
@@ -2695,91 +2765,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-15100</v>
+        <v>-7600</v>
       </c>
       <c r="E33" s="3">
-        <v>-11300</v>
+        <v>-14700</v>
       </c>
       <c r="F33" s="3">
-        <v>-5600</v>
+        <v>-11000</v>
       </c>
       <c r="G33" s="3">
-        <v>-7100</v>
+        <v>-5500</v>
       </c>
       <c r="H33" s="3">
-        <v>3200</v>
+        <v>-6900</v>
       </c>
       <c r="I33" s="3">
-        <v>-4200</v>
+        <v>3100</v>
       </c>
       <c r="J33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K33" s="3">
         <v>6500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>15400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>13800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>13800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>8000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-9100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-15100</v>
+        <v>-7600</v>
       </c>
       <c r="E35" s="3">
-        <v>-11300</v>
+        <v>-14700</v>
       </c>
       <c r="F35" s="3">
-        <v>-5600</v>
+        <v>-11000</v>
       </c>
       <c r="G35" s="3">
-        <v>-7100</v>
+        <v>-5500</v>
       </c>
       <c r="H35" s="3">
-        <v>3200</v>
+        <v>-6900</v>
       </c>
       <c r="I35" s="3">
-        <v>-4200</v>
+        <v>3100</v>
       </c>
       <c r="J35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K35" s="3">
         <v>6500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>15400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>13800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>13800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>8000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-9100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,71 +3180,72 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>104800</v>
+        <v>95300</v>
       </c>
       <c r="E41" s="3">
-        <v>108100</v>
+        <v>101600</v>
       </c>
       <c r="F41" s="3">
-        <v>116000</v>
+        <v>104700</v>
       </c>
       <c r="G41" s="3">
-        <v>123400</v>
+        <v>112500</v>
       </c>
       <c r="H41" s="3">
-        <v>83400</v>
+        <v>119700</v>
       </c>
       <c r="I41" s="3">
-        <v>109700</v>
+        <v>80900</v>
       </c>
       <c r="J41" s="3">
+        <v>106300</v>
+      </c>
+      <c r="K41" s="3">
         <v>94900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>130200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>70200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>105400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>93500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>70300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>149700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>112000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>104200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>116200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>136600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>130600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>36900</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>16</v>
       </c>
@@ -3177,65 +3264,68 @@
       <c r="AC41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>52400</v>
+        <v>44700</v>
       </c>
       <c r="E42" s="3">
-        <v>48800</v>
+        <v>50800</v>
       </c>
       <c r="F42" s="3">
-        <v>35100</v>
+        <v>47300</v>
       </c>
       <c r="G42" s="3">
-        <v>62800</v>
+        <v>34000</v>
       </c>
       <c r="H42" s="3">
-        <v>124900</v>
+        <v>60900</v>
       </c>
       <c r="I42" s="3">
-        <v>83900</v>
+        <v>121100</v>
       </c>
       <c r="J42" s="3">
+        <v>81400</v>
+      </c>
+      <c r="K42" s="3">
         <v>74000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>101200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>98300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>26500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>54100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>117700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>57900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>58800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>47200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>52500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>24500</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>16</v>
       </c>
@@ -3251,8 +3341,8 @@
       <c r="Z42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA42" s="3">
-        <v>0</v>
+      <c r="AA42" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AB42" s="3">
         <v>0</v>
@@ -3260,71 +3350,74 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>89200</v>
+        <v>91600</v>
       </c>
       <c r="E43" s="3">
-        <v>78300</v>
+        <v>86400</v>
       </c>
       <c r="F43" s="3">
-        <v>108200</v>
+        <v>75900</v>
       </c>
       <c r="G43" s="3">
-        <v>67600</v>
+        <v>104900</v>
       </c>
       <c r="H43" s="3">
-        <v>101200</v>
+        <v>65500</v>
       </c>
       <c r="I43" s="3">
-        <v>93700</v>
+        <v>98100</v>
       </c>
       <c r="J43" s="3">
+        <v>90800</v>
+      </c>
+      <c r="K43" s="3">
         <v>152100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>82000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>156500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>165700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>185000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>100200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>161400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>127000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>120000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>55500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>70400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>54300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>68000</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>16</v>
       </c>
@@ -3343,71 +3436,74 @@
       <c r="AC43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>71400</v>
+        <v>70200</v>
       </c>
       <c r="E44" s="3">
-        <v>85900</v>
+        <v>69200</v>
       </c>
       <c r="F44" s="3">
-        <v>78900</v>
+        <v>83300</v>
       </c>
       <c r="G44" s="3">
-        <v>89700</v>
+        <v>76500</v>
       </c>
       <c r="H44" s="3">
-        <v>81900</v>
+        <v>86900</v>
       </c>
       <c r="I44" s="3">
-        <v>76900</v>
+        <v>79400</v>
       </c>
       <c r="J44" s="3">
+        <v>74600</v>
+      </c>
+      <c r="K44" s="3">
         <v>79300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>85000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>61200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>72600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>60700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>58500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>64400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>69700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>65600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>45400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>33700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>28100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>23900</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X44" s="3" t="s">
         <v>16</v>
       </c>
@@ -3426,71 +3522,74 @@
       <c r="AC44" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>36900</v>
+        <v>45600</v>
       </c>
       <c r="E45" s="3">
-        <v>35300</v>
+        <v>35800</v>
       </c>
       <c r="F45" s="3">
-        <v>33000</v>
+        <v>34200</v>
       </c>
       <c r="G45" s="3">
-        <v>37900</v>
+        <v>32000</v>
       </c>
       <c r="H45" s="3">
-        <v>27300</v>
+        <v>36700</v>
       </c>
       <c r="I45" s="3">
+        <v>26400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>26100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>25800</v>
+      </c>
+      <c r="L45" s="3">
+        <v>24900</v>
+      </c>
+      <c r="M45" s="3">
+        <v>22000</v>
+      </c>
+      <c r="N45" s="3">
         <v>26900</v>
       </c>
-      <c r="J45" s="3">
-        <v>25800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>24900</v>
-      </c>
-      <c r="L45" s="3">
-        <v>22000</v>
-      </c>
-      <c r="M45" s="3">
-        <v>26900</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>11100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>15100</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3509,71 +3608,74 @@
       <c r="AC45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>354700</v>
+        <v>347500</v>
       </c>
       <c r="E46" s="3">
-        <v>356400</v>
+        <v>343800</v>
       </c>
       <c r="F46" s="3">
-        <v>371300</v>
+        <v>345400</v>
       </c>
       <c r="G46" s="3">
-        <v>381400</v>
+        <v>359900</v>
       </c>
       <c r="H46" s="3">
-        <v>418700</v>
+        <v>369700</v>
       </c>
       <c r="I46" s="3">
-        <v>391100</v>
+        <v>405900</v>
       </c>
       <c r="J46" s="3">
+        <v>379100</v>
+      </c>
+      <c r="K46" s="3">
         <v>426100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>423300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>408100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>397000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>412000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>361700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>447700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>375300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>346400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>282800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>276300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>225600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>143900</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3592,50 +3694,53 @@
       <c r="AC46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="E47" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="F47" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="G47" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="H47" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>7200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7000</v>
-      </c>
-      <c r="M47" s="3">
-        <v>8800</v>
       </c>
       <c r="N47" s="3">
         <v>8800</v>
       </c>
       <c r="O47" s="3">
+        <v>8800</v>
+      </c>
+      <c r="P47" s="3">
         <v>9500</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3651,8 +3756,8 @@
       <c r="U47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3675,71 +3780,74 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>44300</v>
+        <v>44600</v>
       </c>
       <c r="E48" s="3">
-        <v>41100</v>
+        <v>42900</v>
       </c>
       <c r="F48" s="3">
-        <v>39100</v>
+        <v>39900</v>
       </c>
       <c r="G48" s="3">
-        <v>35300</v>
+        <v>37900</v>
       </c>
       <c r="H48" s="3">
-        <v>32100</v>
+        <v>34200</v>
       </c>
       <c r="I48" s="3">
-        <v>26800</v>
+        <v>31200</v>
       </c>
       <c r="J48" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K48" s="3">
         <v>25800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>500</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3758,34 +3866,37 @@
       <c r="AC48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2000</v>
       </c>
-      <c r="F49" s="3">
-        <v>1800</v>
-      </c>
       <c r="G49" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H49" s="3">
         <v>1700</v>
       </c>
       <c r="I49" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="J49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1300</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1100</v>
       </c>
       <c r="L49" s="3">
         <v>1100</v>
@@ -3794,16 +3905,16 @@
         <v>1100</v>
       </c>
       <c r="N49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O49" s="3">
         <v>800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>700</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>400</v>
       </c>
       <c r="R49" s="3">
         <v>400</v>
@@ -3812,13 +3923,13 @@
         <v>400</v>
       </c>
       <c r="T49" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>16</v>
+      <c r="V49" s="3">
+        <v>0</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>16</v>
@@ -3832,8 +3943,8 @@
       <c r="Z49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA49" s="3">
-        <v>0</v>
+      <c r="AA49" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AB49" s="3">
         <v>0</v>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,70 +4124,73 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="E52" s="3">
-        <v>14100</v>
+        <v>4900</v>
       </c>
       <c r="F52" s="3">
-        <v>12400</v>
+        <v>13600</v>
       </c>
       <c r="G52" s="3">
-        <v>10700</v>
+        <v>12000</v>
       </c>
       <c r="H52" s="3">
-        <v>8900</v>
+        <v>10300</v>
       </c>
       <c r="I52" s="3">
-        <v>7100</v>
+        <v>8600</v>
       </c>
       <c r="J52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K52" s="3">
         <v>5900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1300</v>
-      </c>
-      <c r="U52" s="3">
-        <v>1500</v>
       </c>
       <c r="V52" s="3">
         <v>1500</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>16</v>
+      <c r="W52" s="3">
+        <v>1500</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>16</v>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,71 +4296,74 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>410200</v>
+        <v>401500</v>
       </c>
       <c r="E54" s="3">
-        <v>417900</v>
+        <v>397600</v>
       </c>
       <c r="F54" s="3">
-        <v>428800</v>
+        <v>405000</v>
       </c>
       <c r="G54" s="3">
-        <v>433300</v>
+        <v>415600</v>
       </c>
       <c r="H54" s="3">
-        <v>465800</v>
+        <v>420000</v>
       </c>
       <c r="I54" s="3">
-        <v>426500</v>
+        <v>451500</v>
       </c>
       <c r="J54" s="3">
+        <v>413400</v>
+      </c>
+      <c r="K54" s="3">
         <v>459100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>460200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>442600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>433600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>441400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>388700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>465400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>389600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>359800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>289700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>279300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>227500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>145900</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>16</v>
       </c>
@@ -4256,8 +4382,11 @@
       <c r="AC54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,71 +4448,72 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>120000</v>
+        <v>113200</v>
       </c>
       <c r="E57" s="3">
+        <v>116300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>115600</v>
+      </c>
+      <c r="G57" s="3">
         <v>119300</v>
       </c>
-      <c r="F57" s="3">
-        <v>123000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>132100</v>
-      </c>
       <c r="H57" s="3">
-        <v>152000</v>
+        <v>128000</v>
       </c>
       <c r="I57" s="3">
-        <v>122200</v>
+        <v>147300</v>
       </c>
       <c r="J57" s="3">
+        <v>118400</v>
+      </c>
+      <c r="K57" s="3">
         <v>156700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>162000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>139400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>148900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>164200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>117200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>160600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>117100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>108000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>79300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>79700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>58100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>71500</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>16</v>
       </c>
@@ -4401,71 +4532,74 @@
       <c r="AC57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4500</v>
+        <v>17900</v>
       </c>
       <c r="E58" s="3">
-        <v>2000</v>
+        <v>4400</v>
       </c>
       <c r="F58" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G58" s="3">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="H58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J58" s="3">
         <v>800</v>
       </c>
       <c r="K58" s="3">
+        <v>800</v>
+      </c>
+      <c r="L58" s="3">
         <v>6900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>18600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>15900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>15200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>400</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X58" s="3" t="s">
         <v>16</v>
       </c>
@@ -4484,71 +4618,74 @@
       <c r="AC58" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>64100</v>
+        <v>59200</v>
       </c>
       <c r="E59" s="3">
-        <v>61300</v>
+        <v>62200</v>
       </c>
       <c r="F59" s="3">
-        <v>62600</v>
+        <v>59500</v>
       </c>
       <c r="G59" s="3">
-        <v>60500</v>
+        <v>60700</v>
       </c>
       <c r="H59" s="3">
-        <v>73900</v>
+        <v>58700</v>
       </c>
       <c r="I59" s="3">
-        <v>66100</v>
+        <v>71600</v>
       </c>
       <c r="J59" s="3">
+        <v>64000</v>
+      </c>
+      <c r="K59" s="3">
         <v>63500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>58500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>70800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>56400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>57600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>45200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>72200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>57000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>50300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>46500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>43200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>28200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>28100</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4567,71 +4704,74 @@
       <c r="AC59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>188600</v>
+        <v>190200</v>
       </c>
       <c r="E60" s="3">
-        <v>182600</v>
+        <v>182800</v>
       </c>
       <c r="F60" s="3">
+        <v>176900</v>
+      </c>
+      <c r="G60" s="3">
+        <v>181700</v>
+      </c>
+      <c r="H60" s="3">
         <v>187400</v>
       </c>
-      <c r="G60" s="3">
-        <v>193300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>226700</v>
-      </c>
       <c r="I60" s="3">
-        <v>189100</v>
+        <v>219700</v>
       </c>
       <c r="J60" s="3">
+        <v>183200</v>
+      </c>
+      <c r="K60" s="3">
         <v>221000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>227400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>227500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>215500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>225900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>163100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>251400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>190100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>173500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>126200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>123700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>86600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>100000</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4650,31 +4790,34 @@
       <c r="AC60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16300</v>
+        <v>17800</v>
       </c>
       <c r="E61" s="3">
-        <v>13900</v>
+        <v>15800</v>
       </c>
       <c r="F61" s="3">
-        <v>13300</v>
+        <v>13500</v>
       </c>
       <c r="G61" s="3">
-        <v>9300</v>
+        <v>12900</v>
       </c>
       <c r="H61" s="3">
-        <v>2300</v>
+        <v>9000</v>
       </c>
       <c r="I61" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -4733,70 +4876,73 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3">
         <v>2100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2300</v>
       </c>
-      <c r="F62" s="3">
-        <v>1700</v>
-      </c>
       <c r="G62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H62" s="3">
         <v>2000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J62" s="3">
         <v>2200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2500</v>
       </c>
       <c r="K62" s="3">
         <v>2500</v>
       </c>
       <c r="L62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M62" s="3">
         <v>2100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2700</v>
-      </c>
-      <c r="O62" s="3">
-        <v>2300</v>
       </c>
       <c r="P62" s="3">
         <v>2300</v>
       </c>
       <c r="Q62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R62" s="3">
         <v>2000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>100</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>16</v>
+      <c r="W62" s="3">
+        <v>0</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>16</v>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,71 +5220,74 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>206500</v>
+        <v>209000</v>
       </c>
       <c r="E66" s="3">
-        <v>198400</v>
+        <v>200200</v>
       </c>
       <c r="F66" s="3">
-        <v>202300</v>
+        <v>192300</v>
       </c>
       <c r="G66" s="3">
-        <v>205000</v>
+        <v>196100</v>
       </c>
       <c r="H66" s="3">
-        <v>231600</v>
+        <v>198700</v>
       </c>
       <c r="I66" s="3">
-        <v>194200</v>
+        <v>224500</v>
       </c>
       <c r="J66" s="3">
+        <v>188200</v>
+      </c>
+      <c r="K66" s="3">
         <v>224000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>230400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>230000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>218500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>229400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>166300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>254600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>192900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>176800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>128400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>124200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>87000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>100100</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>16</v>
       </c>
@@ -5148,8 +5306,11 @@
       <c r="AC66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5405,11 +5573,11 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
         <v>22600</v>
       </c>
-      <c r="W70" s="3">
-        <v>0</v>
-      </c>
       <c r="X70" s="3">
         <v>0</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,71 +5682,74 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24800</v>
+        <v>16500</v>
       </c>
       <c r="E72" s="3">
-        <v>39900</v>
+        <v>24000</v>
       </c>
       <c r="F72" s="3">
-        <v>51200</v>
+        <v>38700</v>
       </c>
       <c r="G72" s="3">
-        <v>56800</v>
+        <v>49600</v>
       </c>
       <c r="H72" s="3">
-        <v>64000</v>
+        <v>55100</v>
       </c>
       <c r="I72" s="3">
-        <v>60700</v>
+        <v>62000</v>
       </c>
       <c r="J72" s="3">
+        <v>58900</v>
+      </c>
+      <c r="K72" s="3">
         <v>64900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>58900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>50500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>37600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>32500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>33300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>30100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>16500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-21100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-13000</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5594,8 +5768,11 @@
       <c r="AC72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,71 +6026,74 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>203700</v>
+        <v>192400</v>
       </c>
       <c r="E76" s="3">
-        <v>219400</v>
+        <v>197400</v>
       </c>
       <c r="F76" s="3">
-        <v>226600</v>
+        <v>212700</v>
       </c>
       <c r="G76" s="3">
-        <v>228300</v>
+        <v>219600</v>
       </c>
       <c r="H76" s="3">
-        <v>234200</v>
+        <v>221300</v>
       </c>
       <c r="I76" s="3">
-        <v>232300</v>
+        <v>227000</v>
       </c>
       <c r="J76" s="3">
+        <v>225200</v>
+      </c>
+      <c r="K76" s="3">
         <v>235100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>229800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>212600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>215200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>212000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>222500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>210800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>196800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>183000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>161300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>155100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>140500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>23200</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5926,8 +6112,11 @@
       <c r="AC76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-15100</v>
+        <v>-7600</v>
       </c>
       <c r="E81" s="3">
-        <v>-11300</v>
+        <v>-14700</v>
       </c>
       <c r="F81" s="3">
-        <v>-5600</v>
+        <v>-11000</v>
       </c>
       <c r="G81" s="3">
-        <v>-7100</v>
+        <v>-5500</v>
       </c>
       <c r="H81" s="3">
-        <v>3200</v>
+        <v>-6900</v>
       </c>
       <c r="I81" s="3">
-        <v>-4200</v>
+        <v>3100</v>
       </c>
       <c r="J81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K81" s="3">
         <v>6500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>15400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>13800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>13800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>8000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-9100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6264,8 +6463,8 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>16</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>16</v>
@@ -6285,8 +6484,8 @@
       <c r="Z83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA83" s="3">
-        <v>0</v>
+      <c r="AA83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AB83" s="3">
         <v>0</v>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,8 +6923,11 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6762,8 +6979,8 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>16</v>
+      <c r="T89" s="3">
+        <v>0</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>16</v>
@@ -6783,8 +7000,8 @@
       <c r="Z89" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
+      <c r="AA89" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AB89" s="3">
         <v>0</v>
@@ -6792,8 +7009,11 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6876,8 +7097,8 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>16</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>16</v>
@@ -6897,8 +7118,8 @@
       <c r="Z91" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
+      <c r="AA91" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AB91" s="3">
         <v>0</v>
@@ -6906,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7125,8 +7355,8 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>16</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>16</v>
@@ -7146,8 +7376,8 @@
       <c r="Z94" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
+      <c r="AA94" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AB94" s="3">
         <v>0</v>
@@ -7155,8 +7385,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +7761,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7571,8 +7817,8 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>16</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>16</v>
@@ -7592,8 +7838,8 @@
       <c r="Z100" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
+      <c r="AA100" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AB100" s="3">
         <v>0</v>
@@ -7601,8 +7847,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7654,8 +7903,8 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>16</v>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>16</v>
@@ -7675,8 +7924,8 @@
       <c r="Z101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
+      <c r="AA101" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AB101" s="3">
         <v>0</v>
@@ -7684,8 +7933,11 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7737,8 +7989,8 @@
       <c r="S102" s="3">
         <v>0</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>16</v>
+      <c r="T102" s="3">
+        <v>0</v>
       </c>
       <c r="U102" s="3" t="s">
         <v>16</v>
@@ -7758,13 +8010,16 @@
       <c r="Z102" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA102" s="3">
-        <v>0</v>
+      <c r="AA102" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AB102" s="3">
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIOT_QTR_FIN.xlsx
@@ -789,25 +789,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>179700</v>
+        <v>180100</v>
       </c>
       <c r="E8" s="3">
-        <v>125400</v>
+        <v>125700</v>
       </c>
       <c r="F8" s="3">
-        <v>94500</v>
+        <v>94700</v>
       </c>
       <c r="G8" s="3">
-        <v>127300</v>
+        <v>127600</v>
       </c>
       <c r="H8" s="3">
-        <v>98100</v>
+        <v>98300</v>
       </c>
       <c r="I8" s="3">
-        <v>183600</v>
+        <v>184000</v>
       </c>
       <c r="J8" s="3">
-        <v>145600</v>
+        <v>145900</v>
       </c>
       <c r="K8" s="3">
         <v>235800</v>
@@ -875,25 +875,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>140200</v>
+        <v>140500</v>
       </c>
       <c r="E9" s="3">
-        <v>96600</v>
+        <v>96800</v>
       </c>
       <c r="F9" s="3">
-        <v>75800</v>
+        <v>75900</v>
       </c>
       <c r="G9" s="3">
-        <v>99200</v>
+        <v>99400</v>
       </c>
       <c r="H9" s="3">
-        <v>72400</v>
+        <v>72500</v>
       </c>
       <c r="I9" s="3">
-        <v>136600</v>
+        <v>136900</v>
       </c>
       <c r="J9" s="3">
-        <v>112500</v>
+        <v>112800</v>
       </c>
       <c r="K9" s="3">
         <v>185800</v>
@@ -961,13 +961,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>39500</v>
+        <v>39600</v>
       </c>
       <c r="E10" s="3">
         <v>28900</v>
       </c>
       <c r="F10" s="3">
-        <v>18700</v>
+        <v>18800</v>
       </c>
       <c r="G10" s="3">
         <v>28200</v>
@@ -976,10 +976,10 @@
         <v>25800</v>
       </c>
       <c r="I10" s="3">
-        <v>47000</v>
+        <v>47200</v>
       </c>
       <c r="J10" s="3">
-        <v>33000</v>
+        <v>33100</v>
       </c>
       <c r="K10" s="3">
         <v>50000</v>
@@ -1097,7 +1097,7 @@
         <v>13500</v>
       </c>
       <c r="J12" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="K12" s="3">
         <v>9400</v>
@@ -1452,25 +1452,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>189100</v>
+        <v>189500</v>
       </c>
       <c r="E17" s="3">
-        <v>133600</v>
+        <v>133900</v>
       </c>
       <c r="F17" s="3">
-        <v>107900</v>
+        <v>108100</v>
       </c>
       <c r="G17" s="3">
-        <v>135000</v>
+        <v>135300</v>
       </c>
       <c r="H17" s="3">
-        <v>107100</v>
+        <v>107300</v>
       </c>
       <c r="I17" s="3">
-        <v>182400</v>
+        <v>182800</v>
       </c>
       <c r="J17" s="3">
-        <v>150900</v>
+        <v>151200</v>
       </c>
       <c r="K17" s="3">
         <v>229100</v>
@@ -1553,7 +1553,7 @@
         <v>-9000</v>
       </c>
       <c r="I18" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J18" s="3">
         <v>-5300</v>
@@ -1920,7 +1920,7 @@
         <v>-7800</v>
       </c>
       <c r="F23" s="3">
-        <v>-13100</v>
+        <v>-13200</v>
       </c>
       <c r="G23" s="3">
         <v>-7500</v>
@@ -3187,25 +3187,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>95300</v>
+        <v>95500</v>
       </c>
       <c r="E41" s="3">
-        <v>101600</v>
+        <v>101800</v>
       </c>
       <c r="F41" s="3">
-        <v>104700</v>
+        <v>105000</v>
       </c>
       <c r="G41" s="3">
-        <v>112500</v>
+        <v>112700</v>
       </c>
       <c r="H41" s="3">
-        <v>119700</v>
+        <v>119900</v>
       </c>
       <c r="I41" s="3">
-        <v>80900</v>
+        <v>81000</v>
       </c>
       <c r="J41" s="3">
-        <v>106300</v>
+        <v>106600</v>
       </c>
       <c r="K41" s="3">
         <v>94900</v>
@@ -3273,25 +3273,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>44700</v>
+        <v>44800</v>
       </c>
       <c r="E42" s="3">
-        <v>50800</v>
+        <v>50900</v>
       </c>
       <c r="F42" s="3">
-        <v>47300</v>
+        <v>47400</v>
       </c>
       <c r="G42" s="3">
-        <v>34000</v>
+        <v>34100</v>
       </c>
       <c r="H42" s="3">
-        <v>60900</v>
+        <v>61000</v>
       </c>
       <c r="I42" s="3">
-        <v>121100</v>
+        <v>121400</v>
       </c>
       <c r="J42" s="3">
-        <v>81400</v>
+        <v>81500</v>
       </c>
       <c r="K42" s="3">
         <v>74000</v>
@@ -3359,25 +3359,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>91600</v>
+        <v>91800</v>
       </c>
       <c r="E43" s="3">
-        <v>86400</v>
+        <v>86600</v>
       </c>
       <c r="F43" s="3">
-        <v>75900</v>
+        <v>76100</v>
       </c>
       <c r="G43" s="3">
-        <v>104900</v>
+        <v>105100</v>
       </c>
       <c r="H43" s="3">
-        <v>65500</v>
+        <v>65600</v>
       </c>
       <c r="I43" s="3">
-        <v>98100</v>
+        <v>98300</v>
       </c>
       <c r="J43" s="3">
-        <v>90800</v>
+        <v>91000</v>
       </c>
       <c r="K43" s="3">
         <v>152100</v>
@@ -3445,25 +3445,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>70200</v>
+        <v>70400</v>
       </c>
       <c r="E44" s="3">
-        <v>69200</v>
+        <v>69400</v>
       </c>
       <c r="F44" s="3">
-        <v>83300</v>
+        <v>83400</v>
       </c>
       <c r="G44" s="3">
-        <v>76500</v>
+        <v>76700</v>
       </c>
       <c r="H44" s="3">
-        <v>86900</v>
+        <v>87100</v>
       </c>
       <c r="I44" s="3">
-        <v>79400</v>
+        <v>79600</v>
       </c>
       <c r="J44" s="3">
-        <v>74600</v>
+        <v>74700</v>
       </c>
       <c r="K44" s="3">
         <v>79300</v>
@@ -3531,22 +3531,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>45600</v>
+        <v>45700</v>
       </c>
       <c r="E45" s="3">
-        <v>35800</v>
+        <v>35900</v>
       </c>
       <c r="F45" s="3">
-        <v>34200</v>
+        <v>34300</v>
       </c>
       <c r="G45" s="3">
-        <v>32000</v>
+        <v>32100</v>
       </c>
       <c r="H45" s="3">
-        <v>36700</v>
+        <v>36800</v>
       </c>
       <c r="I45" s="3">
-        <v>26400</v>
+        <v>26500</v>
       </c>
       <c r="J45" s="3">
         <v>26100</v>
@@ -3617,25 +3617,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>347500</v>
+        <v>348200</v>
       </c>
       <c r="E46" s="3">
-        <v>343800</v>
+        <v>344500</v>
       </c>
       <c r="F46" s="3">
-        <v>345400</v>
+        <v>346200</v>
       </c>
       <c r="G46" s="3">
-        <v>359900</v>
+        <v>360600</v>
       </c>
       <c r="H46" s="3">
-        <v>369700</v>
+        <v>370500</v>
       </c>
       <c r="I46" s="3">
-        <v>405900</v>
+        <v>406800</v>
       </c>
       <c r="J46" s="3">
-        <v>379100</v>
+        <v>379900</v>
       </c>
       <c r="K46" s="3">
         <v>426100</v>
@@ -3789,16 +3789,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>44600</v>
+        <v>44700</v>
       </c>
       <c r="E48" s="3">
-        <v>42900</v>
+        <v>43000</v>
       </c>
       <c r="F48" s="3">
-        <v>39900</v>
+        <v>40000</v>
       </c>
       <c r="G48" s="3">
-        <v>37900</v>
+        <v>38000</v>
       </c>
       <c r="H48" s="3">
         <v>34200</v>
@@ -4139,13 +4139,13 @@
         <v>4900</v>
       </c>
       <c r="F52" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="G52" s="3">
         <v>12000</v>
       </c>
       <c r="H52" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="I52" s="3">
         <v>8600</v>
@@ -4305,25 +4305,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>401500</v>
+        <v>402300</v>
       </c>
       <c r="E54" s="3">
-        <v>397600</v>
+        <v>398500</v>
       </c>
       <c r="F54" s="3">
-        <v>405000</v>
+        <v>405900</v>
       </c>
       <c r="G54" s="3">
-        <v>415600</v>
+        <v>416600</v>
       </c>
       <c r="H54" s="3">
-        <v>420000</v>
+        <v>420900</v>
       </c>
       <c r="I54" s="3">
-        <v>451500</v>
+        <v>452400</v>
       </c>
       <c r="J54" s="3">
-        <v>413400</v>
+        <v>414300</v>
       </c>
       <c r="K54" s="3">
         <v>459100</v>
@@ -4455,25 +4455,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>113200</v>
+        <v>113400</v>
       </c>
       <c r="E57" s="3">
-        <v>116300</v>
+        <v>116500</v>
       </c>
       <c r="F57" s="3">
-        <v>115600</v>
+        <v>115800</v>
       </c>
       <c r="G57" s="3">
-        <v>119300</v>
+        <v>119500</v>
       </c>
       <c r="H57" s="3">
-        <v>128000</v>
+        <v>128300</v>
       </c>
       <c r="I57" s="3">
-        <v>147300</v>
+        <v>147600</v>
       </c>
       <c r="J57" s="3">
-        <v>118400</v>
+        <v>118700</v>
       </c>
       <c r="K57" s="3">
         <v>156700</v>
@@ -4627,25 +4627,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>59200</v>
+        <v>59300</v>
       </c>
       <c r="E59" s="3">
-        <v>62200</v>
+        <v>62300</v>
       </c>
       <c r="F59" s="3">
-        <v>59500</v>
+        <v>59600</v>
       </c>
       <c r="G59" s="3">
-        <v>60700</v>
+        <v>60800</v>
       </c>
       <c r="H59" s="3">
-        <v>58700</v>
+        <v>58800</v>
       </c>
       <c r="I59" s="3">
-        <v>71600</v>
+        <v>71800</v>
       </c>
       <c r="J59" s="3">
-        <v>64000</v>
+        <v>64200</v>
       </c>
       <c r="K59" s="3">
         <v>63500</v>
@@ -4713,25 +4713,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>190200</v>
+        <v>190600</v>
       </c>
       <c r="E60" s="3">
-        <v>182800</v>
+        <v>183200</v>
       </c>
       <c r="F60" s="3">
-        <v>176900</v>
+        <v>177300</v>
       </c>
       <c r="G60" s="3">
-        <v>181700</v>
+        <v>182100</v>
       </c>
       <c r="H60" s="3">
-        <v>187400</v>
+        <v>187800</v>
       </c>
       <c r="I60" s="3">
-        <v>219700</v>
+        <v>220200</v>
       </c>
       <c r="J60" s="3">
-        <v>183200</v>
+        <v>183600</v>
       </c>
       <c r="K60" s="3">
         <v>221000</v>
@@ -4799,7 +4799,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="E61" s="3">
         <v>15800</v>
@@ -5229,25 +5229,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>209000</v>
+        <v>209500</v>
       </c>
       <c r="E66" s="3">
-        <v>200200</v>
+        <v>200600</v>
       </c>
       <c r="F66" s="3">
-        <v>192300</v>
+        <v>192700</v>
       </c>
       <c r="G66" s="3">
-        <v>196100</v>
+        <v>196500</v>
       </c>
       <c r="H66" s="3">
-        <v>198700</v>
+        <v>199200</v>
       </c>
       <c r="I66" s="3">
-        <v>224500</v>
+        <v>225000</v>
       </c>
       <c r="J66" s="3">
-        <v>188200</v>
+        <v>188600</v>
       </c>
       <c r="K66" s="3">
         <v>224000</v>
@@ -5694,22 +5694,22 @@
         <v>16500</v>
       </c>
       <c r="E72" s="3">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="F72" s="3">
-        <v>38700</v>
+        <v>38800</v>
       </c>
       <c r="G72" s="3">
-        <v>49600</v>
+        <v>49800</v>
       </c>
       <c r="H72" s="3">
-        <v>55100</v>
+        <v>55200</v>
       </c>
       <c r="I72" s="3">
-        <v>62000</v>
+        <v>62100</v>
       </c>
       <c r="J72" s="3">
-        <v>58900</v>
+        <v>59000</v>
       </c>
       <c r="K72" s="3">
         <v>64900</v>
@@ -6035,25 +6035,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>192400</v>
+        <v>192900</v>
       </c>
       <c r="E76" s="3">
-        <v>197400</v>
+        <v>197800</v>
       </c>
       <c r="F76" s="3">
-        <v>212700</v>
+        <v>213200</v>
       </c>
       <c r="G76" s="3">
-        <v>219600</v>
+        <v>220100</v>
       </c>
       <c r="H76" s="3">
-        <v>221300</v>
+        <v>221800</v>
       </c>
       <c r="I76" s="3">
-        <v>227000</v>
+        <v>227500</v>
       </c>
       <c r="J76" s="3">
-        <v>225200</v>
+        <v>225700</v>
       </c>
       <c r="K76" s="3">
         <v>235100</v>
